--- a/public/alphatrace_data.xlsx
+++ b/public/alphatrace_data.xlsx
@@ -17484,7 +17484,7 @@
         <v>47.02000045776367</v>
       </c>
       <c r="O1012">
-        <v>44.31641387939453</v>
+        <v>44.31641006469727</v>
       </c>
       <c r="R1012">
         <v>101.2959386058156</v>
@@ -17538,7 +17538,7 @@
         <v>43.50481167446676</v>
       </c>
       <c r="AJ1012">
-        <v>41.00334370780397</v>
+        <v>41.00334017829132</v>
       </c>
       <c r="AM1012">
         <v>109.7775018661136</v>
@@ -17591,7 +17591,7 @@
         <v>49.40000152587891</v>
       </c>
       <c r="O1013">
-        <v>45.36110183525085</v>
+        <v>45.36112472438812</v>
       </c>
       <c r="R1013">
         <v>104.4357686920764</v>
@@ -17645,7 +17645,7 @@
         <v>46.76259137247151</v>
       </c>
       <c r="AJ1013">
-        <v>42.93932396369826</v>
+        <v>42.93934563081041</v>
       </c>
       <c r="AM1013">
         <v>115.7943906884575</v>
@@ -17698,7 +17698,7 @@
         <v>46.36000061035156</v>
       </c>
       <c r="O1014">
-        <v>43.92480136792159</v>
+        <v>43.92481662359948</v>
       </c>
       <c r="S1014">
         <v>517.8084040644889</v>
@@ -17749,7 +17749,7 @@
         <v>44.48282537934328</v>
       </c>
       <c r="AJ1014">
-        <v>42.1462304432178</v>
+        <v>42.14624508117394</v>
       </c>
       <c r="AN1014">
         <v>475.8580734612063</v>
@@ -17799,7 +17799,7 @@
         <v>44.79999923706055</v>
       </c>
       <c r="O1015">
-        <v>48.63607958887422</v>
+        <v>48.63609102844618</v>
       </c>
       <c r="R1015">
         <v>106.9009030080486</v>
@@ -17853,7 +17853,7 @@
         <v>43.45295755292003</v>
       </c>
       <c r="AJ1015">
-        <v>47.17369504255502</v>
+        <v>47.17370613816313</v>
       </c>
       <c r="AM1015">
         <v>121.4477169711815</v>
@@ -17906,7 +17906,7 @@
         <v>42.54000091552734</v>
       </c>
       <c r="O1016">
-        <v>47.75352564418382</v>
+        <v>47.75354089274845</v>
       </c>
       <c r="S1016">
         <v>493.3811077577188</v>
@@ -17957,7 +17957,7 @@
         <v>39.77931636013405</v>
       </c>
       <c r="AJ1016">
-        <v>44.654503127159</v>
+        <v>44.65451738614967</v>
       </c>
       <c r="AN1016">
         <v>465.2431353924552</v>
@@ -18007,7 +18007,7 @@
         <v>40.06000137329102</v>
       </c>
       <c r="O1017">
-        <v>50.35209972368791</v>
+        <v>50.35207685919671</v>
       </c>
       <c r="R1017">
         <v>106.0172708039401</v>
@@ -18061,7 +18061,7 @@
         <v>37.8603169580295</v>
       </c>
       <c r="AJ1017">
-        <v>47.58727882401276</v>
+        <v>47.58725721500492</v>
       </c>
       <c r="AM1017">
         <v>117.3590410767593</v>
@@ -18114,7 +18114,7 @@
         <v>37.11999893188477</v>
       </c>
       <c r="O1018">
-        <v>50.76128390735273</v>
+        <v>50.76128009877765</v>
       </c>
       <c r="R1018">
         <v>105.4890812828478</v>
@@ -18168,7 +18168,7 @@
         <v>34.87738319260055</v>
       </c>
       <c r="AJ1018">
-        <v>47.69452589246709</v>
+        <v>47.69452231398821</v>
       </c>
       <c r="AM1018">
         <v>116.0940854169444</v>
@@ -18221,7 +18221,7 @@
         <v>41.79999923706055</v>
       </c>
       <c r="O1019">
-        <v>55.43993368469614</v>
+        <v>55.43993368622441</v>
       </c>
       <c r="S1019">
         <v>474.5139391306674</v>
@@ -18272,7 +18272,7 @@
         <v>39.74139497723954</v>
       </c>
       <c r="AJ1019">
-        <v>52.70957756673906</v>
+        <v>52.70957756819206</v>
       </c>
       <c r="AN1019">
         <v>440.0878913438034</v>
@@ -18322,7 +18322,7 @@
         <v>37.29999923706055</v>
       </c>
       <c r="O1020">
-        <v>61.96083389687636</v>
+        <v>61.9608262821229</v>
       </c>
       <c r="R1020">
         <v>106.9370919365571</v>
@@ -18376,7 +18376,7 @@
         <v>37.01498386132832</v>
       </c>
       <c r="AJ1020">
-        <v>61.48738106269361</v>
+        <v>61.48737350612573</v>
       </c>
       <c r="AM1020">
         <v>124.2978903871953</v>
@@ -18429,7 +18429,7 @@
         <v>36.59999847412109</v>
       </c>
       <c r="O1021">
-        <v>77.01404769614331</v>
+        <v>77.01406292756909</v>
       </c>
       <c r="Q1021">
         <v>100</v>
@@ -18486,7 +18486,7 @@
         <v>36.34557941819374</v>
       </c>
       <c r="AJ1021">
-        <v>76.47869681841442</v>
+        <v>76.47871194396136</v>
       </c>
       <c r="AL1021">
         <v>100</v>
@@ -18542,7 +18542,7 @@
         <v>32.91999816894531</v>
       </c>
       <c r="O1022">
-        <v>75.572483530212</v>
+        <v>75.57252159741866</v>
       </c>
       <c r="Q1022">
         <v>102.2775</v>
@@ -18599,7 +18599,7 @@
         <v>33.73987718452938</v>
       </c>
       <c r="AJ1022">
-        <v>77.45463106509378</v>
+        <v>77.45467008037168</v>
       </c>
       <c r="AL1022">
         <v>105.558514399918</v>
@@ -18655,7 +18655,7 @@
         <v>28.79999923706055</v>
       </c>
       <c r="O1023">
-        <v>89.93081820668196</v>
+        <v>89.93081059869397</v>
       </c>
       <c r="Q1023">
         <v>101.4160639086012</v>
@@ -18712,7 +18712,7 @@
         <v>29.86622341290111</v>
       </c>
       <c r="AJ1023">
-        <v>93.26020761866842</v>
+        <v>93.26019972901997</v>
       </c>
       <c r="AL1023">
         <v>105.9068509343165</v>
@@ -18768,7 +18768,7 @@
         <v>36.40000152587891</v>
       </c>
       <c r="O1024">
-        <v>92.22505206645225</v>
+        <v>92.2250596797882</v>
       </c>
       <c r="Q1024">
         <v>99.44604648007511</v>
@@ -18825,7 +18825,7 @@
         <v>38.01963810933665</v>
       </c>
       <c r="AJ1024">
-        <v>96.32865267020289</v>
+        <v>96.3286606222981</v>
       </c>
       <c r="AL1024">
         <v>104.5980455456817</v>
@@ -18881,7 +18881,7 @@
         <v>38.31999969482422</v>
       </c>
       <c r="O1025">
-        <v>79.77899562579267</v>
+        <v>79.778980412981</v>
       </c>
       <c r="Q1025">
         <v>97.94160413033353</v>
@@ -18935,7 +18935,7 @@
         <v>42.16085344352978</v>
       </c>
       <c r="AJ1025">
-        <v>87.77532800725346</v>
+        <v>87.77531126964573</v>
       </c>
       <c r="AL1025">
         <v>108.5127025627086</v>
@@ -18988,7 +18988,7 @@
         <v>37.72000122070312</v>
       </c>
       <c r="O1026">
-        <v>69.970878281531</v>
+        <v>69.97087067834771</v>
       </c>
       <c r="Q1026">
         <v>98.00806942076834</v>
@@ -19045,7 +19045,7 @@
         <v>40.43739410452736</v>
       </c>
       <c r="AJ1026">
-        <v>75.01166196562072</v>
+        <v>75.01165381469524</v>
       </c>
       <c r="AL1026">
         <v>105.8041658519658</v>
@@ -19101,7 +19101,7 @@
         <v>35.20000076293945</v>
       </c>
       <c r="O1027">
-        <v>78.63393922341997</v>
+        <v>78.63396203604911</v>
       </c>
       <c r="Q1027">
         <v>96.13351157543177</v>
@@ -19158,7 +19158,7 @@
         <v>36.8779473681922</v>
       </c>
       <c r="AJ1027">
-        <v>82.38233548812988</v>
+        <v>82.38235938821279</v>
       </c>
       <c r="AL1027">
         <v>101.4211065023151</v>
@@ -19214,7 +19214,7 @@
         <v>36.5</v>
       </c>
       <c r="O1028">
-        <v>75.24810702718247</v>
+        <v>75.24803101068248</v>
       </c>
       <c r="Q1028">
         <v>94.56413488803904</v>
@@ -19271,7 +19271,7 @@
         <v>39.39132311677099</v>
       </c>
       <c r="AJ1028">
-        <v>81.20883555707152</v>
+        <v>81.20875351897527</v>
       </c>
       <c r="AL1028">
         <v>102.769354448797</v>
@@ -19327,7 +19327,7 @@
         <v>38.2599983215332</v>
       </c>
       <c r="O1029">
-        <v>85.48315548372993</v>
+        <v>85.4831326822507</v>
       </c>
       <c r="Q1029">
         <v>95.28956556573914</v>
@@ -19384,7 +19384,7 @@
         <v>43.09528984178103</v>
       </c>
       <c r="AJ1029">
-        <v>96.28650088277757</v>
+        <v>96.2864751996516</v>
       </c>
       <c r="AL1029">
         <v>108.0835689622655</v>
@@ -19440,7 +19440,7 @@
         <v>41.40000152587891</v>
       </c>
       <c r="O1030">
-        <v>74.63181892225491</v>
+        <v>74.63181132361868</v>
       </c>
       <c r="Q1030">
         <v>92.1425759237909</v>
@@ -19494,7 +19494,7 @@
         <v>46.84847971696153</v>
       </c>
       <c r="AJ1030">
-        <v>84.45379531770386</v>
+        <v>84.45378671904342</v>
       </c>
       <c r="AL1030">
         <v>104.9989520824459</v>
@@ -19547,7 +19547,7 @@
         <v>42.06000137329102</v>
       </c>
       <c r="O1031">
-        <v>68.68729055052877</v>
+        <v>68.68729054995121</v>
       </c>
       <c r="Q1031">
         <v>93.68885847219669</v>
@@ -19604,7 +19604,7 @@
         <v>49.56398936282231</v>
       </c>
       <c r="AJ1031">
-        <v>80.94189317762051</v>
+        <v>80.94189317693991</v>
       </c>
       <c r="AL1031">
         <v>111.1768565655221</v>
@@ -19660,7 +19660,7 @@
         <v>43.47999954223633</v>
       </c>
       <c r="O1032">
-        <v>52.93336523682581</v>
+        <v>52.93337283026329</v>
       </c>
       <c r="Q1032">
         <v>99.95440025551854</v>
@@ -19717,7 +19717,7 @@
         <v>50.01150165888697</v>
       </c>
       <c r="AJ1032">
-        <v>60.88493816060021</v>
+        <v>60.88494689471279</v>
       </c>
       <c r="AL1032">
         <v>115.7741903120625</v>
@@ -19773,7 +19773,7 @@
         <v>47.08000183105469</v>
       </c>
       <c r="O1033">
-        <v>49.04633281500219</v>
+        <v>49.0463062450042</v>
       </c>
       <c r="Q1033">
         <v>108.737899136861</v>
@@ -19827,7 +19827,7 @@
         <v>50.14912849494534</v>
       </c>
       <c r="AJ1033">
-        <v>52.24364381657669</v>
+        <v>52.24361551449105</v>
       </c>
       <c r="AL1033">
         <v>116.6372650520015</v>
@@ -19880,7 +19880,7 @@
         <v>45</v>
       </c>
       <c r="O1034">
-        <v>54.01222124361647</v>
+        <v>54.01220985827499</v>
       </c>
       <c r="Q1034">
         <v>109.4848443879189</v>
@@ -19937,7 +19937,7 @@
         <v>48.34550923936399</v>
       </c>
       <c r="AJ1034">
-        <v>58.0277409149296</v>
+        <v>58.02772868314889</v>
       </c>
       <c r="AL1034">
         <v>118.4478279959544</v>
@@ -19993,7 +19993,7 @@
         <v>46.77999877929688</v>
       </c>
       <c r="O1035">
-        <v>39.84465960895952</v>
+        <v>39.84466340277704</v>
       </c>
       <c r="Q1035">
         <v>109.5592589071255</v>
@@ -20050,7 +20050,7 @@
         <v>50.78158790631446</v>
       </c>
       <c r="AJ1035">
-        <v>43.25299566756353</v>
+        <v>43.25299978590647</v>
       </c>
       <c r="AL1035">
         <v>119.7635407289138</v>
@@ -20106,7 +20106,7 @@
         <v>43.52000045776367</v>
       </c>
       <c r="O1036">
-        <v>32.86503850022166</v>
+        <v>32.86503091524848</v>
       </c>
       <c r="Q1036">
         <v>115.3406991954104</v>
@@ -20160,7 +20160,7 @@
         <v>49.48828798926959</v>
       </c>
       <c r="AJ1036">
-        <v>37.37211564728413</v>
+        <v>37.37210702211563</v>
       </c>
       <c r="AL1036">
         <v>132.076511359766</v>
@@ -20213,7 +20213,7 @@
         <v>45.5</v>
       </c>
       <c r="O1037">
-        <v>38.73306792415996</v>
+        <v>38.73305654930062</v>
       </c>
       <c r="Q1037">
         <v>110.3435692482224</v>
@@ -20270,7 +20270,7 @@
         <v>51.27338291638495</v>
       </c>
       <c r="AJ1037">
-        <v>43.64781149894068</v>
+        <v>43.64779868075346</v>
       </c>
       <c r="AL1037">
         <v>125.2152064829389</v>
@@ -20326,7 +20326,7 @@
         <v>45.43999862670898</v>
       </c>
       <c r="O1038">
-        <v>37.53159019569733</v>
+        <v>37.53159398612247</v>
       </c>
       <c r="Q1038">
         <v>111.433030804796</v>
@@ -20383,7 +20383,7 @@
         <v>53.74334550763925</v>
       </c>
       <c r="AJ1038">
-        <v>44.38981690798028</v>
+        <v>44.38982139103781</v>
       </c>
       <c r="AL1038">
         <v>132.7179917450379</v>
@@ -20439,7 +20439,7 @@
         <v>46</v>
       </c>
       <c r="O1039">
-        <v>38.33610153976554</v>
+        <v>38.33610153965216</v>
       </c>
       <c r="Q1039">
         <v>110.0374611241856</v>
@@ -20493,7 +20493,7 @@
         <v>54.28369129100778</v>
       </c>
       <c r="AJ1039">
-        <v>45.23967611489915</v>
+        <v>45.23967611476535</v>
       </c>
       <c r="AL1039">
         <v>130.76200537179</v>
@@ -20546,7 +20546,7 @@
         <v>45.91999816894531</v>
       </c>
       <c r="O1040">
-        <v>35.0214083243686</v>
+        <v>35.02138180349579</v>
       </c>
       <c r="Q1040">
         <v>109.1657255409477</v>
@@ -20603,7 +20603,7 @@
         <v>52.46800522045854</v>
       </c>
       <c r="AJ1040">
-        <v>40.01532029749612</v>
+        <v>40.0152899948535</v>
       </c>
       <c r="AL1040">
         <v>125.6054451779414</v>
@@ -20659,7 +20659,7 @@
         <v>46.2400016784668</v>
       </c>
       <c r="O1041">
-        <v>30.71043202386477</v>
+        <v>30.7104358116845</v>
       </c>
       <c r="Q1041">
         <v>111.0947443129178</v>
@@ -20716,7 +20716,7 @@
         <v>50.869088755189</v>
       </c>
       <c r="AJ1041">
-        <v>33.7848537116224</v>
+        <v>33.78485787864081</v>
       </c>
       <c r="AL1041">
         <v>123.0719554709662</v>
@@ -20772,7 +20772,7 @@
         <v>46.59999847412109</v>
       </c>
       <c r="O1042">
-        <v>24.28903420837787</v>
+        <v>24.28903799498866</v>
       </c>
       <c r="Q1042">
         <v>112.8030630404546</v>
@@ -20826,7 +20826,7 @@
         <v>51.21441748996713</v>
       </c>
       <c r="AJ1042">
-        <v>26.69417980918548</v>
+        <v>26.69418397075356</v>
       </c>
       <c r="AL1042">
         <v>124.840844578237</v>
@@ -20879,7 +20879,7 @@
         <v>47.08000183105469</v>
       </c>
       <c r="O1043">
-        <v>28.40656472963418</v>
+        <v>28.40657608624664</v>
       </c>
       <c r="Q1043">
         <v>116.9067235585528</v>
@@ -20936,7 +20936,7 @@
         <v>52.3518312365781</v>
       </c>
       <c r="AJ1043">
-        <v>31.58741769113108</v>
+        <v>31.58743031941136</v>
       </c>
       <c r="AL1043">
         <v>130.9074509323503</v>
@@ -20992,7 +20992,7 @@
         <v>46.65999984741211</v>
       </c>
       <c r="O1044">
-        <v>33.21768826495201</v>
+        <v>33.21769961922286</v>
       </c>
       <c r="Q1044">
         <v>107.9014599696934</v>
@@ -21049,7 +21049,7 @@
         <v>52.08751936527362</v>
       </c>
       <c r="AJ1044">
-        <v>37.08158993631615</v>
+        <v>37.08160261132268</v>
       </c>
       <c r="AL1044">
         <v>121.2957916828324</v>
@@ -21105,7 +21105,7 @@
         <v>50.5</v>
       </c>
       <c r="O1045">
-        <v>32.58943897694173</v>
+        <v>32.58942384206208</v>
       </c>
       <c r="Q1045">
         <v>110.6069941487283</v>
@@ -21162,7 +21162,7 @@
         <v>56.73519829232671</v>
       </c>
       <c r="AJ1045">
-        <v>36.61323331866276</v>
+        <v>36.61321631509053</v>
       </c>
       <c r="AL1045">
         <v>125.1334042329731</v>
@@ -21218,7 +21218,7 @@
         <v>49.06000137329102</v>
       </c>
       <c r="O1046">
-        <v>32.24627288069863</v>
+        <v>32.24625018406732</v>
       </c>
       <c r="Q1046">
         <v>109.9753327688799</v>
@@ -21275,7 +21275,7 @@
         <v>57.08634090445778</v>
       </c>
       <c r="AJ1046">
-        <v>37.52184417116434</v>
+        <v>37.5218177613071</v>
       </c>
       <c r="AL1046">
         <v>128.8633466351664</v>
@@ -21331,7 +21331,7 @@
         <v>48.5</v>
       </c>
       <c r="O1047">
-        <v>28.27754850113669</v>
+        <v>28.27754850186078</v>
       </c>
       <c r="Q1047">
         <v>107.5722277326803</v>
@@ -21388,7 +21388,7 @@
         <v>56.01755601755602</v>
       </c>
       <c r="AJ1047">
-        <v>32.66060117941406</v>
+        <v>32.66060118025038</v>
       </c>
       <c r="AL1047">
         <v>125.1157696082341</v>
@@ -21444,7 +21444,7 @@
         <v>47.38000106811523</v>
       </c>
       <c r="O1048">
-        <v>30.17909044198509</v>
+        <v>30.17908666200435</v>
       </c>
       <c r="Q1048">
         <v>107.6073230120907</v>
@@ -21498,7 +21498,7 @@
         <v>54.35356323060139</v>
       </c>
       <c r="AJ1048">
-        <v>34.62095955258126</v>
+        <v>34.62095521624911</v>
       </c>
       <c r="AL1048">
         <v>124.3094806391825</v>
@@ -21551,7 +21551,7 @@
         <v>48.65999984741211</v>
       </c>
       <c r="O1049">
-        <v>26.54770487235003</v>
+        <v>26.54770865306398</v>
       </c>
       <c r="Q1049">
         <v>105.8890943747032</v>
@@ -21608,7 +21608,7 @@
         <v>54.05465435171308</v>
       </c>
       <c r="AJ1049">
-        <v>29.49089632564989</v>
+        <v>29.49090052550986</v>
       </c>
       <c r="AL1049">
         <v>118.4518085262454</v>
@@ -21664,7 +21664,7 @@
         <v>49.43999862670898</v>
       </c>
       <c r="O1050">
-        <v>25.12709040621969</v>
+        <v>25.12709229648914</v>
       </c>
       <c r="Q1050">
         <v>109.7516835789847</v>
@@ -21721,7 +21721,7 @@
         <v>52.93928539105791</v>
       </c>
       <c r="AJ1050">
-        <v>26.90554706737305</v>
+        <v>26.90554909143286</v>
       </c>
       <c r="AL1050">
         <v>118.3423764471973</v>
@@ -21777,7 +21777,7 @@
         <v>44.68000030517578</v>
       </c>
       <c r="O1051">
-        <v>21.82517812908813</v>
+        <v>21.82518001870515</v>
       </c>
       <c r="Q1051">
         <v>117.6075859696538</v>
@@ -21831,7 +21831,7 @@
         <v>45.33279251742672</v>
       </c>
       <c r="AJ1051">
-        <v>22.14405248487026</v>
+        <v>22.14405440209532</v>
       </c>
       <c r="AL1051">
         <v>120.1611597721605</v>
@@ -21884,7 +21884,7 @@
         <v>45.7400016784668</v>
       </c>
       <c r="O1052">
-        <v>19.93824268692406</v>
+        <v>19.93824079925056</v>
       </c>
       <c r="Q1052">
         <v>120.7259814602109</v>
@@ -21941,7 +21941,7 @@
         <v>46.69252927569089</v>
       </c>
       <c r="AJ1052">
-        <v>20.35345313079222</v>
+        <v>20.35345120380824</v>
       </c>
       <c r="AL1052">
         <v>124.1027596268194</v>
@@ -21997,7 +21997,7 @@
         <v>48.79999923706055</v>
       </c>
       <c r="O1053">
-        <v>19.63230087668402</v>
+        <v>19.63230465299402</v>
       </c>
       <c r="Q1053">
         <v>123.2097529491386</v>
@@ -22051,7 +22051,7 @@
         <v>49.76544894662507</v>
       </c>
       <c r="AJ1053">
-        <v>20.02070250528658</v>
+        <v>20.02070635630636</v>
       </c>
       <c r="AL1053">
         <v>126.5268419536841</v>
@@ -22104,7 +22104,7 @@
         <v>49.29999923706055</v>
       </c>
       <c r="O1054">
-        <v>17.31229806638959</v>
+        <v>17.31230939100305</v>
       </c>
       <c r="Q1054">
         <v>125.7345202383867</v>
@@ -22161,7 +22161,7 @@
         <v>49.90383564840626</v>
       </c>
       <c r="AJ1054">
-        <v>17.52434261199472</v>
+        <v>17.52435407531435</v>
       </c>
       <c r="AL1054">
         <v>128.1654639943875</v>
@@ -22217,7 +22217,7 @@
         <v>49.20000076293945</v>
       </c>
       <c r="O1055">
-        <v>20.50807051409182</v>
+        <v>20.5080799497286</v>
       </c>
       <c r="Q1055">
         <v>121.4529308582775</v>
@@ -22274,7 +22274,7 @@
         <v>49.79253189245973</v>
       </c>
       <c r="AJ1055">
-        <v>20.75505567664388</v>
+        <v>20.75506522591701</v>
       </c>
       <c r="AL1055">
         <v>123.7760362051265</v>
@@ -22330,7 +22330,7 @@
         <v>48.22000122070312</v>
       </c>
       <c r="O1056">
-        <v>23.1510382285144</v>
+        <v>23.15104011654204</v>
       </c>
       <c r="Q1056">
         <v>118.5621447365744</v>
@@ -22384,7 +22384,7 @@
         <v>48.55014218757866</v>
       </c>
       <c r="AJ1056">
-        <v>23.30954312174225</v>
+        <v>23.30954502269638</v>
       </c>
       <c r="AL1056">
         <v>120.2095043795111</v>
@@ -22437,7 +22437,7 @@
         <v>48.45999908447266</v>
       </c>
       <c r="O1057">
-        <v>20.34741966165576</v>
+        <v>20.34742343497545</v>
       </c>
       <c r="Q1057">
         <v>123.9576435436518</v>
@@ -22494,7 +22494,7 @@
         <v>46.21840637527197</v>
       </c>
       <c r="AJ1057">
-        <v>19.40621808455485</v>
+        <v>19.40622168333377</v>
       </c>
       <c r="AL1057">
         <v>119.0513562693919</v>
@@ -22550,7 +22550,7 @@
         <v>44.47999954223633</v>
       </c>
       <c r="O1058">
-        <v>20.40076923433597</v>
+        <v>20.40077112124735</v>
       </c>
       <c r="Q1058">
         <v>129.9772330755137</v>
@@ -22607,7 +22607,7 @@
         <v>41.41912612183287</v>
       </c>
       <c r="AJ1058">
-        <v>18.99689843964612</v>
+        <v>18.99690019671045</v>
       </c>
       <c r="AL1058">
         <v>121.8801319555287</v>
@@ -22663,7 +22663,7 @@
         <v>41.29999923706055</v>
       </c>
       <c r="O1059">
-        <v>20.99668301118194</v>
+        <v>20.99668301267607</v>
       </c>
       <c r="Q1059">
         <v>135.9864964629172</v>
@@ -22720,7 +22720,7 @@
         <v>38.31524189355278</v>
       </c>
       <c r="AJ1059">
-        <v>19.47924947692916</v>
+        <v>19.4792494783153</v>
       </c>
       <c r="AL1059">
         <v>127.0418424140993</v>
@@ -22776,7 +22776,7 @@
         <v>42.7400016784668</v>
       </c>
       <c r="O1060">
-        <v>21.06653480419168</v>
+        <v>21.06654988204294</v>
       </c>
       <c r="Q1060">
         <v>128.3720397679747</v>
@@ -22833,7 +22833,7 @@
         <v>39.21101071418972</v>
       </c>
       <c r="AJ1060">
-        <v>19.32709615063457</v>
+        <v>19.32710998352563</v>
       </c>
       <c r="AL1060">
         <v>118.5969211434408</v>
@@ -22889,7 +22889,7 @@
         <v>46.63999938964844</v>
       </c>
       <c r="O1061">
-        <v>22.89678071230023</v>
+        <v>22.8967731779451</v>
       </c>
       <c r="Q1061">
         <v>130.3698491581594</v>
@@ -22946,7 +22946,7 @@
         <v>41.7173518690952</v>
       </c>
       <c r="AJ1061">
-        <v>20.48012586073366</v>
+        <v>20.48011912159669</v>
       </c>
       <c r="AL1061">
         <v>117.4261521487178</v>
@@ -23002,7 +23002,7 @@
         <v>47.47999954223633</v>
       </c>
       <c r="O1062">
-        <v>24.84290069655815</v>
+        <v>24.84290258231098</v>
       </c>
       <c r="Q1062">
         <v>137.3341477723506</v>
@@ -23056,7 +23056,7 @@
         <v>40.35356071922176</v>
       </c>
       <c r="AJ1062">
-        <v>21.11414303634043</v>
+        <v>21.11414463905404</v>
       </c>
       <c r="AL1062">
         <v>117.5382345799397</v>
@@ -23109,7 +23109,7 @@
         <v>48.59999847412109</v>
       </c>
       <c r="O1063">
-        <v>24.97012651313311</v>
+        <v>24.97012274880604</v>
       </c>
       <c r="Q1063">
         <v>135.2936673977966</v>
@@ -23166,7 +23166,7 @@
         <v>42.25351980014006</v>
       </c>
       <c r="AJ1063">
-        <v>21.70937794569041</v>
+        <v>21.70937467293171</v>
       </c>
       <c r="AL1063">
         <v>118.4495940441498</v>
@@ -23222,7 +23222,7 @@
         <v>48.06000137329102</v>
       </c>
       <c r="O1064">
-        <v>26.50628032475349</v>
+        <v>26.50628220965588</v>
       </c>
       <c r="Q1064">
         <v>133.4641949574145</v>
@@ -23279,7 +23279,7 @@
         <v>42.79227261445197</v>
       </c>
       <c r="AJ1064">
-        <v>23.60099752894087</v>
+        <v>23.60099920724413</v>
       </c>
       <c r="AL1064">
         <v>119.667388765129</v>
@@ -23335,7 +23335,7 @@
         <v>50.59999847412109</v>
       </c>
       <c r="O1065">
-        <v>27.8249631592853</v>
+        <v>27.82496316155101</v>
       </c>
       <c r="Q1065">
         <v>136.2189727234594</v>
@@ -23389,7 +23389,7 @@
         <v>46.05861867296659</v>
       </c>
       <c r="AJ1065">
-        <v>25.32765625276287</v>
+        <v>25.32765625482524</v>
       </c>
       <c r="AL1065">
         <v>124.8611920012048</v>
@@ -23442,7 +23442,7 @@
         <v>49.91999816894531</v>
       </c>
       <c r="O1066">
-        <v>27.00967997350101</v>
+        <v>27.00967997570033</v>
       </c>
       <c r="Q1066">
         <v>135.3933408462378</v>
@@ -23499,7 +23499,7 @@
         <v>42.84978383600456</v>
       </c>
       <c r="AJ1066">
-        <v>23.18427465536567</v>
+        <v>23.1842746572535</v>
       </c>
       <c r="AL1066">
         <v>117.0309821735291</v>
@@ -23555,7 +23555,7 @@
         <v>51.84999847412109</v>
       </c>
       <c r="O1067">
-        <v>29.30232951282408</v>
+        <v>29.30232010839467</v>
       </c>
       <c r="Q1067">
         <v>138.3407995654779</v>
@@ -23612,7 +23612,7 @@
         <v>44.66362173668799</v>
       </c>
       <c r="AJ1067">
-        <v>25.2410453207202</v>
+        <v>25.24103721973871</v>
       </c>
       <c r="AL1067">
         <v>120.0010208996781</v>
@@ -23668,7 +23668,7 @@
         <v>56.02000045776367</v>
       </c>
       <c r="O1068">
-        <v>29.46160351158647</v>
+        <v>29.46158470486121</v>
       </c>
       <c r="Q1068">
         <v>137.9744439766379</v>
@@ -23722,7 +23722,7 @@
         <v>46.70279321197471</v>
       </c>
       <c r="AJ1068">
-        <v>24.56157024725841</v>
+        <v>24.56155456845453</v>
       </c>
       <c r="AL1068">
         <v>115.8318174943513</v>
@@ -23775,7 +23775,7 @@
         <v>56.29999923706055</v>
       </c>
       <c r="O1069">
-        <v>30.35356157266414</v>
+        <v>30.35354841196251</v>
       </c>
       <c r="P1069">
         <v>100</v>
@@ -23835,7 +23835,7 @@
         <v>44.69318031043942</v>
       </c>
       <c r="AJ1069">
-        <v>24.09586534306909</v>
+        <v>24.09585489558031</v>
       </c>
       <c r="AK1069">
         <v>100</v>
@@ -23894,10 +23894,10 @@
         <v>59.61999893188477</v>
       </c>
       <c r="O1070">
-        <v>30.86584744752519</v>
+        <v>30.86584933014945</v>
       </c>
       <c r="P1070">
-        <v>102.3358712870716</v>
+        <v>102.3358928644494</v>
       </c>
       <c r="Q1070">
         <v>143.7297170073446</v>
@@ -23951,10 +23951,10 @@
         <v>47.87985779945772</v>
       </c>
       <c r="AJ1070">
-        <v>24.78786335329681</v>
+        <v>24.78786486520193</v>
       </c>
       <c r="AK1070">
-        <v>103.5275434149728</v>
+        <v>103.527565243613</v>
       </c>
       <c r="AL1070">
         <v>116.2350024304498</v>
@@ -24007,10 +24007,10 @@
         <v>62.65999984741211</v>
       </c>
       <c r="O1071">
-        <v>30.44183459066162</v>
+        <v>30.44183271368609</v>
       </c>
       <c r="P1071">
-        <v>104.4743062376917</v>
+        <v>104.4743701578816</v>
       </c>
       <c r="Q1071">
         <v>149.4660191510995</v>
@@ -24064,10 +24064,10 @@
         <v>50.36572610514597</v>
       </c>
       <c r="AJ1071">
-        <v>24.46896116924815</v>
+        <v>24.46895966054666</v>
       </c>
       <c r="AK1071">
-        <v>105.7843288864402</v>
+        <v>105.7843936081371</v>
       </c>
       <c r="AL1071">
         <v>120.980854662131</v>
@@ -24120,10 +24120,10 @@
         <v>62.22000122070312</v>
       </c>
       <c r="O1072">
-        <v>29.82655437868722</v>
+        <v>29.8265412277343</v>
       </c>
       <c r="P1072">
-        <v>104.7462804513799</v>
+        <v>104.7463027867259</v>
       </c>
       <c r="Q1072">
         <v>147.999834096164</v>
@@ -24180,10 +24180,10 @@
         <v>50.61828931069242</v>
       </c>
       <c r="AJ1072">
-        <v>24.26501332467232</v>
+        <v>24.26500262588211</v>
       </c>
       <c r="AK1072">
-        <v>107.3453380122057</v>
+        <v>107.3453609017561</v>
       </c>
       <c r="AL1072">
         <v>121.2462031685951</v>
@@ -24239,10 +24239,10 @@
         <v>62.38000106811523</v>
       </c>
       <c r="O1073">
-        <v>28.92863005210955</v>
+        <v>28.92863005458634</v>
       </c>
       <c r="P1073">
-        <v>101.8450049127487</v>
+        <v>101.8449742756085</v>
       </c>
       <c r="Q1073">
         <v>142.1329408089576</v>
@@ -24299,10 +24299,10 @@
         <v>52.09185892953256</v>
       </c>
       <c r="AJ1073">
-        <v>24.15751987650067</v>
+        <v>24.15751987856897</v>
       </c>
       <c r="AK1073">
-        <v>107.1349918067554</v>
+        <v>107.1349595782747</v>
       </c>
       <c r="AL1073">
         <v>119.5222308097038</v>
@@ -24358,10 +24358,10 @@
         <v>59.43999862670898</v>
       </c>
       <c r="O1074">
-        <v>30.40235242404428</v>
+        <v>30.40234491423106</v>
       </c>
       <c r="P1074">
-        <v>102.510380195971</v>
+        <v>102.5104122475903</v>
       </c>
       <c r="Q1074">
         <v>139.9149747220563</v>
@@ -24415,10 +24415,10 @@
         <v>48.65351446894408</v>
       </c>
       <c r="AJ1074">
-        <v>24.88528478680877</v>
+        <v>24.88527863978969</v>
       </c>
       <c r="AK1074">
-        <v>105.6988834680074</v>
+        <v>105.6989165165666</v>
       </c>
       <c r="AL1074">
         <v>115.3264954940744</v>
@@ -24471,10 +24471,10 @@
         <v>59.09999847412109</v>
       </c>
       <c r="O1075">
-        <v>31.38459272436455</v>
+        <v>31.38458521645536</v>
       </c>
       <c r="P1075">
-        <v>105.3356677416603</v>
+        <v>105.3357110856252</v>
       </c>
       <c r="Q1075">
         <v>136.3712124939897</v>
@@ -24531,10 +24531,10 @@
         <v>48.52615031950168</v>
       </c>
       <c r="AJ1075">
-        <v>25.76943322470198</v>
+        <v>25.7694270600668</v>
       </c>
       <c r="AK1075">
-        <v>108.9509324691431</v>
+        <v>108.9509773007325</v>
       </c>
       <c r="AL1075">
         <v>112.7562287391803</v>
@@ -24590,10 +24590,10 @@
         <v>57.88000106811523</v>
       </c>
       <c r="O1076">
-        <v>29.00668233902378</v>
+        <v>29.0066917277484</v>
       </c>
       <c r="P1076">
-        <v>101.698603705508</v>
+        <v>101.6986667235063</v>
       </c>
       <c r="Q1076">
         <v>135.3779736751542</v>
@@ -24647,10 +24647,10 @@
         <v>48.10505407921811</v>
       </c>
       <c r="AJ1076">
-        <v>24.10794742272588</v>
+        <v>24.10795522585472</v>
       </c>
       <c r="AK1076">
-        <v>106.4741780982617</v>
+        <v>106.4742440754662</v>
       </c>
       <c r="AL1076">
         <v>113.302542794947</v>
@@ -24703,10 +24703,10 @@
         <v>57.88000106811523</v>
       </c>
       <c r="O1077">
-        <v>28.27613922600014</v>
+        <v>28.2761335986856</v>
       </c>
       <c r="P1077">
-        <v>102.0707307693878</v>
+        <v>102.0708147058845</v>
       </c>
       <c r="Q1077">
         <v>133.5558022349647</v>
@@ -24763,10 +24763,10 @@
         <v>47.50882464755416</v>
       </c>
       <c r="AJ1077">
-        <v>23.20950441270634</v>
+        <v>23.20949979371715</v>
       </c>
       <c r="AK1077">
-        <v>105.5392756711794</v>
+        <v>105.5393624599874</v>
       </c>
       <c r="AL1077">
         <v>110.3920978827953</v>
@@ -24822,10 +24822,10 @@
         <v>57.41999816894531</v>
       </c>
       <c r="O1078">
-        <v>29.19995937829308</v>
+        <v>29.1999837718525</v>
       </c>
       <c r="P1078">
-        <v>104.7088099348194</v>
+        <v>104.7088530763949</v>
       </c>
       <c r="Q1078">
         <v>133.9532848840074</v>
@@ -24882,10 +24882,10 @@
         <v>46.24305240311292</v>
       </c>
       <c r="AJ1078">
-        <v>23.51611450293394</v>
+        <v>23.51613414822622</v>
       </c>
       <c r="AK1078">
-        <v>106.2266955584215</v>
+        <v>106.2267393253884</v>
       </c>
       <c r="AL1078">
         <v>108.6340967046754</v>
@@ -24941,10 +24941,10 @@
         <v>56.08000183105469</v>
       </c>
       <c r="O1079">
-        <v>30.65518372453149</v>
+        <v>30.6551668457104</v>
       </c>
       <c r="P1079">
-        <v>107.236566215744</v>
+        <v>107.2366621454744</v>
       </c>
       <c r="Q1079">
         <v>137.7437632892699</v>
@@ -24998,10 +24998,10 @@
         <v>43.99811849290342</v>
       </c>
       <c r="AJ1079">
-        <v>24.05082670997293</v>
+        <v>24.05081346752738</v>
       </c>
       <c r="AK1079">
-        <v>105.9829769825614</v>
+        <v>105.9830717908788</v>
       </c>
       <c r="AL1079">
         <v>108.824705501565</v>
@@ -25054,10 +25054,10 @@
         <v>55.59999847412109</v>
       </c>
       <c r="O1080">
-        <v>32.49178928040565</v>
+        <v>32.49179303419017</v>
       </c>
       <c r="P1080">
-        <v>114.3229812536837</v>
+        <v>114.3230481930828</v>
       </c>
       <c r="Q1080">
         <v>142.9175577602677</v>
@@ -25114,10 +25114,10 @@
         <v>41.93377967729172</v>
       </c>
       <c r="AJ1080">
-        <v>24.50545989924251</v>
+        <v>24.50546273036441</v>
       </c>
       <c r="AK1080">
-        <v>108.6150233692325</v>
+        <v>108.6150869664578</v>
       </c>
       <c r="AL1080">
         <v>108.543616158526</v>
@@ -25173,10 +25173,10 @@
         <v>58.72000122070312</v>
       </c>
       <c r="O1081">
-        <v>33.14811688863177</v>
+        <v>33.14810939233413</v>
       </c>
       <c r="P1081">
-        <v>117.8522773802212</v>
+        <v>117.8523454165833</v>
       </c>
       <c r="Q1081">
         <v>143.4307372451049</v>
@@ -25233,10 +25233,10 @@
         <v>43.37420684052528</v>
       </c>
       <c r="AJ1081">
-        <v>24.48523924407724</v>
+        <v>24.48523370685044</v>
       </c>
       <c r="AK1081">
-        <v>109.6605952251918</v>
+        <v>109.6606585324789</v>
       </c>
       <c r="AL1081">
         <v>106.6883974042108</v>
@@ -25292,10 +25292,10 @@
         <v>59.88000106811523</v>
       </c>
       <c r="O1082">
-        <v>31.34476384285758</v>
+        <v>31.34476946924313</v>
       </c>
       <c r="P1082">
-        <v>116.3788866413234</v>
+        <v>116.3789022426427</v>
       </c>
       <c r="Q1082">
         <v>139.5655097803851</v>
@@ -25352,10 +25352,10 @@
         <v>45.88857465561747</v>
       </c>
       <c r="AJ1082">
-        <v>24.02081680041197</v>
+        <v>24.02082111214892</v>
       </c>
       <c r="AK1082">
-        <v>112.347676835064</v>
+        <v>112.3476918959744</v>
       </c>
       <c r="AL1082">
         <v>107.70363119691</v>
@@ -25411,10 +25411,10 @@
         <v>60.29999923706055</v>
       </c>
       <c r="O1083">
-        <v>31.18606801952865</v>
+        <v>31.1860792662342</v>
       </c>
       <c r="P1083">
-        <v>119.9314616936206</v>
+        <v>119.9314784100914</v>
       </c>
       <c r="Q1083">
         <v>140.9157213623112</v>
@@ -25471,10 +25471,10 @@
         <v>45.42715024639185</v>
       </c>
       <c r="AJ1083">
-        <v>23.49409975857214</v>
+        <v>23.49410823130496</v>
       </c>
       <c r="AK1083">
-        <v>113.8147222355385</v>
+        <v>113.8147380994366</v>
       </c>
       <c r="AL1083">
         <v>106.9023138555427</v>
@@ -25530,10 +25530,10 @@
         <v>57.11999893188477</v>
       </c>
       <c r="O1084">
-        <v>30.63364963663438</v>
+        <v>30.63364776630397</v>
       </c>
       <c r="P1084">
-        <v>117.4213958308076</v>
+        <v>117.4214533232055</v>
       </c>
       <c r="Q1084">
         <v>141.2750677334716</v>
@@ -25590,10 +25590,10 @@
         <v>44.04348749470643</v>
       </c>
       <c r="AJ1084">
-        <v>23.62067209240064</v>
+        <v>23.62067065024595</v>
       </c>
       <c r="AK1084">
-        <v>114.0533058277958</v>
+        <v>114.0533616710941</v>
       </c>
       <c r="AL1084">
         <v>109.6954223206153</v>
@@ -25649,10 +25649,10 @@
         <v>55.95999908447266</v>
       </c>
       <c r="O1085">
-        <v>29.29409870710969</v>
+        <v>29.29408934525663</v>
       </c>
       <c r="P1085">
-        <v>113.7415161799497</v>
+        <v>113.7415517436288</v>
       </c>
       <c r="Q1085">
         <v>138.3519997215257</v>
@@ -25706,10 +25706,10 @@
         <v>43.31604542493432</v>
       </c>
       <c r="AJ1085">
-        <v>22.67520605860337</v>
+        <v>22.67519881202618</v>
       </c>
       <c r="AK1085">
-        <v>110.9065623747059</v>
+        <v>110.9065970519771</v>
       </c>
       <c r="AL1085">
         <v>107.8415231206567</v>
@@ -25762,10 +25762,10 @@
         <v>56.20000076293945</v>
       </c>
       <c r="O1086">
-        <v>31.88285732666216</v>
+        <v>31.88286856447061</v>
       </c>
       <c r="P1086">
-        <v>117.1966893645454</v>
+        <v>117.1967779306442</v>
       </c>
       <c r="Q1086">
         <v>140.2807005448993</v>
@@ -25822,10 +25822,10 @@
         <v>45.50975849294635</v>
       </c>
       <c r="AJ1086">
-        <v>25.81816934704199</v>
+        <v>25.81817844721889</v>
       </c>
       <c r="AK1086">
-        <v>119.5503033383415</v>
+        <v>119.5503936830776</v>
       </c>
       <c r="AL1086">
         <v>114.391987568802</v>
@@ -25881,10 +25881,10 @@
         <v>55.66999816894531</v>
       </c>
       <c r="O1087">
-        <v>30.78646402193043</v>
+        <v>30.7864677685439</v>
       </c>
       <c r="P1087">
-        <v>118.9606534934321</v>
+        <v>118.9606595421145</v>
       </c>
       <c r="Q1087">
         <v>142.8888285837478</v>
@@ -25941,10 +25941,10 @@
         <v>46.01586887828179</v>
       </c>
       <c r="AJ1087">
-        <v>25.44756490488546</v>
+        <v>25.44756800177211</v>
       </c>
       <c r="AK1087">
-        <v>123.8673625439547</v>
+        <v>123.867368842124</v>
       </c>
       <c r="AL1087">
         <v>118.9362294460522</v>
@@ -26000,10 +26000,10 @@
         <v>55.63999938964844</v>
       </c>
       <c r="O1088">
-        <v>33.15310748382466</v>
+        <v>33.15310748664059</v>
       </c>
       <c r="P1088">
-        <v>125.2248150516332</v>
+        <v>125.22479192527</v>
       </c>
       <c r="Q1088">
         <v>142.6008450729705</v>
@@ -26057,10 +26057,10 @@
         <v>45.87352575616163</v>
       </c>
       <c r="AJ1088">
-        <v>27.33375173866325</v>
+        <v>27.3337517409849</v>
       </c>
       <c r="AK1088">
-        <v>130.0566407127895</v>
+        <v>130.0566166940907</v>
       </c>
       <c r="AL1088">
         <v>118.3931494669646</v>
@@ -26113,10 +26113,10 @@
         <v>55.52000045776367</v>
       </c>
       <c r="O1089">
-        <v>32.64224106719627</v>
+        <v>32.64224481222961</v>
       </c>
       <c r="P1089">
-        <v>125.497053691501</v>
+        <v>125.4970514194864</v>
       </c>
       <c r="Q1089">
         <v>142.5568017736633</v>
@@ -26173,10 +26173,10 @@
         <v>45.02838642154393</v>
       </c>
       <c r="AJ1089">
-        <v>26.47383703746656</v>
+        <v>26.47384007480098</v>
       </c>
       <c r="AK1089">
-        <v>128.2146297933364</v>
+        <v>128.2146274721225</v>
       </c>
       <c r="AL1089">
         <v>116.4271690073633</v>
@@ -26232,10 +26232,10 @@
         <v>54.61999893188477</v>
       </c>
       <c r="O1090">
-        <v>33.03602823544887</v>
+        <v>33.03604320352426</v>
       </c>
       <c r="P1090">
-        <v>127.3652423608826</v>
+        <v>127.3652406818584</v>
       </c>
       <c r="Q1090">
         <v>144.7827156496033</v>
@@ -26292,10 +26292,10 @@
         <v>45.29772676387856</v>
       </c>
       <c r="AJ1090">
-        <v>27.39760178756748</v>
+        <v>27.39761420096555</v>
       </c>
       <c r="AK1090">
-        <v>133.0585468585203</v>
+        <v>133.0585451044427</v>
       </c>
       <c r="AL1090">
         <v>120.9124188581444</v>
@@ -26351,10 +26351,10 @@
         <v>56.29999923706055</v>
       </c>
       <c r="O1091">
-        <v>32.53383992039883</v>
+        <v>32.53382122115273</v>
       </c>
       <c r="P1091">
-        <v>124.5868122771798</v>
+        <v>124.586851232301</v>
       </c>
       <c r="Q1091">
         <v>144.9221482526115</v>
@@ -26411,10 +26411,10 @@
         <v>46.93622279037978</v>
       </c>
       <c r="AJ1091">
-        <v>27.12283444801903</v>
+        <v>27.12281885881845</v>
       </c>
       <c r="AK1091">
-        <v>130.8395226557427</v>
+        <v>130.8395635659271</v>
       </c>
       <c r="AL1091">
         <v>121.6645296293287</v>
@@ -26470,10 +26470,10 @@
         <v>59.09999847412109</v>
       </c>
       <c r="O1092">
-        <v>34.50936217676513</v>
+        <v>34.50936591869385</v>
       </c>
       <c r="P1092">
-        <v>129.159287636771</v>
+        <v>129.159410990609</v>
       </c>
       <c r="Q1092">
         <v>148.7291867817991</v>
@@ -26530,10 +26530,10 @@
         <v>50.12722516888982</v>
       </c>
       <c r="AJ1092">
-        <v>29.27002729157348</v>
+        <v>29.27003046538918</v>
       </c>
       <c r="AK1092">
-        <v>137.9999615233591</v>
+        <v>138.0000933205006</v>
       </c>
       <c r="AL1092">
         <v>127.0316294226223</v>
@@ -26589,10 +26589,10 @@
         <v>58.70999908447266</v>
       </c>
       <c r="O1093">
-        <v>33.80620825021371</v>
+        <v>33.80621572969554</v>
       </c>
       <c r="P1093">
-        <v>126.6321148424683</v>
+        <v>126.6321648050885</v>
       </c>
       <c r="Q1093">
         <v>146.9148992913442</v>
@@ -26646,10 +26646,10 @@
         <v>49.57777325153915</v>
       </c>
       <c r="AJ1093">
-        <v>28.54771850212271</v>
+        <v>28.54772481818573</v>
       </c>
       <c r="AK1093">
-        <v>134.7056874405146</v>
+        <v>134.7057405885577</v>
       </c>
       <c r="AL1093">
         <v>124.9310113041578</v>
@@ -26702,10 +26702,10 @@
         <v>58.63999938964844</v>
       </c>
       <c r="O1094">
-        <v>35.21265233111966</v>
+        <v>35.21267475932106</v>
       </c>
       <c r="P1094">
-        <v>143.2976955614948</v>
+        <v>143.2977196329358</v>
       </c>
       <c r="Q1094">
         <v>148.1503135700206</v>
@@ -26762,10 +26762,10 @@
         <v>48.23161654026027</v>
       </c>
       <c r="AJ1094">
-        <v>28.96253687376186</v>
+        <v>28.96255532104052</v>
       </c>
       <c r="AK1094">
-        <v>148.4718762122182</v>
+        <v>148.4719011528288</v>
       </c>
       <c r="AL1094">
         <v>122.7071605239437</v>
@@ -26821,10 +26821,10 @@
         <v>57.7599983215332</v>
       </c>
       <c r="O1095">
-        <v>34.44930738595606</v>
+        <v>34.44931112485093</v>
       </c>
       <c r="P1095">
-        <v>143.4820050853254</v>
+        <v>143.4819981248256</v>
       </c>
       <c r="Q1095">
         <v>147.1603833550687</v>
@@ -26881,10 +26881,10 @@
         <v>48.43605729269032</v>
       </c>
       <c r="AJ1095">
-        <v>28.8883080804663</v>
+        <v>28.88831121580791</v>
       </c>
       <c r="AK1095">
-        <v>151.5675319127752</v>
+        <v>151.5675245600359</v>
       </c>
       <c r="AL1095">
         <v>124.2687681665025</v>
@@ -26940,10 +26940,10 @@
         <v>60.2400016784668</v>
       </c>
       <c r="O1096">
-        <v>35.13638531107013</v>
+        <v>35.13638904909377</v>
       </c>
       <c r="P1096">
-        <v>147.4334825884165</v>
+        <v>147.4334975992389</v>
       </c>
       <c r="Q1096">
         <v>150.3603922898175</v>
@@ -27000,10 +27000,10 @@
         <v>49.62517643831188</v>
       </c>
       <c r="AJ1096">
-        <v>28.94504103391559</v>
+        <v>28.94504411326615</v>
       </c>
       <c r="AK1096">
-        <v>152.9960935963657</v>
+        <v>152.9961091735409</v>
       </c>
       <c r="AL1096">
         <v>124.732609799692</v>
@@ -27059,10 +27059,10 @@
         <v>59.04000091552734</v>
       </c>
       <c r="O1097">
-        <v>35.08517721639585</v>
+        <v>35.08516227930279</v>
       </c>
       <c r="P1097">
-        <v>151.0559631800303</v>
+        <v>151.0559378890374</v>
       </c>
       <c r="Q1097">
         <v>153.9009433707668</v>
@@ -27116,10 +27116,10 @@
         <v>46.76806156172952</v>
       </c>
       <c r="AJ1097">
-        <v>27.79244076076984</v>
+        <v>27.7924289284718</v>
       </c>
       <c r="AK1097">
-        <v>150.7328872131529</v>
+        <v>150.7328619762519</v>
       </c>
       <c r="AL1097">
         <v>122.764773427093</v>
@@ -27172,10 +27172,10 @@
         <v>61.38000106811523</v>
       </c>
       <c r="O1098">
-        <v>32.53617717906825</v>
+        <v>32.53618091532147</v>
       </c>
       <c r="P1098">
-        <v>144.8862158419659</v>
+        <v>144.8863129350206</v>
       </c>
       <c r="Q1098">
         <v>151.4487149320586</v>
@@ -27232,10 +27232,10 @@
         <v>47.8298145937156</v>
       </c>
       <c r="AJ1098">
-        <v>25.35352386742636</v>
+        <v>25.35352677886813</v>
       </c>
       <c r="AK1098">
-        <v>142.2217455747872</v>
+        <v>142.2218408822921</v>
       </c>
       <c r="AL1098">
         <v>118.8411563442554</v>
@@ -27291,10 +27291,10 @@
         <v>60.86000061035156</v>
       </c>
       <c r="O1099">
-        <v>32.48614885986608</v>
+        <v>32.48614886228643</v>
       </c>
       <c r="P1099">
-        <v>143.778356551017</v>
+        <v>143.7784429306321</v>
       </c>
       <c r="Q1099">
         <v>149.2673797874367</v>
@@ -27351,10 +27351,10 @@
         <v>47.62501025929381</v>
       </c>
       <c r="AJ1099">
-        <v>25.42151096319437</v>
+        <v>25.42151096508837</v>
       </c>
       <c r="AK1099">
-        <v>141.7306485228235</v>
+        <v>141.7307336722101</v>
       </c>
       <c r="AL1099">
         <v>117.6244240127935</v>
@@ -27410,10 +27410,10 @@
         <v>60.93999862670898</v>
       </c>
       <c r="O1100">
-        <v>31.09961480993406</v>
+        <v>31.09962227617124</v>
       </c>
       <c r="P1100">
-        <v>143.6476456576721</v>
+        <v>143.6477009270314</v>
       </c>
       <c r="Q1100">
         <v>146.1741835422776</v>
@@ -27470,10 +27470,10 @@
         <v>47.7436529510412</v>
       </c>
       <c r="AJ1100">
-        <v>24.36510091658889</v>
+        <v>24.36510676603826</v>
       </c>
       <c r="AK1100">
-        <v>141.7682068591111</v>
+        <v>141.7682614053443</v>
       </c>
       <c r="AL1100">
         <v>115.322314969503</v>
@@ -27529,10 +27529,10 @@
         <v>64.06999969482422</v>
       </c>
       <c r="O1101">
-        <v>32.57557271709955</v>
+        <v>32.57557271970221</v>
       </c>
       <c r="P1101">
-        <v>147.186078057953</v>
+        <v>147.1861654851947</v>
       </c>
       <c r="Q1101">
         <v>145.965723102206</v>
@@ -27589,10 +27589,10 @@
         <v>50.0820758968375</v>
       </c>
       <c r="AJ1101">
-        <v>25.4635915868831</v>
+        <v>25.46359158891754</v>
       </c>
       <c r="AK1101">
-        <v>144.9310580236092</v>
+        <v>144.9311441113889</v>
       </c>
       <c r="AL1101">
         <v>114.8968054122735</v>
@@ -27648,10 +27648,10 @@
         <v>63.47999954223633</v>
       </c>
       <c r="O1102">
-        <v>34.05917606177079</v>
+        <v>34.05919471496929</v>
       </c>
       <c r="P1102">
-        <v>149.1008405591331</v>
+        <v>149.1009285762302</v>
       </c>
       <c r="Q1102">
         <v>145.0924027709943</v>
@@ -27705,10 +27705,10 @@
         <v>50.0354690172904</v>
       </c>
       <c r="AJ1102">
-        <v>26.84572874735619</v>
+        <v>26.84574344996398</v>
       </c>
       <c r="AK1102">
-        <v>148.0431377412627</v>
+        <v>148.0432251339775</v>
       </c>
       <c r="AL1102">
         <v>115.1635923310406</v>
@@ -27761,10 +27761,10 @@
         <v>70.30000305175781</v>
       </c>
       <c r="O1103">
-        <v>35.68827397897151</v>
+        <v>35.68829262785192</v>
       </c>
       <c r="P1103">
-        <v>155.7402984165984</v>
+        <v>155.7403781543312</v>
       </c>
       <c r="Q1103">
         <v>146.9595242115233</v>
@@ -27821,10 +27821,10 @@
         <v>55.03797310871197</v>
       </c>
       <c r="AJ1103">
-        <v>27.94040082907031</v>
+        <v>27.9404154293055</v>
       </c>
       <c r="AK1103">
-        <v>153.5943426880051</v>
+        <v>153.5944213270266</v>
       </c>
       <c r="AL1103">
         <v>115.8602058099146</v>
@@ -27880,10 +27880,10 @@
         <v>71.09999847412109</v>
       </c>
       <c r="O1104">
-        <v>36.90306293926254</v>
+        <v>36.90304430058893</v>
       </c>
       <c r="P1104">
-        <v>160.2617485283107</v>
+        <v>160.2616745031466</v>
       </c>
       <c r="Q1104">
         <v>150.3589502972994</v>
@@ -27940,10 +27940,10 @@
         <v>53.61586492279699</v>
       </c>
       <c r="AJ1104">
-        <v>27.82826554502869</v>
+        <v>27.82825148977372</v>
       </c>
       <c r="AK1104">
-        <v>152.2371801682475</v>
+        <v>152.2371098496447</v>
       </c>
       <c r="AL1104">
         <v>114.1780129321925</v>
@@ -27999,10 +27999,10 @@
         <v>73.31999969482422</v>
       </c>
       <c r="O1105">
-        <v>36.15644304713262</v>
+        <v>36.15644305021613</v>
       </c>
       <c r="P1105">
-        <v>160.4438038445657</v>
+        <v>160.4439160681559</v>
       </c>
       <c r="Q1105">
         <v>154.2090196646201</v>
@@ -28056,10 +28056,10 @@
         <v>55.55808115088597</v>
       </c>
       <c r="AJ1105">
-        <v>27.39747143072866</v>
+        <v>27.39747143306518</v>
       </c>
       <c r="AK1105">
-        <v>153.1492458157152</v>
+        <v>153.1493529370736</v>
       </c>
       <c r="AL1105">
         <v>117.6695330774209</v>
@@ -28112,10 +28112,10 @@
         <v>73.34999847412109</v>
       </c>
       <c r="O1106">
-        <v>36.9547121625948</v>
+        <v>36.95471589220859</v>
       </c>
       <c r="P1106">
-        <v>168.0131420443047</v>
+        <v>168.0131842400926</v>
       </c>
       <c r="Q1106">
         <v>155.8684871198687</v>
@@ -28172,10 +28172,10 @@
         <v>56.43175755817902</v>
       </c>
       <c r="AJ1106">
-        <v>28.4310756751768</v>
+        <v>28.43107854455192</v>
       </c>
       <c r="AK1106">
-        <v>162.8297853771431</v>
+        <v>162.829826271153</v>
       </c>
       <c r="AL1106">
         <v>120.7567060545528</v>
@@ -28231,10 +28231,10 @@
         <v>70.45999908447266</v>
       </c>
       <c r="O1107">
-        <v>36.32496434740764</v>
+        <v>36.32496062491893</v>
       </c>
       <c r="P1107">
-        <v>166.8640785562228</v>
+        <v>166.8640893806005</v>
       </c>
       <c r="Q1107">
         <v>153.0488152988542</v>
@@ -28291,10 +28291,10 @@
         <v>53.25774685145326</v>
       </c>
       <c r="AJ1107">
-        <v>27.45651122253035</v>
+        <v>27.45650840885785</v>
       </c>
       <c r="AK1107">
-        <v>158.880332394009</v>
+        <v>158.8803427004856</v>
       </c>
       <c r="AL1107">
         <v>116.4929380241468</v>
@@ -28350,10 +28350,10 @@
         <v>72.80000305175781</v>
       </c>
       <c r="O1108">
-        <v>36.4835498641481</v>
+        <v>36.48353869339246</v>
       </c>
       <c r="P1108">
-        <v>169.275229707735</v>
+        <v>169.2753239818169</v>
       </c>
       <c r="Q1108">
         <v>150.8089710825946</v>
@@ -28407,10 +28407,10 @@
         <v>54.43397865392389</v>
       </c>
       <c r="AJ1108">
-        <v>27.2794600449739</v>
+        <v>27.27945169238258</v>
       </c>
       <c r="AK1108">
-        <v>159.4407109786405</v>
+        <v>159.4407997756055</v>
       </c>
       <c r="AL1108">
         <v>113.5521413789239</v>
@@ -28463,10 +28463,10 @@
         <v>72.55999755859375</v>
       </c>
       <c r="O1109">
-        <v>38.53533140117028</v>
+        <v>38.53532023322284</v>
       </c>
       <c r="P1109">
-        <v>175.8042278872138</v>
+        <v>175.8043035269118</v>
       </c>
       <c r="Q1109">
         <v>155.8984304544612</v>
@@ -28523,10 +28523,10 @@
         <v>53.11859264904373</v>
       </c>
       <c r="AJ1109">
-        <v>28.21034509602509</v>
+        <v>28.21033692036811</v>
       </c>
       <c r="AK1109">
-        <v>162.1234157170741</v>
+        <v>162.1234854706082</v>
       </c>
       <c r="AL1109">
         <v>114.926588190075</v>
@@ -28582,10 +28582,10 @@
         <v>72.5</v>
       </c>
       <c r="O1110">
-        <v>39.74146210588089</v>
+        <v>39.74144349514806</v>
       </c>
       <c r="P1110">
-        <v>182.3351738316823</v>
+        <v>182.3352308462226</v>
       </c>
       <c r="Q1110">
         <v>160.8433521386023</v>
@@ -28642,10 +28642,10 @@
         <v>53.89132535493942</v>
       </c>
       <c r="AJ1110">
-        <v>29.54096640591756</v>
+        <v>29.54095257202711</v>
       </c>
       <c r="AK1110">
-        <v>170.7333817555714</v>
+        <v>170.7334351423375</v>
       </c>
       <c r="AL1110">
         <v>120.3963841548893</v>
@@ -28701,10 +28701,10 @@
         <v>72.09999847412109</v>
       </c>
       <c r="O1111">
-        <v>39.890786558806</v>
+        <v>39.89077539650756</v>
       </c>
       <c r="P1111">
-        <v>178.9561499714103</v>
+        <v>178.9562885641305</v>
       </c>
       <c r="Q1111">
         <v>164.5161540335315</v>
@@ -28758,10 +28758,10 @@
         <v>53.32840123825525</v>
       </c>
       <c r="AJ1111">
-        <v>29.50501964408728</v>
+        <v>29.50501138794938</v>
       </c>
       <c r="AK1111">
-        <v>166.738951271439</v>
+        <v>166.7390804025408</v>
       </c>
       <c r="AL1111">
         <v>122.5353307039691</v>
@@ -28814,10 +28814,10 @@
         <v>72.08000183105469</v>
       </c>
       <c r="O1112">
-        <v>39.85329359291607</v>
+        <v>39.85328615437444</v>
       </c>
       <c r="P1112">
-        <v>173.6968391446859</v>
+        <v>173.6968108413684</v>
       </c>
       <c r="Q1112">
         <v>160.1496527892556</v>
@@ -28874,10 +28874,10 @@
         <v>52.5709297870722</v>
       </c>
       <c r="AJ1112">
-        <v>29.06665713143904</v>
+        <v>29.06665170620264</v>
       </c>
       <c r="AK1112">
-        <v>159.5842084972364</v>
+        <v>159.5841824935248</v>
       </c>
       <c r="AL1112">
         <v>117.6213991384876</v>
@@ -28933,10 +28933,10 @@
         <v>77.80000305175781</v>
       </c>
       <c r="O1113">
-        <v>40.96689638819389</v>
+        <v>40.96688895155501</v>
       </c>
       <c r="P1113">
-        <v>173.4353640664443</v>
+        <v>173.435438946907</v>
       </c>
       <c r="Q1113">
         <v>153.5338791421326</v>
@@ -28993,10 +28993,10 @@
         <v>57.03394403031875</v>
       </c>
       <c r="AJ1113">
-        <v>30.0321797435627</v>
+        <v>30.0321742918811</v>
       </c>
       <c r="AK1113">
-        <v>160.1616656509786</v>
+        <v>160.1617348005415</v>
       </c>
       <c r="AL1113">
         <v>113.3411159710633</v>
@@ -29052,10 +29052,10 @@
         <v>79.04000091552734</v>
       </c>
       <c r="O1114">
-        <v>43.08589821230438</v>
+        <v>43.0858944967403</v>
       </c>
       <c r="P1114">
-        <v>178.7687785995404</v>
+        <v>178.7687519181382</v>
       </c>
       <c r="Q1114">
         <v>160.0296270725727</v>
@@ -29109,10 +29109,10 @@
         <v>55.58759470815623</v>
       </c>
       <c r="AJ1114">
-        <v>30.30163739524888</v>
+        <v>30.30163478215086</v>
       </c>
       <c r="AK1114">
-        <v>158.376137845025</v>
+        <v>158.3761142072429</v>
       </c>
       <c r="AL1114">
         <v>113.3341546255579</v>
@@ -29165,10 +29165,10 @@
         <v>88.27999877929688</v>
       </c>
       <c r="O1115">
-        <v>46.13297621688105</v>
+        <v>46.1329650659415</v>
       </c>
       <c r="P1115">
-        <v>184.4514198927358</v>
+        <v>184.4515394904952</v>
       </c>
       <c r="Q1115">
         <v>165.5962116115018</v>
@@ -29225,10 +29225,10 @@
         <v>61.01741690578993</v>
       </c>
       <c r="AJ1115">
-        <v>31.88621524528688</v>
+        <v>31.88620753797449</v>
       </c>
       <c r="AK1115">
-        <v>160.5981847103119</v>
+        <v>160.5982888417036</v>
       </c>
       <c r="AL1115">
         <v>115.2580765086967</v>
@@ -29284,10 +29284,10 @@
         <v>93.80000305175781</v>
       </c>
       <c r="O1116">
-        <v>43.00286273201537</v>
+        <v>43.00285530116194</v>
       </c>
       <c r="P1116">
-        <v>173.7462931469769</v>
+        <v>173.7463681104667</v>
       </c>
       <c r="Q1116">
         <v>164.0863506915586</v>
@@ -29344,10 +29344,10 @@
         <v>63.8616578511423</v>
       </c>
       <c r="AJ1116">
-        <v>29.27754815632854</v>
+        <v>29.27754309719631</v>
       </c>
       <c r="AK1116">
-        <v>149.0115778031364</v>
+        <v>149.0116420947405</v>
       </c>
       <c r="AL1116">
         <v>112.4965653229844</v>
@@ -29403,10 +29403,10 @@
         <v>94.72000122070312</v>
       </c>
       <c r="O1117">
-        <v>42.91668802913296</v>
+        <v>42.9167066148129</v>
       </c>
       <c r="P1117">
-        <v>167.1987223451732</v>
+        <v>167.1988365199661</v>
       </c>
       <c r="Q1117">
         <v>165.3873882234289</v>
@@ -29463,10 +29463,10 @@
         <v>64.86338507204213</v>
       </c>
       <c r="AJ1117">
-        <v>29.38895297482227</v>
+        <v>29.38896570212484</v>
       </c>
       <c r="AK1117">
-        <v>144.2307954106791</v>
+        <v>144.230893901391</v>
       </c>
       <c r="AL1117">
         <v>114.0485516270581</v>
@@ -29522,10 +29522,10 @@
         <v>91</v>
       </c>
       <c r="O1118">
-        <v>37.84262634488999</v>
+        <v>37.84261891676621</v>
       </c>
       <c r="P1118">
-        <v>164.1385195299769</v>
+        <v>164.138591480276</v>
       </c>
       <c r="Q1118">
         <v>168.0621448690092</v>
@@ -29582,10 +29582,10 @@
         <v>61.31662286907891</v>
       </c>
       <c r="AJ1118">
-        <v>25.49870382379219</v>
+        <v>25.49869881865522</v>
       </c>
       <c r="AK1118">
-        <v>139.3203241371282</v>
+        <v>139.3203852083442</v>
       </c>
       <c r="AL1118">
         <v>114.0344854680225</v>
@@ -29641,10 +29641,10 @@
         <v>93.48999786376953</v>
       </c>
       <c r="O1119">
-        <v>36.00518742555109</v>
+        <v>36.00519114244841</v>
       </c>
       <c r="P1119">
-        <v>161.2831181639459</v>
+        <v>161.2832098392923</v>
       </c>
       <c r="Q1119">
         <v>175.6847504894446</v>
@@ -29701,10 +29701,10 @@
         <v>61.55922688073321</v>
       </c>
       <c r="AJ1119">
-        <v>23.70789979953321</v>
+        <v>23.70790224695359</v>
       </c>
       <c r="AK1119">
-        <v>133.7777994015426</v>
+        <v>133.7778754425209</v>
       </c>
       <c r="AL1119">
         <v>116.4907774694612</v>
@@ -29760,10 +29760,10 @@
         <v>89.45999908447266</v>
       </c>
       <c r="O1120">
-        <v>36.64168304718407</v>
+        <v>36.64167933636818</v>
       </c>
       <c r="P1120">
-        <v>159.9559995750113</v>
+        <v>159.9560908263811</v>
       </c>
       <c r="Q1120">
         <v>175.2277500347253</v>
@@ -29820,10 +29820,10 @@
         <v>56.60234045205483</v>
       </c>
       <c r="AJ1120">
-        <v>23.18360205452963</v>
+        <v>23.18359970665497</v>
       </c>
       <c r="AK1120">
-        <v>127.4891317080935</v>
+        <v>127.4892044378312</v>
       </c>
       <c r="AL1120">
         <v>111.6446341568924</v>
@@ -29879,10 +29879,10 @@
         <v>89.13999938964844</v>
       </c>
       <c r="O1121">
-        <v>39.58840914586747</v>
+        <v>39.58840172360487</v>
       </c>
       <c r="P1121">
-        <v>168.219441660085</v>
+        <v>168.2195251801393</v>
       </c>
       <c r="Q1121">
         <v>171.6625369959228</v>
@@ -29939,10 +29939,10 @@
         <v>57.25847853908559</v>
       </c>
       <c r="AJ1121">
-        <v>25.42934811527972</v>
+        <v>25.42934334763931</v>
       </c>
       <c r="AK1121">
-        <v>136.1164122939421</v>
+        <v>136.1164798750138</v>
       </c>
       <c r="AL1121">
         <v>111.0381389741099</v>
@@ -30001,10 +30001,10 @@
         <v>89.95999908447266</v>
       </c>
       <c r="O1122">
-        <v>41.9264958621197</v>
+        <v>41.92646246020841</v>
       </c>
       <c r="P1122">
-        <v>171.9500232757087</v>
+        <v>171.950077042008</v>
       </c>
       <c r="Q1122">
         <v>174.5454555092395</v>
@@ -30061,10 +30061,10 @@
         <v>57.81490943732176</v>
       </c>
       <c r="AJ1122">
-        <v>26.94504875457564</v>
+        <v>26.94502728805168</v>
       </c>
       <c r="AK1122">
-        <v>139.206583753477</v>
+        <v>139.2066272813737</v>
       </c>
       <c r="AL1122">
         <v>112.9609728134988</v>
@@ -30120,10 +30120,10 @@
         <v>80.23999786376953</v>
       </c>
       <c r="O1123">
-        <v>37.85831371276371</v>
+        <v>37.85832484899549</v>
       </c>
       <c r="P1123">
-        <v>154.8471836105685</v>
+        <v>154.8472217266722</v>
       </c>
       <c r="Q1123">
         <v>178.457798730942</v>
@@ -30183,10 +30183,10 @@
         <v>50.95250054849475</v>
       </c>
       <c r="AJ1123">
-        <v>24.04007728775953</v>
+        <v>24.04008435928086</v>
       </c>
       <c r="AK1123">
-        <v>123.8639809462999</v>
+        <v>123.8640114357944</v>
       </c>
       <c r="AL1123">
         <v>114.1141753378579</v>
@@ -30245,10 +30245,10 @@
         <v>76.58000183105469</v>
       </c>
       <c r="O1124">
-        <v>38.11848112838624</v>
+        <v>38.11849226188371</v>
       </c>
       <c r="P1124">
-        <v>154.1909116046819</v>
+        <v>154.1908774184836</v>
       </c>
       <c r="Q1124">
         <v>173.4835065138915</v>
@@ -30308,10 +30308,10 @@
         <v>49.1243837520397</v>
       </c>
       <c r="AJ1124">
-        <v>24.45216571196757</v>
+        <v>24.45217285386087</v>
       </c>
       <c r="AK1124">
-        <v>124.597017992442</v>
+        <v>124.5969903676078</v>
       </c>
       <c r="AL1124">
         <v>112.064847687144</v>
@@ -30370,10 +30370,10 @@
         <v>78.04000091552734</v>
       </c>
       <c r="O1125">
-        <v>38.66237174926098</v>
+        <v>38.66237546242017</v>
       </c>
       <c r="P1125">
-        <v>153.6830697145</v>
+        <v>153.6831177687334</v>
       </c>
       <c r="Q1125">
         <v>170.2488194161221</v>
@@ -30430,10 +30430,10 @@
         <v>53.20062779707365</v>
       </c>
       <c r="AJ1125">
-        <v>26.35651492893925</v>
+        <v>26.35651746023599</v>
       </c>
       <c r="AK1125">
-        <v>131.9752968296105</v>
+        <v>131.9753380961712</v>
       </c>
       <c r="AL1125">
         <v>116.8726983107471</v>
@@ -30489,10 +30489,10 @@
         <v>87.90000152587891</v>
       </c>
       <c r="O1126">
-        <v>32.60857946851839</v>
+        <v>32.60856834827168</v>
       </c>
       <c r="P1126">
-        <v>136.8109477963394</v>
+        <v>136.8111038246238</v>
       </c>
       <c r="Q1126">
         <v>170.7114003946054</v>
@@ -30552,10 +30552,10 @@
         <v>62.42454479502799</v>
       </c>
       <c r="AJ1126">
-        <v>23.15785772922263</v>
+        <v>23.15784983188103</v>
       </c>
       <c r="AK1126">
-        <v>122.3924088765349</v>
+        <v>122.3925484609606</v>
       </c>
       <c r="AL1126">
         <v>122.0839288384118</v>
@@ -30614,10 +30614,10 @@
         <v>76.80000305175781</v>
       </c>
       <c r="O1127">
-        <v>27.57393152157119</v>
+        <v>27.57393337792852</v>
       </c>
       <c r="P1127">
-        <v>108.7743365862551</v>
+        <v>108.7743705956253</v>
       </c>
       <c r="Q1127">
         <v>179.1042093405614</v>
@@ -30677,10 +30677,10 @@
         <v>60.55827397236856</v>
       </c>
       <c r="AJ1127">
-        <v>21.74257334929127</v>
+        <v>21.7425748130646</v>
       </c>
       <c r="AK1127">
-        <v>108.0452860729423</v>
+        <v>108.0453198543678</v>
       </c>
       <c r="AL1127">
         <v>142.2156905897693</v>
@@ -30739,10 +30739,10 @@
         <v>69.98000335693359</v>
       </c>
       <c r="O1128">
-        <v>24.40639046457617</v>
+        <v>24.40638490862836</v>
       </c>
       <c r="P1128">
-        <v>99.9441290309796</v>
+        <v>99.94408824867719</v>
       </c>
       <c r="Q1128">
         <v>182.7278394583283</v>
@@ -30799,10 +30799,10 @@
         <v>55.12840976597888</v>
       </c>
       <c r="AJ1128">
-        <v>19.22671377389016</v>
+        <v>19.22670939706031</v>
       </c>
       <c r="AK1128">
-        <v>99.18041542486606</v>
+        <v>99.18037495419779</v>
       </c>
       <c r="AL1128">
         <v>144.9558329403943</v>
@@ -30858,10 +30858,10 @@
         <v>64.27999877929688</v>
       </c>
       <c r="O1129">
-        <v>24.91992863091027</v>
+        <v>24.9199360427321</v>
       </c>
       <c r="P1129">
-        <v>103.8487706498842</v>
+        <v>103.8488339802597</v>
       </c>
       <c r="Q1129">
         <v>185.6189743319314</v>
@@ -30921,10 +30921,10 @@
         <v>46.18147767748896</v>
       </c>
       <c r="AJ1129">
-        <v>17.90353375307872</v>
+        <v>17.90353907804591</v>
       </c>
       <c r="AK1129">
-        <v>93.98541302367921</v>
+        <v>93.98547033905676</v>
       </c>
       <c r="AL1129">
         <v>134.2900403421617</v>
@@ -30983,10 +30983,10 @@
         <v>59.77999877929688</v>
       </c>
       <c r="O1130">
-        <v>24.37926175791596</v>
+        <v>24.37925990837572</v>
       </c>
       <c r="P1130">
-        <v>93.84540504849704</v>
+        <v>93.84542410192635</v>
       </c>
       <c r="Q1130">
         <v>185.8386578548795</v>
@@ -31043,10 +31043,10 @@
         <v>46.68853387948835</v>
       </c>
       <c r="AJ1130">
-        <v>19.04034813957822</v>
+        <v>19.04034669507632</v>
       </c>
       <c r="AK1130">
-        <v>92.32822300811601</v>
+        <v>92.3282417535119</v>
       </c>
       <c r="AL1130">
         <v>146.1570825209807</v>
@@ -31102,10 +31102,10 @@
         <v>51.27999877929688</v>
       </c>
       <c r="O1131">
-        <v>23.08961379558928</v>
+        <v>23.08960824359234</v>
       </c>
       <c r="P1131">
-        <v>83.50449158310003</v>
+        <v>83.50450740613967</v>
       </c>
       <c r="Q1131">
         <v>186.0271561033101</v>
@@ -31162,10 +31162,10 @@
         <v>40.49913029481667</v>
       </c>
       <c r="AJ1131">
-        <v>18.23536076100875</v>
+        <v>18.23535637623783</v>
       </c>
       <c r="AK1131">
-        <v>83.07582376183156</v>
+        <v>83.0758395036441</v>
       </c>
       <c r="AL1131">
         <v>147.9460955583899</v>
@@ -31221,10 +31221,10 @@
         <v>56.40000152587891</v>
       </c>
       <c r="O1132">
-        <v>25.42383773173026</v>
+        <v>25.42383958488612</v>
       </c>
       <c r="P1132">
-        <v>91.04497553356113</v>
+        <v>91.04503483830503</v>
       </c>
       <c r="Q1132">
         <v>181.330954527951</v>
@@ -31284,10 +31284,10 @@
         <v>42.5307303565937</v>
       </c>
       <c r="AJ1132">
-        <v>19.17188577914958</v>
+        <v>19.17188717659763</v>
       </c>
       <c r="AK1132">
-        <v>86.48620441869161</v>
+        <v>86.48626075394981</v>
       </c>
       <c r="AL1132">
         <v>137.6972107756932</v>
@@ -31346,10 +31346,10 @@
         <v>61.29999923706055</v>
       </c>
       <c r="O1133">
-        <v>28.78552789451431</v>
+        <v>28.78553344856168</v>
       </c>
       <c r="P1133">
-        <v>104.5786962052273</v>
+        <v>104.5787083425154</v>
       </c>
       <c r="Q1133">
         <v>177.6523413626102</v>
@@ -31409,10 +31409,10 @@
         <v>46.28510966253439</v>
       </c>
       <c r="AJ1133">
-        <v>21.73476887233035</v>
+        <v>21.73477306596321</v>
       </c>
       <c r="AK1133">
-        <v>99.46978526859323</v>
+        <v>99.46979681294673</v>
       </c>
       <c r="AL1133">
         <v>135.0769463546877</v>
@@ -31471,10 +31471,10 @@
         <v>59.43999862670898</v>
       </c>
       <c r="O1134">
-        <v>29.70203303379112</v>
+        <v>29.70202748601243</v>
       </c>
       <c r="P1134">
-        <v>113.4716915141927</v>
+        <v>113.4717269890082</v>
       </c>
       <c r="Q1134">
         <v>179.8731203815705</v>
@@ -31531,10 +31531,10 @@
         <v>42.07843595264688</v>
       </c>
       <c r="AJ1134">
-        <v>21.02649938679819</v>
+        <v>21.0264954594453</v>
       </c>
       <c r="AK1134">
-        <v>101.1895014869238</v>
+        <v>101.1895331219408</v>
       </c>
       <c r="AL1134">
         <v>128.2261306981746</v>
@@ -31590,10 +31590,10 @@
         <v>57.91999816894531</v>
       </c>
       <c r="O1135">
-        <v>30.53411142114423</v>
+        <v>30.53412067194465</v>
       </c>
       <c r="P1135">
-        <v>112.3629876914494</v>
+        <v>112.3630536432847</v>
       </c>
       <c r="Q1135">
         <v>176.5652919065529</v>
@@ -31653,10 +31653,10 @@
         <v>41.31240953562433</v>
       </c>
       <c r="AJ1135">
-        <v>21.77896677685038</v>
+        <v>21.77897337513884</v>
       </c>
       <c r="AK1135">
-        <v>100.9583848751204</v>
+        <v>100.9584441329855</v>
       </c>
       <c r="AL1135">
         <v>126.8197210769606</v>
@@ -31715,10 +31715,10 @@
         <v>63.61000061035156</v>
       </c>
       <c r="O1136">
-        <v>33.14388800210443</v>
+        <v>33.14387321146763</v>
       </c>
       <c r="P1136">
-        <v>123.6683974527679</v>
+        <v>123.6684155715433</v>
       </c>
       <c r="Q1136">
         <v>175.8457008689101</v>
@@ -31778,10 +31778,10 @@
         <v>44.54793795808639</v>
       </c>
       <c r="AJ1136">
-        <v>23.21163106807509</v>
+        <v>23.21162070976093</v>
       </c>
       <c r="AK1136">
-        <v>109.1008335816596</v>
+        <v>109.1008495661273</v>
       </c>
       <c r="AL1136">
         <v>124.0119201449628</v>
@@ -31840,10 +31840,10 @@
         <v>65.72000122070312</v>
       </c>
       <c r="O1137">
-        <v>33.62288219016572</v>
+        <v>33.6228784958361</v>
       </c>
       <c r="P1137">
-        <v>129.0976027276281</v>
+        <v>129.0976225480493</v>
       </c>
       <c r="Q1137">
         <v>177.2858655591162</v>
@@ -31903,10 +31903,10 @@
         <v>45.7851478477798</v>
       </c>
       <c r="AJ1137">
-        <v>23.42405057138478</v>
+        <v>23.42404799765648</v>
       </c>
       <c r="AK1137">
-        <v>113.2954229873158</v>
+        <v>113.2954403816202</v>
       </c>
       <c r="AL1137">
         <v>124.3742974906159</v>
@@ -31965,10 +31965,10 @@
         <v>66.45999908447266</v>
       </c>
       <c r="O1138">
-        <v>35.47913689772044</v>
+        <v>35.47915538420916</v>
       </c>
       <c r="P1138">
-        <v>135.1305251894127</v>
+        <v>135.1305674365014</v>
       </c>
       <c r="Q1138">
         <v>181.017593865281</v>
@@ -32028,10 +32028,10 @@
         <v>45.42720374878513</v>
       </c>
       <c r="AJ1138">
-        <v>24.25094798203721</v>
+        <v>24.25096061805137</v>
       </c>
       <c r="AK1138">
-        <v>116.3526470137411</v>
+        <v>116.3526833901304</v>
       </c>
       <c r="AL1138">
         <v>124.596525647531</v>
@@ -32090,10 +32090,10 @@
         <v>65.66000366210938</v>
       </c>
       <c r="O1139">
-        <v>34.42029280313537</v>
+        <v>34.42031128477377</v>
       </c>
       <c r="P1139">
-        <v>130.5923612277155</v>
+        <v>130.5923507258991</v>
       </c>
       <c r="Q1139">
         <v>177.6491370788792</v>
@@ -32150,10 +32150,10 @@
         <v>44.50017191603482</v>
       </c>
       <c r="AJ1139">
-        <v>23.32788397366003</v>
+        <v>23.32789649933838</v>
       </c>
       <c r="AK1139">
-        <v>111.4925092772302</v>
+        <v>111.4925003113623</v>
       </c>
       <c r="AL1139">
         <v>121.242074577046</v>
@@ -32209,10 +32209,10 @@
         <v>67.05999755859375</v>
       </c>
       <c r="O1140">
-        <v>36.59660041859358</v>
+        <v>36.59659303249522</v>
       </c>
       <c r="P1140">
-        <v>135.9142330377435</v>
+        <v>135.9142550015577</v>
       </c>
       <c r="Q1140">
         <v>182.3441056828329</v>
@@ -32272,10 +32272,10 @@
         <v>44.7245548610069</v>
       </c>
       <c r="AJ1140">
-        <v>24.40749661104014</v>
+        <v>24.40749168500415</v>
       </c>
       <c r="AK1140">
-        <v>114.1864474840906</v>
+        <v>114.1864659366829</v>
       </c>
       <c r="AL1140">
         <v>122.4626613462803</v>
@@ -32334,10 +32334,10 @@
         <v>65.72000122070312</v>
       </c>
       <c r="O1141">
-        <v>38.4273321079103</v>
+        <v>38.42734319340521</v>
       </c>
       <c r="P1141">
-        <v>139.896518445617</v>
+        <v>139.8965929666566</v>
       </c>
       <c r="Q1141">
         <v>176.3061627703295</v>
@@ -32397,10 +32397,10 @@
         <v>45.85542926367787</v>
       </c>
       <c r="AJ1141">
-        <v>26.81226075070493</v>
+        <v>26.81226848549066</v>
       </c>
       <c r="AK1141">
-        <v>122.9609574978676</v>
+        <v>122.961022997556</v>
       </c>
       <c r="AL1141">
         <v>123.8768531326554</v>
@@ -32459,10 +32459,10 @@
         <v>76.43000030517578</v>
       </c>
       <c r="O1142">
-        <v>35.99147853197928</v>
+        <v>35.991482228198</v>
       </c>
       <c r="P1142">
-        <v>135.4834861956732</v>
+        <v>135.4835182924894</v>
       </c>
       <c r="Q1142">
         <v>172.6331151990945</v>
@@ -32519,10 +32519,10 @@
         <v>55.10454239738701</v>
       </c>
       <c r="AJ1142">
-        <v>25.94915539436141</v>
+        <v>25.94915805926315</v>
       </c>
       <c r="AK1142">
-        <v>123.0487004763443</v>
+        <v>123.0487296272883</v>
       </c>
       <c r="AL1142">
         <v>125.3363713089316</v>
@@ -32578,10 +32578,10 @@
         <v>80.12999725341797</v>
       </c>
       <c r="O1143">
-        <v>37.63946918291275</v>
+        <v>37.63947657046539</v>
       </c>
       <c r="P1143">
-        <v>139.1191353849246</v>
+        <v>139.1192199061543</v>
       </c>
       <c r="Q1143">
         <v>174.7604386349139</v>
@@ -32638,10 +32638,10 @@
         <v>58.66032009767054</v>
       </c>
       <c r="AJ1143">
-        <v>27.55451623932119</v>
+        <v>27.55452164748564</v>
       </c>
       <c r="AK1143">
-        <v>128.2931001789088</v>
+        <v>128.2931781228277</v>
       </c>
       <c r="AL1143">
         <v>128.831450735987</v>
@@ -32697,10 +32697,10 @@
         <v>81.26999664306641</v>
       </c>
       <c r="O1144">
-        <v>40.48918065414819</v>
+        <v>40.4891954226166</v>
       </c>
       <c r="P1144">
-        <v>148.9823739544495</v>
+        <v>148.9825230807262</v>
       </c>
       <c r="Q1144">
         <v>179.3181777958891</v>
@@ -32760,10 +32760,10 @@
         <v>60.08427964148041</v>
       </c>
       <c r="AJ1144">
-        <v>29.93433435912183</v>
+        <v>29.93434527769969</v>
       </c>
       <c r="AK1144">
-        <v>138.7498864929913</v>
+        <v>138.750025376897</v>
       </c>
       <c r="AL1144">
         <v>133.5009648384299</v>
@@ -32822,10 +32822,10 @@
         <v>77</v>
       </c>
       <c r="O1145">
-        <v>41.43124385964832</v>
+        <v>41.43122172132506</v>
       </c>
       <c r="P1145">
-        <v>152.3685707851516</v>
+        <v>152.3686286723125</v>
       </c>
       <c r="Q1145">
         <v>181.6933276616658</v>
@@ -32885,10 +32885,10 @@
         <v>57.88603217561269</v>
       </c>
       <c r="AJ1145">
-        <v>31.14662746928907</v>
+        <v>31.14661082643592</v>
       </c>
       <c r="AK1145">
-        <v>144.2931052609048</v>
+        <v>144.2931600800722</v>
       </c>
       <c r="AL1145">
         <v>137.547121451885</v>
@@ -32947,10 +32947,10 @@
         <v>70.55000305175781</v>
       </c>
       <c r="O1146">
-        <v>38.35813905782698</v>
+        <v>38.35812061459462</v>
       </c>
       <c r="P1146">
-        <v>138.2725508582888</v>
+        <v>138.2726965927162</v>
       </c>
       <c r="Q1146">
         <v>179.0098338497729</v>
@@ -33007,10 +33007,10 @@
         <v>57.03775814678455</v>
       </c>
       <c r="AJ1146">
-        <v>31.01151189087798</v>
+        <v>31.01149698002637</v>
       </c>
       <c r="AK1146">
-        <v>140.8213536390867</v>
+        <v>140.821502059863</v>
       </c>
       <c r="AL1146">
         <v>145.7376527501991</v>
@@ -33066,10 +33066,10 @@
         <v>79.69000244140625</v>
       </c>
       <c r="O1147">
-        <v>35.91752043974541</v>
+        <v>35.91751675491034</v>
       </c>
       <c r="P1147">
-        <v>130.9072915949766</v>
+        <v>130.9072812792769</v>
       </c>
       <c r="Q1147">
         <v>178.4760695480629</v>
@@ -33129,10 +33129,10 @@
         <v>64.8360608912263</v>
       </c>
       <c r="AJ1147">
-        <v>29.22261853367944</v>
+        <v>29.22261553568493</v>
       </c>
       <c r="AK1147">
-        <v>134.1663942902873</v>
+        <v>134.1663837177651</v>
       </c>
       <c r="AL1147">
         <v>146.2252070904721</v>
@@ -33191,10 +33191,10 @@
         <v>78.12000274658203</v>
       </c>
       <c r="O1148">
-        <v>38.66443783727334</v>
+        <v>38.66442309122494</v>
       </c>
       <c r="P1148">
-        <v>142.9407670413976</v>
+        <v>142.9407809896078</v>
       </c>
       <c r="Q1148">
         <v>177.5305303207516</v>
@@ -33251,10 +33251,10 @@
         <v>59.77504227299872</v>
       </c>
       <c r="AJ1148">
-        <v>29.58484798934375</v>
+        <v>29.58483670611749</v>
       </c>
       <c r="AK1148">
-        <v>137.7783183426801</v>
+        <v>137.7783317871367</v>
       </c>
       <c r="AL1148">
         <v>136.7918310758259</v>
@@ -33310,10 +33310,10 @@
         <v>78.77999877929688</v>
       </c>
       <c r="O1149">
-        <v>36.67132061710308</v>
+        <v>36.6713206210805</v>
       </c>
       <c r="P1149">
-        <v>135.8980482253781</v>
+        <v>135.8981111983279</v>
       </c>
       <c r="Q1149">
         <v>183.5809535287059</v>
@@ -33373,10 +33373,10 @@
         <v>62.01196377463545</v>
       </c>
       <c r="AJ1149">
-        <v>28.86596396182548</v>
+        <v>28.86596396495632</v>
       </c>
       <c r="AK1149">
-        <v>134.7534409237318</v>
+        <v>134.7535033662891</v>
       </c>
       <c r="AL1149">
         <v>145.5179630064601</v>
@@ -33435,10 +33435,10 @@
         <v>82.68000030517578</v>
       </c>
       <c r="O1150">
-        <v>41.39585273225542</v>
+        <v>41.39583799427617</v>
       </c>
       <c r="P1150">
-        <v>149.6428722148312</v>
+        <v>149.6429804470326</v>
       </c>
       <c r="Q1150">
         <v>185.8256660065339</v>
@@ -33498,10 +33498,10 @@
         <v>60.78964804439069</v>
       </c>
       <c r="AJ1150">
-        <v>30.43588907599104</v>
+        <v>30.43587824003836</v>
       </c>
       <c r="AK1150">
-        <v>138.5965194684383</v>
+        <v>138.596619711144</v>
       </c>
       <c r="AL1150">
         <v>137.5828583696637</v>
@@ -33560,10 +33560,10 @@
         <v>79.55999755859375</v>
       </c>
       <c r="O1151">
-        <v>44.11221613311173</v>
+        <v>44.11220876850012</v>
       </c>
       <c r="P1151">
-        <v>155.7663391086638</v>
+        <v>155.7664082842484</v>
       </c>
       <c r="Q1151">
         <v>190.6654667110624</v>
@@ -33620,10 +33620,10 @@
         <v>57.2621257799005</v>
       </c>
       <c r="AJ1151">
-        <v>31.74911194264555</v>
+        <v>31.74910664207581</v>
       </c>
       <c r="AK1151">
-        <v>141.2256062870187</v>
+        <v>141.2256690050869</v>
       </c>
       <c r="AL1151">
         <v>138.1892363452137</v>
@@ -33679,10 +33679,10 @@
         <v>79.68000030517578</v>
       </c>
       <c r="O1152">
-        <v>44.02507057401299</v>
+        <v>44.02508531485856</v>
       </c>
       <c r="P1152">
-        <v>154.7452324266578</v>
+        <v>154.7451989044159</v>
       </c>
       <c r="Q1152">
         <v>185.1608021748475</v>
@@ -33742,10 +33742,10 @@
         <v>61.12304411259264</v>
       </c>
       <c r="AJ1152">
-        <v>33.77191667230208</v>
+        <v>33.77192798010015</v>
       </c>
       <c r="AK1152">
-        <v>149.5340359679816</v>
+        <v>149.5340035746339</v>
       </c>
       <c r="AL1152">
         <v>143.0323165005151</v>
@@ -33804,10 +33804,10 @@
         <v>80.11000061035156</v>
       </c>
       <c r="O1153">
-        <v>46.01714532871478</v>
+        <v>46.01713428517442</v>
       </c>
       <c r="P1153">
-        <v>166.434719406729</v>
+        <v>166.4348021422906</v>
       </c>
       <c r="Q1153">
         <v>191.2013723979723</v>
@@ -33867,10 +33867,10 @@
         <v>60.37380406236458</v>
       </c>
       <c r="AJ1153">
-        <v>34.68019091771405</v>
+        <v>34.68018259490122</v>
       </c>
       <c r="AK1153">
-        <v>158.0057397216494</v>
+        <v>158.0058182671215</v>
       </c>
       <c r="AL1153">
         <v>145.1049679740433</v>
@@ -33929,10 +33929,10 @@
         <v>81.75</v>
       </c>
       <c r="O1154">
-        <v>47.40070575851797</v>
+        <v>47.40070576422626</v>
       </c>
       <c r="P1154">
-        <v>169.1521344947604</v>
+        <v>169.1522283063967</v>
       </c>
       <c r="Q1154">
         <v>188.310957311765</v>
@@ -33992,10 +33992,10 @@
         <v>59.60627050674444</v>
       </c>
       <c r="AJ1154">
-        <v>34.56121455232808</v>
+        <v>34.56121455649016</v>
       </c>
       <c r="AK1154">
-        <v>155.3634296923439</v>
+        <v>155.3635158567758</v>
       </c>
       <c r="AL1154">
         <v>138.2640422989044</v>
@@ -34054,10 +34054,10 @@
         <v>87.27999877929688</v>
       </c>
       <c r="O1155">
-        <v>48.88703936970205</v>
+        <v>48.88706514427098</v>
       </c>
       <c r="P1155">
-        <v>176.1894199239287</v>
+        <v>176.1893726938613</v>
       </c>
       <c r="Q1155">
         <v>190.427552821798</v>
@@ -34117,10 +34117,10 @@
         <v>63.27847370354301</v>
       </c>
       <c r="AJ1155">
-        <v>35.44336936830425</v>
+        <v>35.44338805500688</v>
       </c>
       <c r="AK1155">
-        <v>160.911920741081</v>
+        <v>160.9118776063634</v>
       </c>
       <c r="AL1155">
         <v>139.0274383321617</v>
@@ -34179,10 +34179,10 @@
         <v>83.62999725341797</v>
       </c>
       <c r="O1156">
-        <v>48.58712847767035</v>
+        <v>48.58711376189491</v>
       </c>
       <c r="P1156">
-        <v>176.8956572907353</v>
+        <v>176.8956921340155</v>
       </c>
       <c r="Q1156">
         <v>188.2982727598715</v>
@@ -34242,10 +34242,10 @@
         <v>58.96495611183669</v>
       </c>
       <c r="AJ1156">
-        <v>34.2572999207998</v>
+        <v>34.25728954515611</v>
       </c>
       <c r="AK1156">
-        <v>157.1144747156027</v>
+        <v>157.1145056625674</v>
       </c>
       <c r="AL1156">
         <v>133.6927030030252</v>
@@ -34304,10 +34304,10 @@
         <v>83.30000305175781</v>
       </c>
       <c r="O1157">
-        <v>50.04143396446423</v>
+        <v>50.04143397011587</v>
       </c>
       <c r="P1157">
-        <v>183.3987958229207</v>
+        <v>183.3987917970556</v>
       </c>
       <c r="Q1157">
         <v>194.9449623871241</v>
@@ -34364,10 +34364,10 @@
         <v>56.2040368745414</v>
       </c>
       <c r="AJ1157">
-        <v>33.76387150965807</v>
+        <v>33.76387151347134</v>
       </c>
       <c r="AK1157">
-        <v>155.8784583348851</v>
+        <v>155.8784549131307</v>
       </c>
       <c r="AL1157">
         <v>132.4536651533864</v>
@@ -34423,10 +34423,10 @@
         <v>79.06999969482422</v>
       </c>
       <c r="O1158">
-        <v>49.4190822414479</v>
+        <v>49.41907121144021</v>
       </c>
       <c r="P1158">
-        <v>179.6314241594774</v>
+        <v>179.6315007651607</v>
       </c>
       <c r="Q1158">
         <v>186.0853693848103</v>
@@ -34486,10 +34486,10 @@
         <v>55.00139099528674</v>
       </c>
       <c r="AJ1158">
-        <v>34.3761006131385</v>
+        <v>34.37609294062341</v>
       </c>
       <c r="AK1158">
-        <v>157.4024102766372</v>
+        <v>157.4024774025271</v>
       </c>
       <c r="AL1158">
         <v>130.3477789165999</v>
@@ -34548,10 +34548,10 @@
         <v>77.38999938964844</v>
       </c>
       <c r="O1159">
-        <v>48.29741659831302</v>
+        <v>48.29741660379636</v>
       </c>
       <c r="P1159">
-        <v>175.1203310011974</v>
+        <v>175.1204061920702</v>
       </c>
       <c r="Q1159">
         <v>182.8735049673923</v>
@@ -34611,10 +34611,10 @@
         <v>53.28788775710834</v>
       </c>
       <c r="AJ1159">
-        <v>33.25581257199823</v>
+        <v>33.25581257577385</v>
       </c>
       <c r="AK1159">
-        <v>151.8963581644346</v>
+        <v>151.8964233837023</v>
       </c>
       <c r="AL1159">
         <v>126.8013630118874</v>
@@ -34673,10 +34673,10 @@
         <v>74.16999816894531</v>
       </c>
       <c r="O1160">
-        <v>49.19970507631463</v>
+        <v>49.19971243521677</v>
       </c>
       <c r="P1160">
-        <v>171.609962017278</v>
+        <v>171.6100565460828</v>
       </c>
       <c r="Q1160">
         <v>188.7353234048622</v>
@@ -34733,10 +34733,10 @@
         <v>51.54990142406541</v>
       </c>
       <c r="AJ1160">
-        <v>34.19495765659899</v>
+        <v>34.19496277120988</v>
       </c>
       <c r="AK1160">
-        <v>150.2481714992807</v>
+        <v>150.2482542612597</v>
       </c>
       <c r="AL1160">
         <v>132.0937383018461</v>
@@ -34792,10 +34792,10 @@
         <v>73</v>
       </c>
       <c r="O1161">
-        <v>46.6934965269276</v>
+        <v>46.69348918059101</v>
       </c>
       <c r="P1161">
-        <v>157.8239815987197</v>
+        <v>157.8241024611691</v>
       </c>
       <c r="Q1161">
         <v>185.9466155588942</v>
@@ -34855,10 +34855,10 @@
         <v>50.67333055671248</v>
       </c>
       <c r="AJ1161">
-        <v>32.41253403229737</v>
+        <v>32.41252893279953</v>
       </c>
       <c r="AK1161">
-        <v>138.0056015687263</v>
+        <v>138.0057072541543</v>
       </c>
       <c r="AL1161">
         <v>129.9793432374055</v>
@@ -34917,10 +34917,10 @@
         <v>71.04000091552734</v>
       </c>
       <c r="O1162">
-        <v>44.50234307983483</v>
+        <v>44.50233206039551</v>
       </c>
       <c r="P1162">
-        <v>140.295509864095</v>
+        <v>140.2955128614911</v>
       </c>
       <c r="Q1162">
         <v>187.2162544524096</v>
@@ -34980,10 +34980,10 @@
         <v>52.82177181614049</v>
       </c>
       <c r="AJ1162">
-        <v>33.08970412657806</v>
+        <v>33.08969593307719</v>
       </c>
       <c r="AK1162">
-        <v>131.4077282889438</v>
+        <v>131.4077310964535</v>
       </c>
       <c r="AL1162">
         <v>140.1790231493616</v>
@@ -35042,10 +35042,10 @@
         <v>77.86000061035156</v>
       </c>
       <c r="O1163">
-        <v>49.21146099731923</v>
+        <v>49.21145732849935</v>
       </c>
       <c r="P1163">
-        <v>157.8615942789638</v>
+        <v>157.8616538392851</v>
       </c>
       <c r="Q1163">
         <v>180.079917154908</v>
@@ -35105,10 +35105,10 @@
         <v>55.82562602018467</v>
       </c>
       <c r="AJ1163">
-        <v>35.28462106353999</v>
+        <v>35.28461843299588</v>
       </c>
       <c r="AK1163">
-        <v>142.58137973271</v>
+        <v>142.5814335278894</v>
       </c>
       <c r="AL1163">
         <v>130.021134706383</v>
@@ -35167,10 +35167,10 @@
         <v>78.76000213623047</v>
       </c>
       <c r="O1164">
-        <v>47.87438998772387</v>
+        <v>47.87437897372075</v>
       </c>
       <c r="P1164">
-        <v>155.4431462126861</v>
+        <v>155.4432254363858</v>
       </c>
       <c r="Q1164">
         <v>180.2346662536065</v>
@@ -35230,10 +35230,10 @@
         <v>58.54456413902511</v>
       </c>
       <c r="AJ1164">
-        <v>35.58640451031285</v>
+        <v>35.58639632328904</v>
       </c>
       <c r="AK1164">
-        <v>145.5524650889176</v>
+        <v>145.5525392716979</v>
       </c>
       <c r="AL1164">
         <v>134.9114018563754</v>
@@ -35292,10 +35292,10 @@
         <v>76.30000305175781</v>
       </c>
       <c r="O1165">
-        <v>47.38698266618383</v>
+        <v>47.38698634311443</v>
       </c>
       <c r="P1165">
-        <v>153.5275792621798</v>
+        <v>153.5276680889255</v>
       </c>
       <c r="Q1165">
         <v>181.3222849611822</v>
@@ -35352,10 +35352,10 @@
         <v>58.81446315559841</v>
       </c>
       <c r="AJ1165">
-        <v>36.52738970645482</v>
+        <v>36.52739254074958</v>
       </c>
       <c r="AK1165">
-        <v>149.0778475268387</v>
+        <v>149.0779337790946</v>
       </c>
       <c r="AL1165">
         <v>140.7473529298624</v>
@@ -35411,10 +35411,10 @@
         <v>78.37000274658203</v>
       </c>
       <c r="O1166">
-        <v>51.560990938624</v>
+        <v>51.56097993065568</v>
       </c>
       <c r="P1166">
-        <v>164.6792943568782</v>
+        <v>164.6792845981506</v>
       </c>
       <c r="Q1166">
         <v>182.4816201776848</v>
@@ -35474,10 +35474,10 @@
         <v>60.03983968940629</v>
       </c>
       <c r="AJ1166">
-        <v>39.50125713523635</v>
+        <v>39.50124870195027</v>
       </c>
       <c r="AK1166">
-        <v>158.9263059077296</v>
+        <v>158.9262964899183</v>
       </c>
       <c r="AL1166">
         <v>140.7791247367874</v>
@@ -35536,10 +35536,10 @@
         <v>78.44999694824219</v>
       </c>
       <c r="O1167">
-        <v>54.85317670979833</v>
+        <v>54.85317671560568</v>
       </c>
       <c r="P1167">
-        <v>172.2207902751833</v>
+        <v>172.2208645207889</v>
       </c>
       <c r="Q1167">
         <v>184.0825859191482</v>
@@ -35599,10 +35599,10 @@
         <v>58.72445313888927</v>
       </c>
       <c r="AJ1167">
-        <v>41.06084041455073</v>
+        <v>41.06084041889788</v>
       </c>
       <c r="AK1167">
-        <v>162.3972823636862</v>
+        <v>162.3973523743078</v>
       </c>
       <c r="AL1167">
         <v>138.7612575945672</v>
@@ -35661,10 +35661,10 @@
         <v>81.15000152587891</v>
       </c>
       <c r="O1168">
-        <v>57.51357349433692</v>
+        <v>57.5135808392611</v>
       </c>
       <c r="P1168">
-        <v>174.2036648233392</v>
+        <v>174.2036988758138</v>
       </c>
       <c r="Q1168">
         <v>180.2455950577012</v>
@@ -35721,10 +35721,10 @@
         <v>60.85945817150061</v>
       </c>
       <c r="AJ1168">
-        <v>43.13302346957921</v>
+        <v>43.13302897799692</v>
       </c>
       <c r="AK1168">
-        <v>164.5750386815363</v>
+        <v>164.5750708518544</v>
       </c>
       <c r="AL1168">
         <v>136.1236794833546</v>
@@ -35780,10 +35780,10 @@
         <v>80.44999694824219</v>
       </c>
       <c r="O1169">
-        <v>56.92305044336008</v>
+        <v>56.92305411782665</v>
       </c>
       <c r="P1169">
-        <v>172.0371674418795</v>
+        <v>172.0371600216966</v>
       </c>
       <c r="Q1169">
         <v>180.2826002126064</v>
@@ -35843,10 +35843,10 @@
         <v>60.81336227095184</v>
       </c>
       <c r="AJ1169">
-        <v>43.02898967674056</v>
+        <v>43.02899245432508</v>
       </c>
       <c r="AK1169">
-        <v>163.8182930127263</v>
+        <v>163.818285947034</v>
       </c>
       <c r="AL1169">
         <v>137.2322763731912</v>
@@ -35905,10 +35905,10 @@
         <v>79.36000061035156</v>
       </c>
       <c r="O1170">
-        <v>52.90136188716998</v>
+        <v>52.90136556023566</v>
       </c>
       <c r="P1170">
-        <v>157.3369155412663</v>
+        <v>157.3369545287774</v>
       </c>
       <c r="Q1170">
         <v>185.6327010546862</v>
@@ -35968,10 +35968,10 @@
         <v>64.186347954021</v>
       </c>
       <c r="AJ1170">
-        <v>42.78660780262858</v>
+        <v>42.78661077340315</v>
       </c>
       <c r="AK1170">
-        <v>160.3019350593118</v>
+        <v>160.3019747815439</v>
       </c>
       <c r="AL1170">
         <v>151.1906583323107</v>
@@ -36030,10 +36030,10 @@
         <v>83.33000183105469</v>
       </c>
       <c r="O1171">
-        <v>54.6782256988466</v>
+        <v>54.67821837132146</v>
       </c>
       <c r="P1171">
-        <v>163.1161220124168</v>
+        <v>163.1161322227427</v>
       </c>
       <c r="Q1171">
         <v>179.40281047888</v>
@@ -36090,10 +36090,10 @@
         <v>65.77991934879594</v>
       </c>
       <c r="AJ1171">
-        <v>43.16247686994522</v>
+        <v>43.16247108566583</v>
       </c>
       <c r="AK1171">
-        <v>162.2019094561426</v>
+        <v>162.201919609243</v>
       </c>
       <c r="AL1171">
         <v>142.6102227283172</v>
@@ -36149,10 +36149,10 @@
         <v>84.83999633789062</v>
       </c>
       <c r="O1172">
-        <v>55.33690481235195</v>
+        <v>55.33688648947705</v>
       </c>
       <c r="P1172">
-        <v>165.0708156462977</v>
+        <v>165.0708468627826</v>
       </c>
       <c r="Q1172">
         <v>184.5881327269466</v>
@@ -36212,10 +36212,10 @@
         <v>68.8915926414053</v>
       </c>
       <c r="AJ1172">
-        <v>44.93455526784567</v>
+        <v>44.93454038934393</v>
       </c>
       <c r="AK1172">
-        <v>168.8507563699888</v>
+        <v>168.850788301297</v>
       </c>
       <c r="AL1172">
         <v>150.9380833585344</v>
@@ -36274,10 +36274,10 @@
         <v>84.33999633789062</v>
       </c>
       <c r="O1173">
-        <v>58.19238598414741</v>
+        <v>58.19239698462667</v>
       </c>
       <c r="P1173">
-        <v>169.8750623487443</v>
+        <v>169.8750950713759</v>
       </c>
       <c r="Q1173">
         <v>182.2962673367621</v>
@@ -36337,10 +36337,10 @@
         <v>67.05358271417604</v>
       </c>
       <c r="AJ1173">
-        <v>46.26521385287598</v>
+        <v>46.26522259868553</v>
       </c>
       <c r="AK1173">
-        <v>170.131671204256</v>
+        <v>170.1317039763175</v>
       </c>
       <c r="AL1173">
         <v>145.9471626714258</v>
@@ -36399,10 +36399,10 @@
         <v>88.19999694824219</v>
       </c>
       <c r="O1174">
-        <v>58.52790429687178</v>
+        <v>58.52788231894858</v>
       </c>
       <c r="P1174">
-        <v>174.6772697114814</v>
+        <v>174.6773039396249</v>
       </c>
       <c r="Q1174">
         <v>180.7022308319938</v>
@@ -36459,10 +36459,10 @@
         <v>68.60609594605023</v>
       </c>
       <c r="AJ1174">
-        <v>45.52575007535141</v>
+        <v>45.52573297989155</v>
       </c>
       <c r="AK1174">
-        <v>171.1581803481278</v>
+        <v>171.158213886703</v>
       </c>
       <c r="AL1174">
         <v>141.542584355801</v>
@@ -36518,10 +36518,10 @@
         <v>86.34999847412109</v>
       </c>
       <c r="O1175">
-        <v>55.5814790426076</v>
+        <v>55.58150102683713</v>
       </c>
       <c r="P1175">
-        <v>174.255241415903</v>
+        <v>174.2552755165408</v>
       </c>
       <c r="Q1175">
         <v>175.1499149588857</v>
@@ -36581,10 +36581,10 @@
         <v>66.63836894128808</v>
       </c>
       <c r="AJ1175">
-        <v>42.89356308273468</v>
+        <v>42.89358004849292</v>
       </c>
       <c r="AK1175">
-        <v>169.4006232532898</v>
+        <v>169.4006564039099</v>
       </c>
       <c r="AL1175">
         <v>136.1135702759669</v>
@@ -36643,10 +36643,10 @@
         <v>88.08000183105469</v>
       </c>
       <c r="O1176">
-        <v>56.29501074789039</v>
+        <v>56.29499976794383</v>
       </c>
       <c r="P1176">
-        <v>176.7744671115221</v>
+        <v>176.7744408970434</v>
       </c>
       <c r="Q1176">
         <v>174.8187593601956</v>
@@ -36706,10 +36706,10 @@
         <v>67.70176927828955</v>
       </c>
       <c r="AJ1176">
-        <v>43.27056936809408</v>
+        <v>43.27056092847335</v>
       </c>
       <c r="AK1176">
-        <v>171.1627949426475</v>
+        <v>171.1627695603425</v>
       </c>
       <c r="AL1176">
         <v>135.3132134325265</v>
@@ -36768,10 +36768,10 @@
         <v>89.69999694824219</v>
       </c>
       <c r="O1177">
-        <v>55.70770465853897</v>
+        <v>55.70770466486705</v>
       </c>
       <c r="P1177">
-        <v>180.9541320058598</v>
+        <v>180.9542700324375</v>
       </c>
       <c r="Q1177">
         <v>174.8066519568958</v>
@@ -36831,10 +36831,10 @@
         <v>68.02669266513134</v>
       </c>
       <c r="AJ1177">
-        <v>42.24761463562791</v>
+        <v>42.24761464042701</v>
       </c>
       <c r="AK1177">
-        <v>172.8711664551658</v>
+        <v>172.8712983162912</v>
       </c>
       <c r="AL1177">
         <v>133.4978754137676</v>
@@ -36893,10 +36893,10 @@
         <v>96.93000030517578</v>
       </c>
       <c r="O1178">
-        <v>57.50063051586273</v>
+        <v>57.5006195416021</v>
       </c>
       <c r="P1178">
-        <v>191.8318318314223</v>
+        <v>191.8318510798104</v>
       </c>
       <c r="Q1178">
         <v>177.2408880322648</v>
@@ -36956,10 +36956,10 @@
         <v>71.35600729179606</v>
       </c>
       <c r="AJ1178">
-        <v>42.3296749969543</v>
+        <v>42.32966691814053</v>
       </c>
       <c r="AK1178">
-        <v>177.8935207288301</v>
+        <v>177.8935385786493</v>
       </c>
       <c r="AL1178">
         <v>131.3910293348724</v>
@@ -37018,10 +37018,10 @@
         <v>102.1600036621094</v>
       </c>
       <c r="O1179">
-        <v>57.68401179435374</v>
+        <v>57.68399350409437</v>
       </c>
       <c r="P1179">
-        <v>192.6914565005684</v>
+        <v>192.6914963826515</v>
       </c>
       <c r="Q1179">
         <v>177.3241801179564</v>
@@ -37081,10 +37081,10 @@
         <v>78.10995004366494</v>
       </c>
       <c r="AJ1179">
-        <v>44.1042983365347</v>
+        <v>44.10428435208684</v>
       </c>
       <c r="AK1179">
-        <v>185.5902039557811</v>
+        <v>185.5902423680909</v>
       </c>
       <c r="AL1179">
         <v>136.5283656080603</v>
@@ -37143,10 +37143,10 @@
         <v>104.1999969482422</v>
       </c>
       <c r="O1180">
-        <v>59.27715737999382</v>
+        <v>59.27717202055964</v>
       </c>
       <c r="P1180">
-        <v>197.7983827443855</v>
+        <v>197.7985056344309</v>
       </c>
       <c r="Q1180">
         <v>179.4763635488538</v>
@@ -37203,10 +37203,10 @@
         <v>81.30461684475826</v>
       </c>
       <c r="AJ1180">
-        <v>46.25246362359069</v>
+        <v>46.25247504725315</v>
       </c>
       <c r="AK1180">
-        <v>194.4184010167778</v>
+        <v>194.4185218068763</v>
       </c>
       <c r="AL1180">
         <v>141.0211439557552</v>
@@ -37262,10 +37262,10 @@
         <v>106.3199996948242</v>
       </c>
       <c r="O1181">
-        <v>60.90708430759079</v>
+        <v>60.9070733417472</v>
       </c>
       <c r="P1181">
-        <v>201.5742213659471</v>
+        <v>201.5742843809043</v>
       </c>
       <c r="Q1181">
         <v>181.9582091970769</v>
@@ -37325,10 +37325,10 @@
         <v>80.7411905337365</v>
       </c>
       <c r="AJ1181">
-        <v>46.25386110843773</v>
+        <v>46.25385278079222</v>
       </c>
       <c r="AK1181">
-        <v>192.8334193914669</v>
+        <v>192.8334796739256</v>
       </c>
       <c r="AL1181">
         <v>139.1493899312397</v>
@@ -37387,10 +37387,10 @@
         <v>114.0699996948242</v>
       </c>
       <c r="O1182">
-        <v>63.07080758822035</v>
+        <v>63.07080028195563</v>
       </c>
       <c r="P1182">
-        <v>204.2370830499071</v>
+        <v>204.2371265541408</v>
       </c>
       <c r="Q1182">
         <v>178.713486183841</v>
@@ -37450,10 +37450,10 @@
         <v>87.82722489592255</v>
       </c>
       <c r="AJ1182">
-        <v>48.56083121975697</v>
+        <v>48.56082559436067</v>
       </c>
       <c r="AK1182">
-        <v>198.0885844764151</v>
+        <v>198.0886266709665</v>
       </c>
       <c r="AL1182">
         <v>138.5621193310193</v>
@@ -37512,10 +37512,10 @@
         <v>111.9199981689453</v>
       </c>
       <c r="O1183">
-        <v>61.35019957172789</v>
+        <v>61.35017764392941</v>
       </c>
       <c r="P1183">
-        <v>198.5232239778264</v>
+        <v>198.5232046838879</v>
       </c>
       <c r="Q1183">
         <v>175.9124173806509</v>
@@ -37572,10 +37572,10 @@
         <v>86.02613233585343</v>
       </c>
       <c r="AJ1183">
-        <v>47.15618721885311</v>
+        <v>47.15617036428087</v>
       </c>
       <c r="AK1183">
-        <v>192.2211416178847</v>
+        <v>192.2211229364286</v>
       </c>
       <c r="AL1183">
         <v>136.1597265967068</v>
@@ -37631,10 +37631,10 @@
         <v>115.870002746582</v>
       </c>
       <c r="O1184">
-        <v>65.41486781993328</v>
+        <v>65.4148312782506</v>
       </c>
       <c r="P1184">
-        <v>211.0873647441544</v>
+        <v>211.0874510658808</v>
       </c>
       <c r="Q1184">
         <v>174.072168263093</v>
@@ -37694,10 +37694,10 @@
         <v>87.23836978360339</v>
       </c>
       <c r="AJ1184">
-        <v>49.25076631526372</v>
+        <v>49.25073880307981</v>
       </c>
       <c r="AK1184">
-        <v>200.2008382534342</v>
+        <v>200.200920123242</v>
       </c>
       <c r="AL1184">
         <v>131.9761131161984</v>
@@ -37756,10 +37756,10 @@
         <v>111.2200012207031</v>
       </c>
       <c r="O1185">
-        <v>65.13947417534189</v>
+        <v>65.13951072295887</v>
       </c>
       <c r="P1185">
-        <v>205.7222884497451</v>
+        <v>205.7223527596524</v>
       </c>
       <c r="Q1185">
         <v>170.9232491858031</v>
@@ -37816,10 +37816,10 @@
         <v>84.28311702084201</v>
       </c>
       <c r="AJ1185">
-        <v>49.36304499495444</v>
+        <v>49.36307269093579</v>
       </c>
       <c r="AK1185">
-        <v>196.3840305851348</v>
+        <v>196.3840919758519</v>
       </c>
       <c r="AL1185">
         <v>130.4332463853468</v>
@@ -37875,10 +37875,10 @@
         <v>113.5100021362305</v>
       </c>
       <c r="O1186">
-        <v>68.06643338920505</v>
+        <v>68.06644800989555</v>
       </c>
       <c r="P1186">
-        <v>215.9249183387164</v>
+        <v>215.9249045355074</v>
       </c>
       <c r="Q1186">
         <v>169.1614437031259</v>
@@ -37938,10 +37938,10 @@
         <v>83.86405772902141</v>
       </c>
       <c r="AJ1186">
-        <v>50.28920087861474</v>
+        <v>50.28921168075032</v>
       </c>
       <c r="AK1186">
-        <v>200.9609306474186</v>
+        <v>200.9609178007969</v>
       </c>
       <c r="AL1186">
         <v>125.8556141921298</v>
@@ -38000,10 +38000,10 @@
         <v>115.0899963378906</v>
       </c>
       <c r="O1187">
-        <v>71.63792447694753</v>
+        <v>71.63793909460615</v>
       </c>
       <c r="P1187">
-        <v>225.2124570502142</v>
+        <v>225.2125477743982</v>
       </c>
       <c r="Q1187">
         <v>171.1021565680066</v>
@@ -38063,10 +38063,10 @@
         <v>84.66234834330633</v>
       </c>
       <c r="AJ1187">
-        <v>52.69819367143411</v>
+        <v>52.69820442445649</v>
       </c>
       <c r="AK1187">
-        <v>208.6951097146938</v>
+        <v>208.6951937850592</v>
       </c>
       <c r="AL1187">
         <v>126.7469998999431</v>
@@ -38125,10 +38125,10 @@
         <v>116.5299987792969</v>
       </c>
       <c r="O1188">
-        <v>74.16399792294366</v>
+        <v>74.16399793198468</v>
       </c>
       <c r="P1188">
-        <v>229.7199774707612</v>
+        <v>229.7201508685574</v>
       </c>
       <c r="Q1188">
         <v>173.8826297349229</v>
@@ -38185,10 +38185,10 @@
         <v>85.64603761524097</v>
       </c>
       <c r="AJ1188">
-        <v>54.50830363291464</v>
+        <v>54.50830363955951</v>
       </c>
       <c r="AK1188">
-        <v>212.6842978244289</v>
+        <v>212.6844583633116</v>
       </c>
       <c r="AL1188">
         <v>128.6930825687692</v>
@@ -38244,10 +38244,10 @@
         <v>118.5599975585938</v>
       </c>
       <c r="O1189">
-        <v>76.07461250359579</v>
+        <v>76.07460521193352</v>
       </c>
       <c r="P1189">
-        <v>233.5748098309225</v>
+        <v>233.5748625347275</v>
       </c>
       <c r="Q1189">
         <v>174.763468953025</v>
@@ -38307,10 +38307,10 @@
         <v>86.04397819768761</v>
       </c>
       <c r="AJ1189">
-        <v>55.21054684926032</v>
+        <v>55.21054155739424</v>
       </c>
       <c r="AK1189">
-        <v>213.5381289963083</v>
+        <v>213.5381771790378</v>
       </c>
       <c r="AL1189">
         <v>127.7210343535061</v>
@@ -38369,10 +38369,10 @@
         <v>111.5999984741211</v>
       </c>
       <c r="O1190">
-        <v>74.83094854514569</v>
+        <v>74.83094855434292</v>
       </c>
       <c r="P1190">
-        <v>226.2162463112937</v>
+        <v>226.2163170278805</v>
       </c>
       <c r="Q1190">
         <v>170.5806545053714</v>
@@ -38432,10 +38432,10 @@
         <v>82.66666553638599</v>
       </c>
       <c r="AJ1190">
-        <v>55.43033225566347</v>
+        <v>55.43033226247623</v>
       </c>
       <c r="AK1190">
-        <v>211.084892946916</v>
+        <v>211.084958933349</v>
       </c>
       <c r="AL1190">
         <v>127.2405326569696</v>
@@ -38494,10 +38494,10 @@
         <v>115.7799987792969</v>
       </c>
       <c r="O1191">
-        <v>78.34257364903006</v>
+        <v>78.34258825326414</v>
       </c>
       <c r="P1191">
-        <v>237.4191532909093</v>
+        <v>237.4191869015368</v>
       </c>
       <c r="Q1191">
         <v>171.4578093865471</v>
@@ -38557,10 +38557,10 @@
         <v>83.86208806265165</v>
       </c>
       <c r="AJ1191">
-        <v>56.74530903160224</v>
+        <v>56.74531960978135</v>
       </c>
       <c r="AK1191">
-        <v>216.628210488598</v>
+        <v>216.628241155922</v>
       </c>
       <c r="AL1191">
         <v>125.060128967299</v>
@@ -38619,10 +38619,10 @@
         <v>124.9700012207031</v>
       </c>
       <c r="O1192">
-        <v>76.32317274157633</v>
+        <v>76.32318004626416</v>
       </c>
       <c r="P1192">
-        <v>238.9374172277631</v>
+        <v>238.9374310219146</v>
       </c>
       <c r="Q1192">
         <v>170.8190421546205</v>
@@ -38682,10 +38682,10 @@
         <v>90.70915382209706</v>
       </c>
       <c r="AJ1192">
-        <v>55.39897854509424</v>
+        <v>55.3989838471831</v>
       </c>
       <c r="AK1192">
-        <v>218.4724283093657</v>
+        <v>218.4724409220483</v>
       </c>
       <c r="AL1192">
         <v>124.8564821439376</v>
@@ -38744,10 +38744,10 @@
         <v>128.8500061035156</v>
       </c>
       <c r="O1193">
-        <v>76.23431322756797</v>
+        <v>76.23429864935312</v>
       </c>
       <c r="P1193">
-        <v>239.9325279681924</v>
+        <v>239.9326435639017</v>
       </c>
       <c r="Q1193">
         <v>171.4260376377525</v>
@@ -38807,10 +38807,10 @@
         <v>92.89834614528884</v>
       </c>
       <c r="AJ1193">
-        <v>54.96345582376926</v>
+        <v>54.96344531316014</v>
       </c>
       <c r="AK1193">
-        <v>217.9113233464543</v>
+        <v>217.9114283326943</v>
       </c>
       <c r="AL1193">
         <v>124.4599999287792</v>
@@ -38869,10 +38869,10 @@
         <v>128.3399963378906</v>
       </c>
       <c r="O1194">
-        <v>79.63483976606221</v>
+        <v>79.63486165105778</v>
       </c>
       <c r="P1194">
-        <v>244.0761502553031</v>
+        <v>244.0762265555192</v>
       </c>
       <c r="Q1194">
         <v>175.2825457144322</v>
@@ -38929,10 +38929,10 @@
         <v>94.09090640607816</v>
       </c>
       <c r="AJ1194">
-        <v>58.38331361148256</v>
+        <v>58.38332965620071</v>
       </c>
       <c r="AK1194">
-        <v>225.4125560678924</v>
+        <v>225.4126265337152</v>
       </c>
       <c r="AL1194">
         <v>129.4058090428396</v>
@@ -38988,10 +38988,10 @@
         <v>126.5599975585938</v>
       </c>
       <c r="O1195">
-        <v>81.88247154392711</v>
+        <v>81.88247155351121</v>
       </c>
       <c r="P1195">
-        <v>248.7422927182959</v>
+        <v>248.7423501904174</v>
       </c>
       <c r="Q1195">
         <v>176.0358092093959</v>
@@ -39051,10 +39051,10 @@
         <v>92.44703985288075</v>
       </c>
       <c r="AJ1195">
-        <v>59.81188571506728</v>
+        <v>59.81188572206808</v>
       </c>
       <c r="AK1195">
-        <v>228.8828824961559</v>
+        <v>228.8829353797435</v>
       </c>
       <c r="AL1195">
         <v>129.4872606821488</v>
@@ -39113,10 +39113,10 @@
         <v>125.4300003051758</v>
       </c>
       <c r="O1196">
-        <v>83.05247951529768</v>
+        <v>83.05247952501871</v>
       </c>
       <c r="P1196">
-        <v>244.3385430343628</v>
+        <v>244.3385991343067</v>
       </c>
       <c r="Q1196">
         <v>174.2200726061666</v>
@@ -39176,10 +39176,10 @@
         <v>93.67438409647183</v>
       </c>
       <c r="AJ1196">
-        <v>62.0257501981312</v>
+        <v>62.02575020539112</v>
       </c>
       <c r="AK1196">
-        <v>229.8680079614539</v>
+        <v>229.868060738974</v>
       </c>
       <c r="AL1196">
         <v>131.0228626694621</v>
@@ -39238,10 +39238,10 @@
         <v>137.25</v>
       </c>
       <c r="O1197">
-        <v>87.1922058386231</v>
+        <v>87.19222042193061</v>
       </c>
       <c r="P1197">
-        <v>251.6697475991848</v>
+        <v>251.6698668291409</v>
       </c>
       <c r="Q1197">
         <v>180.9996789938492</v>
@@ -39298,10 +39298,10 @@
         <v>104.3726235741445</v>
       </c>
       <c r="AJ1197">
-        <v>66.30585995332555</v>
+        <v>66.30587104329325</v>
       </c>
       <c r="AK1197">
-        <v>241.0862213313255</v>
+        <v>241.0863355472766</v>
       </c>
       <c r="AL1197">
         <v>138.6058378302708</v>
@@ -39357,10 +39357,10 @@
         <v>138.1399993896484</v>
       </c>
       <c r="O1198">
-        <v>86.30532129038896</v>
+        <v>86.30530673065006</v>
       </c>
       <c r="P1198">
-        <v>240.6730703182294</v>
+        <v>240.673105006499</v>
       </c>
       <c r="Q1198">
         <v>184.3726425501631</v>
@@ -39420,10 +39420,10 @@
         <v>109.3918272011787</v>
       </c>
       <c r="AJ1198">
-        <v>68.34441027113475</v>
+        <v>68.34439874140803</v>
       </c>
       <c r="AK1198">
-        <v>240.0822510927096</v>
+        <v>240.0822856958242</v>
       </c>
       <c r="AL1198">
         <v>147.0250641811959</v>
@@ -39482,10 +39482,10 @@
         <v>140.1600036621094</v>
       </c>
       <c r="O1199">
-        <v>88.77462497850735</v>
+        <v>88.77464683747162</v>
       </c>
       <c r="P1199">
-        <v>244.8947497327108</v>
+        <v>244.8948262875773</v>
       </c>
       <c r="Q1199">
         <v>187.2845956226952</v>
@@ -39545,10 +39545,10 @@
         <v>111.8595400336068</v>
       </c>
       <c r="AJ1199">
-        <v>70.84966079689335</v>
+        <v>70.84967824219603</v>
       </c>
       <c r="AK1199">
-        <v>246.2042428078977</v>
+        <v>246.2043197721158</v>
       </c>
       <c r="AL1199">
         <v>150.5152336728285</v>
@@ -39607,10 +39607,10 @@
         <v>148.6900024414062</v>
       </c>
       <c r="O1200">
-        <v>92.78846267014156</v>
+        <v>92.78846996192445</v>
       </c>
       <c r="P1200">
-        <v>247.3554978602477</v>
+        <v>247.3556359787889</v>
       </c>
       <c r="Q1200">
         <v>197.6809930789238</v>
@@ -39667,10 +39667,10 @@
         <v>119.5449448797284</v>
       </c>
       <c r="AJ1200">
-        <v>74.60079005478498</v>
+        <v>74.60079591728932</v>
       </c>
       <c r="AK1200">
-        <v>250.5175435395996</v>
+        <v>250.5176834237661</v>
       </c>
       <c r="AL1200">
         <v>160.0456343708605</v>
@@ -39726,10 +39726,10 @@
         <v>150.1499938964844</v>
       </c>
       <c r="O1201">
-        <v>90.34949470084536</v>
+        <v>90.34947287262077</v>
       </c>
       <c r="P1201">
-        <v>243.7305118571333</v>
+        <v>243.730486745402</v>
       </c>
       <c r="Q1201">
         <v>200.6507505445484</v>
@@ -39789,10 +39789,10 @@
         <v>124.0806494475534</v>
       </c>
       <c r="AJ1201">
-        <v>74.66283340289675</v>
+        <v>74.66281536453249</v>
       </c>
       <c r="AK1201">
-        <v>253.720622912512</v>
+        <v>253.7205967714924</v>
       </c>
       <c r="AL1201">
         <v>166.9740565228991</v>
@@ -39851,10 +39851,10 @@
         <v>143.9100036621094</v>
       </c>
       <c r="O1202">
-        <v>88.77516344404285</v>
+        <v>88.77514889879431</v>
       </c>
       <c r="P1202">
-        <v>239.879175827613</v>
+        <v>239.8791900462673</v>
       </c>
       <c r="Q1202">
         <v>209.189858848193</v>
@@ -39911,10 +39911,10 @@
         <v>127.4667880089543</v>
       </c>
       <c r="AJ1202">
-        <v>78.63167709835504</v>
+        <v>78.63166421505254</v>
       </c>
       <c r="AK1202">
-        <v>267.6490680159823</v>
+        <v>267.6490838806758</v>
       </c>
       <c r="AL1202">
         <v>186.5847545262448</v>
@@ -39970,10 +39970,10 @@
         <v>147.4100036621094</v>
       </c>
       <c r="O1203">
-        <v>95.16303306717809</v>
+        <v>95.16306218049425</v>
       </c>
       <c r="P1203">
-        <v>254.0550685059093</v>
+        <v>254.055087168348</v>
       </c>
       <c r="Q1203">
         <v>208.4310193674254</v>
@@ -40030,10 +40030,10 @@
         <v>131.6513384496824</v>
       </c>
       <c r="AJ1203">
-        <v>84.98975892397794</v>
+        <v>84.98978492497477</v>
       </c>
       <c r="AK1203">
-        <v>285.8204606563311</v>
+        <v>285.8204816521997</v>
       </c>
       <c r="AL1203">
         <v>187.4520286710703</v>
@@ -40089,10 +40089,10 @@
         <v>144.3200073242188</v>
       </c>
       <c r="O1204">
-        <v>92.68116630055626</v>
+        <v>92.68115903590289</v>
       </c>
       <c r="P1204">
-        <v>250.676350901192</v>
+        <v>250.6764292630116</v>
       </c>
       <c r="Q1204">
         <v>211.8499900309797</v>
@@ -40152,10 +40152,10 @@
         <v>134.3636601100631</v>
       </c>
       <c r="AJ1204">
-        <v>86.28727893171609</v>
+        <v>86.28727216823656</v>
       </c>
       <c r="AK1204">
-        <v>293.9921787824518</v>
+        <v>293.992270684867</v>
       </c>
       <c r="AL1204">
         <v>198.6155292442012</v>
@@ -40214,10 +40214,10 @@
         <v>141.2100067138672</v>
       </c>
       <c r="O1205">
-        <v>94.65687188363442</v>
+        <v>94.65693734279043</v>
       </c>
       <c r="P1205">
-        <v>255.9751873328381</v>
+        <v>255.975287594049</v>
       </c>
       <c r="Q1205">
         <v>205.0018189047789</v>
@@ -40277,10 +40277,10 @@
         <v>126.5095921106139</v>
       </c>
       <c r="AJ1205">
-        <v>84.80278792656729</v>
+        <v>84.80284657121521</v>
       </c>
       <c r="AK1205">
-        <v>288.8836619630677</v>
+        <v>288.8837751139791</v>
       </c>
       <c r="AL1205">
         <v>184.9460953566676</v>
@@ -40339,10 +40339,10 @@
         <v>143</v>
       </c>
       <c r="O1206">
-        <v>96.76156010285446</v>
+        <v>96.76153830137858</v>
       </c>
       <c r="P1206">
-        <v>257.5203819011296</v>
+        <v>257.5204421636669</v>
       </c>
       <c r="Q1206">
         <v>204.0523763800126</v>
@@ -40399,10 +40399,10 @@
         <v>130.0709477897035</v>
       </c>
       <c r="AJ1206">
-        <v>88.01306176355691</v>
+        <v>88.01304193321683</v>
       </c>
       <c r="AK1206">
-        <v>295.0686056765991</v>
+        <v>295.0686747258243</v>
       </c>
       <c r="AL1206">
         <v>186.902622352804</v>
@@ -40458,10 +40458,10 @@
         <v>136.1100006103516</v>
       </c>
       <c r="O1207">
-        <v>94.11717548936426</v>
+        <v>94.1171827677227</v>
       </c>
       <c r="P1207">
-        <v>251.5967375970461</v>
+        <v>251.5967757780141</v>
       </c>
       <c r="Q1207">
         <v>195.2961842684975</v>
@@ -40521,10 +40521,10 @@
         <v>122.0279725751762</v>
       </c>
       <c r="AJ1207">
-        <v>84.37975209733213</v>
+        <v>84.37975862266694</v>
       </c>
       <c r="AK1207">
-        <v>284.1459658875731</v>
+        <v>284.146009008037</v>
       </c>
       <c r="AL1207">
         <v>176.3163506888802</v>
@@ -40583,10 +40583,10 @@
         <v>142.7400054931641</v>
       </c>
       <c r="O1208">
-        <v>98.60962385533828</v>
+        <v>98.60962386567567</v>
       </c>
       <c r="P1208">
-        <v>252.0538978565404</v>
+        <v>252.0539968786522</v>
       </c>
       <c r="Q1208">
         <v>201.1992002504493</v>
@@ -40646,10 +40646,10 @@
         <v>129.4341725545557</v>
       </c>
       <c r="AJ1208">
-        <v>89.41750440273692</v>
+        <v>89.41750441211069</v>
       </c>
       <c r="AK1208">
-        <v>287.9146673285128</v>
+        <v>287.9147804389175</v>
       </c>
       <c r="AL1208">
         <v>183.7210687814675</v>
@@ -40708,10 +40708,10 @@
         <v>134.0399932861328</v>
       </c>
       <c r="O1209">
-        <v>91.85537195062521</v>
+        <v>91.85540102035273</v>
       </c>
       <c r="P1209">
-        <v>236.9912960992203</v>
+        <v>236.9913701826512</v>
       </c>
       <c r="Q1209">
         <v>197.2807997636875</v>
@@ -40771,10 +40771,10 @@
         <v>119.7427133161808</v>
       </c>
       <c r="AJ1209">
-        <v>82.057684429717</v>
+        <v>82.05771039874284</v>
       </c>
       <c r="AK1209">
-        <v>266.6946004075289</v>
+        <v>266.6946837762067</v>
       </c>
       <c r="AL1209">
         <v>177.471650314484</v>
@@ -40833,10 +40833,10 @@
         <v>130.3999938964844</v>
       </c>
       <c r="O1210">
-        <v>89.58691218251134</v>
+        <v>89.58689766609385</v>
       </c>
       <c r="P1210">
-        <v>227.6960147205742</v>
+        <v>227.6961465606852</v>
       </c>
       <c r="Q1210">
         <v>199.4569025904464</v>
@@ -40896,10 +40896,10 @@
         <v>116.8249362985884</v>
       </c>
       <c r="AJ1210">
-        <v>80.2606272912662</v>
+        <v>80.26061428605433</v>
       </c>
       <c r="AK1210">
-        <v>256.9688852745989</v>
+        <v>256.9690340642314</v>
       </c>
       <c r="AL1210">
         <v>179.9436489057333</v>
@@ -40958,10 +40958,10 @@
         <v>136.0200042724609</v>
       </c>
       <c r="O1211">
-        <v>99.993172641483</v>
+        <v>99.99316539060828</v>
       </c>
       <c r="P1211">
-        <v>244.4288394707697</v>
+        <v>244.4289158807167</v>
       </c>
       <c r="Q1211">
         <v>196.9471403872856</v>
@@ -41018,10 +41018,10 @@
         <v>123.1842096291079</v>
       </c>
       <c r="AJ1211">
-        <v>90.55712066788897</v>
+        <v>90.55711410125727</v>
       </c>
       <c r="AK1211">
-        <v>278.8507598997724</v>
+        <v>278.8508470702217</v>
       </c>
       <c r="AL1211">
         <v>179.6103698333604</v>
@@ -41077,10 +41077,10 @@
         <v>134.0899963378906</v>
       </c>
       <c r="O1212">
-        <v>100.5769633952461</v>
+        <v>100.576970665413</v>
       </c>
       <c r="P1212">
-        <v>244.9139677345789</v>
+        <v>244.9140645083358</v>
       </c>
       <c r="Q1212">
         <v>202.0532052874918</v>
@@ -41140,10 +41140,10 @@
         <v>126.9551186687092</v>
       </c>
       <c r="AJ1212">
-        <v>95.2253014535562</v>
+        <v>95.22530833688035</v>
       </c>
       <c r="AK1212">
-        <v>292.1019931407395</v>
+        <v>292.1021085600744</v>
       </c>
       <c r="AL1212">
         <v>192.6411453555238</v>
@@ -41202,10 +41202,10 @@
         <v>132.0399932861328</v>
       </c>
       <c r="O1213">
-        <v>98.64649842704088</v>
+        <v>98.64649843737168</v>
       </c>
       <c r="P1213">
-        <v>236.5222232955932</v>
+        <v>236.5223982726563</v>
       </c>
       <c r="Q1213">
         <v>199.2011765987531</v>
@@ -41265,10 +41265,10 @@
         <v>121.5949841478339</v>
       </c>
       <c r="AJ1213">
-        <v>90.84307802471763</v>
+        <v>90.84307803423121</v>
       </c>
       <c r="AK1213">
-        <v>274.3779765037837</v>
+        <v>274.3781794862005</v>
       </c>
       <c r="AL1213">
         <v>184.7274931715115</v>
@@ -41327,10 +41327,10 @@
         <v>129.7700042724609</v>
       </c>
       <c r="O1214">
-        <v>92.08538619209293</v>
+        <v>92.08540071360575</v>
       </c>
       <c r="P1214">
-        <v>223.7463656259311</v>
+        <v>223.7463951633059</v>
       </c>
       <c r="Q1214">
         <v>207.4004602290989</v>
@@ -41387,10 +41387,10 @@
         <v>119.8024411673384</v>
       </c>
       <c r="AJ1214">
-        <v>85.01235800599422</v>
+        <v>85.01237141211757</v>
       </c>
       <c r="AK1214">
-        <v>260.2042990943366</v>
+        <v>260.2043334446238</v>
       </c>
       <c r="AL1214">
         <v>192.8104352388318</v>
@@ -41446,10 +41446,10 @@
         <v>134.1699981689453</v>
       </c>
       <c r="O1215">
-        <v>90.62092412299957</v>
+        <v>90.62092413268651</v>
       </c>
       <c r="P1215">
-        <v>223.4275085066888</v>
+        <v>223.4275581517811</v>
       </c>
       <c r="Q1215">
         <v>213.4250197004589</v>
@@ -41509,10 +41509,10 @@
         <v>123.4541757167329</v>
       </c>
       <c r="AJ1215">
-        <v>83.38325738222264</v>
+        <v>83.38325739113591</v>
       </c>
       <c r="AK1215">
-        <v>258.9727939509348</v>
+        <v>258.9728514941099</v>
       </c>
       <c r="AL1215">
         <v>197.7539518203553</v>
@@ -41571,10 +41571,10 @@
         <v>141.8800048828125</v>
       </c>
       <c r="O1216">
-        <v>96.5217956142483</v>
+        <v>96.52176661596789</v>
       </c>
       <c r="P1216">
-        <v>239.8691899641126</v>
+        <v>239.8692649471936</v>
       </c>
       <c r="Q1216">
         <v>206.8850588127356</v>
@@ -41634,10 +41634,10 @@
         <v>124.5654125397827</v>
       </c>
       <c r="AJ1216">
-        <v>84.74257736106085</v>
+        <v>84.74255190163994</v>
       </c>
       <c r="AK1216">
-        <v>265.2881638259813</v>
+        <v>265.2882467550306</v>
       </c>
       <c r="AL1216">
         <v>182.9089150346135</v>
@@ -41696,10 +41696,10 @@
         <v>145.4799957275391</v>
       </c>
       <c r="O1217">
-        <v>93.69886183508187</v>
+        <v>93.6988763466356</v>
       </c>
       <c r="P1217">
-        <v>244.0104126413133</v>
+        <v>244.0104485385982</v>
       </c>
       <c r="Q1217">
         <v>202.154747574862</v>
@@ -41756,10 +41756,10 @@
         <v>127.156713335844</v>
       </c>
       <c r="AJ1217">
-        <v>81.89744063900173</v>
+        <v>81.8974533228176</v>
       </c>
       <c r="AK1217">
-        <v>268.665253740287</v>
+        <v>268.6652932646379</v>
       </c>
       <c r="AL1217">
         <v>177.9301029699205</v>
@@ -41815,10 +41815,10 @@
         <v>140.5399932861328</v>
       </c>
       <c r="O1218">
-        <v>97.77011702648014</v>
+        <v>97.77009529212998</v>
       </c>
       <c r="P1218">
-        <v>245.7217681531864</v>
+        <v>245.7218651517424</v>
       </c>
       <c r="Q1218">
         <v>197.8950085434117</v>
@@ -41878,10 +41878,10 @@
         <v>126.2146324976496</v>
       </c>
       <c r="AJ1218">
-        <v>87.80432602288293</v>
+        <v>87.80430650393353</v>
       </c>
       <c r="AK1218">
-        <v>277.9844735900933</v>
+        <v>277.9845833243376</v>
       </c>
       <c r="AL1218">
         <v>178.9674661905843</v>
@@ -41940,10 +41940,10 @@
         <v>144.7899932861328</v>
       </c>
       <c r="O1219">
-        <v>95.26463749364217</v>
+        <v>95.26463750510281</v>
       </c>
       <c r="P1219">
-        <v>242.5478191701429</v>
+        <v>242.5479555351517</v>
       </c>
       <c r="Q1219">
         <v>206.7227675899829</v>
@@ -42003,10 +42003,10 @@
         <v>131.2454616444278</v>
       </c>
       <c r="AJ1219">
-        <v>86.35300715522314</v>
+        <v>86.35300716561169</v>
       </c>
       <c r="AK1219">
-        <v>276.955663350824</v>
+        <v>276.9558190605788</v>
       </c>
       <c r="AL1219">
         <v>188.6963623668535</v>
@@ -42065,10 +42065,10 @@
         <v>144.2700042724609</v>
       </c>
       <c r="O1220">
-        <v>102.3249395015464</v>
+        <v>102.3249032889273</v>
       </c>
       <c r="P1220">
-        <v>255.0129345526888</v>
+        <v>255.0129537392563</v>
       </c>
       <c r="Q1220">
         <v>209.1668929920825</v>
@@ -42125,10 +42125,10 @@
         <v>129.1815940835073</v>
       </c>
       <c r="AJ1220">
-        <v>91.62333408089758</v>
+        <v>91.62330165555809</v>
       </c>
       <c r="AK1220">
-        <v>287.6430817120541</v>
+        <v>287.6431033536364</v>
       </c>
       <c r="AL1220">
         <v>188.6023112849454</v>
@@ -42184,10 +42184,10 @@
         <v>150.4900054931641</v>
       </c>
       <c r="O1221">
-        <v>103.3738293816308</v>
+        <v>103.3738221513054</v>
       </c>
       <c r="P1221">
-        <v>256.5965513205853</v>
+        <v>256.5966920528911</v>
       </c>
       <c r="Q1221">
         <v>202.5153796107467</v>
@@ -42247,10 +42247,10 @@
         <v>135.017051402444</v>
       </c>
       <c r="AJ1221">
-        <v>92.74522643246979</v>
+        <v>92.74521994554588</v>
       </c>
       <c r="AK1221">
-        <v>290.0006062251402</v>
+        <v>290.0007652781508</v>
       </c>
       <c r="AL1221">
         <v>182.9651778826681</v>
@@ -42309,10 +42309,10 @@
         <v>144.4700012207031</v>
       </c>
       <c r="O1222">
-        <v>105.3721467079962</v>
+        <v>105.3721322381894</v>
       </c>
       <c r="P1222">
-        <v>257.3605062204563</v>
+        <v>257.3605059983051</v>
       </c>
       <c r="Q1222">
         <v>199.9591067643828</v>
@@ -42372,10 +42372,10 @@
         <v>128.5549040938807</v>
       </c>
       <c r="AJ1222">
-        <v>93.76414549563643</v>
+        <v>93.76413261985175</v>
       </c>
       <c r="AK1222">
-        <v>288.4828525412963</v>
+        <v>288.4828522922807</v>
       </c>
       <c r="AL1222">
         <v>179.1767400887467</v>
@@ -42434,10 +42434,10 @@
         <v>144.3000030517578</v>
       </c>
       <c r="O1223">
-        <v>104.0704741422336</v>
+        <v>104.0704596759274</v>
       </c>
       <c r="P1223">
-        <v>252.7674887406834</v>
+        <v>252.7676484144727</v>
       </c>
       <c r="Q1223">
         <v>194.6284033940197</v>
@@ -42497,10 +42497,10 @@
         <v>131.636565454988</v>
       </c>
       <c r="AJ1223">
-        <v>94.9374878144806</v>
+        <v>94.93747461770425</v>
       </c>
       <c r="AK1223">
-        <v>290.4681678221482</v>
+        <v>290.468351311541</v>
       </c>
       <c r="AL1223">
         <v>178.7910985383851</v>
@@ -42559,10 +42559,10 @@
         <v>157.4400024414062</v>
       </c>
       <c r="O1224">
-        <v>104.4981208721256</v>
+        <v>104.4981208852778</v>
       </c>
       <c r="P1224">
-        <v>262.5714850957229</v>
+        <v>262.5715671783371</v>
       </c>
       <c r="Q1224">
         <v>190.9841264758964</v>
@@ -42622,10 +42622,10 @@
         <v>148.8372116103292</v>
       </c>
       <c r="AJ1224">
-        <v>98.78816493867046</v>
+        <v>98.78816495110399</v>
       </c>
       <c r="AK1224">
-        <v>312.6879370155816</v>
+        <v>312.6880347651269</v>
       </c>
       <c r="AL1224">
         <v>181.8122663653126</v>
@@ -42684,10 +42684,10 @@
         <v>162.9799957275391</v>
       </c>
       <c r="O1225">
-        <v>105.3435554747459</v>
+        <v>105.3435627241031</v>
       </c>
       <c r="P1225">
-        <v>266.4847010047048</v>
+        <v>266.4847036882592</v>
       </c>
       <c r="Q1225">
         <v>191.9962215337695</v>
@@ -42744,10 +42744,10 @@
         <v>154.4541278691614</v>
       </c>
       <c r="AJ1225">
-        <v>99.83278570389113</v>
+        <v>99.83279257401736</v>
       </c>
       <c r="AK1225">
-        <v>318.1300017585545</v>
+        <v>318.1300049621875</v>
       </c>
       <c r="AL1225">
         <v>183.2261136130647</v>
@@ -42803,10 +42803,10 @@
         <v>164.1399993896484</v>
       </c>
       <c r="O1226">
-        <v>111.0595356307227</v>
+        <v>111.0595428790881</v>
       </c>
       <c r="P1226">
-        <v>274.3799694668429</v>
+        <v>274.3799947867871</v>
       </c>
       <c r="Q1226">
         <v>189.7151039424457</v>
@@ -42866,10 +42866,10 @@
         <v>152.0659620063447</v>
       </c>
       <c r="AJ1226">
-        <v>102.8900645087296</v>
+        <v>102.8900712239097</v>
       </c>
       <c r="AK1226">
-        <v>320.2116430770631</v>
+        <v>320.2116726263811</v>
       </c>
       <c r="AL1226">
         <v>176.9900960441382</v>
@@ -42928,10 +42928,10 @@
         <v>171.4199981689453</v>
       </c>
       <c r="O1227">
-        <v>115.8906822064864</v>
+        <v>115.8907039189088</v>
       </c>
       <c r="P1227">
-        <v>281.2006155307726</v>
+        <v>281.2006027015928</v>
       </c>
       <c r="Q1227">
         <v>193.8385913682445</v>
@@ -42991,10 +42991,10 @@
         <v>161.4428312007396</v>
       </c>
       <c r="AJ1227">
-        <v>109.1454908706785</v>
+        <v>109.1455113193716</v>
       </c>
       <c r="AK1227">
-        <v>333.6112407083388</v>
+        <v>333.6112254880358</v>
       </c>
       <c r="AL1227">
         <v>183.8344900243193</v>
@@ -43053,10 +43053,10 @@
         <v>166.6799926757812</v>
       </c>
       <c r="O1228">
-        <v>117.9652454068253</v>
+        <v>117.965274345037</v>
       </c>
       <c r="P1228">
-        <v>282.2402704585933</v>
+        <v>282.2402378333693</v>
       </c>
       <c r="Q1228">
         <v>191.7639455409733</v>
@@ -43116,10 +43116,10 @@
         <v>155.8048164851199</v>
       </c>
       <c r="AJ1228">
-        <v>110.268503838872</v>
+        <v>110.2685308889858</v>
       </c>
       <c r="AK1228">
-        <v>332.3406886302953</v>
+        <v>332.3406502137739</v>
       </c>
       <c r="AL1228">
         <v>180.5069107868387</v>
@@ -43178,10 +43178,10 @@
         <v>165.2100067138672</v>
       </c>
       <c r="O1229">
-        <v>121.4046795126475</v>
+        <v>121.4047229024315</v>
       </c>
       <c r="P1229">
-        <v>286.5358482720796</v>
+        <v>286.5358774308229</v>
       </c>
       <c r="Q1229">
         <v>191.399730531474</v>
@@ -43238,10 +43238,10 @@
         <v>151.638372385376</v>
       </c>
       <c r="AJ1229">
-        <v>111.4315553122052</v>
+        <v>111.431595137615</v>
       </c>
       <c r="AK1229">
-        <v>331.2980340232572</v>
+        <v>331.2980677371341</v>
       </c>
       <c r="AL1229">
         <v>176.9064053650247</v>
@@ -43297,10 +43297,10 @@
         <v>165.2799987792969</v>
       </c>
       <c r="O1230">
-        <v>126.1059285654088</v>
+        <v>126.105943036048</v>
       </c>
       <c r="P1230">
-        <v>288.817842782238</v>
+        <v>288.8180337405317</v>
       </c>
       <c r="Q1230">
         <v>191.3530172057648</v>
@@ -43360,10 +43360,10 @@
         <v>147.0986105191321</v>
       </c>
       <c r="AJ1230">
-        <v>112.2338274879039</v>
+        <v>112.2338403667213</v>
       </c>
       <c r="AK1230">
-        <v>323.8019193243016</v>
+        <v>323.8021334130899</v>
       </c>
       <c r="AL1230">
         <v>171.4956286278081</v>
@@ -43422,10 +43422,10 @@
         <v>169.3699951171875</v>
       </c>
       <c r="O1231">
-        <v>122.8166450626182</v>
+        <v>122.816659529137</v>
       </c>
       <c r="P1231">
-        <v>290.5474834502565</v>
+        <v>290.5475340188237</v>
       </c>
       <c r="Q1231">
         <v>184.6614393030413</v>
@@ -43485,10 +43485,10 @@
         <v>148.4269521664951</v>
       </c>
       <c r="AJ1231">
-        <v>107.6300456249393</v>
+        <v>107.6300583026351</v>
       </c>
       <c r="AK1231">
-        <v>320.7454779618685</v>
+        <v>320.7455337862696</v>
       </c>
       <c r="AL1231">
         <v>162.9603622628715</v>
@@ -43547,10 +43547,10 @@
         <v>174.9700012207031</v>
       </c>
       <c r="O1232">
-        <v>128.1220832922449</v>
+        <v>128.1220688610444</v>
       </c>
       <c r="P1232">
-        <v>299.0066261659572</v>
+        <v>299.0066391364359</v>
       </c>
       <c r="Q1232">
         <v>185.9550256731495</v>
@@ -43610,10 +43610,10 @@
         <v>147.9536624562008</v>
       </c>
       <c r="AJ1232">
-        <v>108.3393229259639</v>
+        <v>108.3393107230208</v>
       </c>
       <c r="AK1232">
-        <v>318.5004625243161</v>
+        <v>318.5004763404095</v>
       </c>
       <c r="AL1232">
         <v>158.3432359655518</v>
@@ -43672,10 +43672,10 @@
         <v>181.1600036621094</v>
       </c>
       <c r="O1233">
-        <v>130.7467961601762</v>
+        <v>130.7468106208565</v>
       </c>
       <c r="P1233">
-        <v>298.6645102810514</v>
+        <v>298.6646036470431</v>
       </c>
       <c r="Q1233">
         <v>189.7273703959322</v>
@@ -43735,10 +43735,10 @@
         <v>152.3120932084323</v>
       </c>
       <c r="AJ1233">
-        <v>109.926682495524</v>
+        <v>109.9266946534862</v>
       </c>
       <c r="AK1233">
-        <v>316.3172049781742</v>
+        <v>316.3173038626032</v>
       </c>
       <c r="AL1233">
         <v>160.6317992170033</v>
@@ -43797,10 +43797,10 @@
         <v>183.3200073242188</v>
       </c>
       <c r="O1234">
-        <v>130.0434075716302</v>
+        <v>130.0433353857948</v>
       </c>
       <c r="P1234">
-        <v>305.1136457258081</v>
+        <v>305.1136807572123</v>
       </c>
       <c r="Q1234">
         <v>185.6393606284177</v>
@@ -43857,10 +43857,10 @@
         <v>155.1849719158713</v>
       </c>
       <c r="AJ1234">
-        <v>110.0849975210617</v>
+        <v>110.0849364139464</v>
       </c>
       <c r="AK1234">
-        <v>325.3632942697031</v>
+        <v>325.3633316260563</v>
       </c>
       <c r="AL1234">
         <v>158.2484010436101</v>
@@ -43916,10 +43916,10 @@
         <v>186.9400024414062</v>
       </c>
       <c r="O1235">
-        <v>136.2989189927218</v>
+        <v>136.2989334458775</v>
       </c>
       <c r="P1235">
-        <v>313.4353431374461</v>
+        <v>313.4353606704119</v>
       </c>
       <c r="Q1235">
         <v>193.5902341044007</v>
@@ -43979,10 +43979,10 @@
         <v>160.4910735245589</v>
       </c>
       <c r="AJ1235">
-        <v>117.0148686407295</v>
+        <v>117.014881049002</v>
       </c>
       <c r="AK1235">
-        <v>338.9719280135996</v>
+        <v>338.9719469750326</v>
       </c>
       <c r="AL1235">
         <v>167.363809875628</v>
@@ -44041,10 +44041,10 @@
         <v>193.0099945068359</v>
       </c>
       <c r="O1236">
-        <v>138.9523134798997</v>
+        <v>138.9522990630426</v>
       </c>
       <c r="P1236">
-        <v>321.4362189593447</v>
+        <v>321.4362993356113</v>
       </c>
       <c r="Q1236">
         <v>194.060855142126</v>
@@ -44104,10 +44104,10 @@
         <v>162.2205366505597</v>
       </c>
       <c r="AJ1236">
-        <v>116.7862779289794</v>
+        <v>116.7862658119369</v>
       </c>
       <c r="AK1236">
-        <v>340.3203942033002</v>
+        <v>340.3204793016218</v>
       </c>
       <c r="AL1236">
         <v>164.2454875845696</v>
@@ -44166,10 +44166,10 @@
         <v>198.2200012207031</v>
       </c>
       <c r="O1237">
-        <v>139.4639330420025</v>
+        <v>139.4638753392324</v>
       </c>
       <c r="P1237">
-        <v>323.3139003779604</v>
+        <v>323.314021553809</v>
       </c>
       <c r="Q1237">
         <v>195.296984651371</v>
@@ -44226,10 +44226,10 @@
         <v>164.8810524211472</v>
       </c>
       <c r="AJ1237">
-        <v>116.0072642172704</v>
+        <v>116.0072162196244</v>
       </c>
       <c r="AK1237">
-        <v>338.7776745184801</v>
+        <v>338.777801490046</v>
       </c>
       <c r="AL1237">
         <v>163.5868104674186</v>
@@ -44285,10 +44285,10 @@
         <v>214.3800048828125</v>
       </c>
       <c r="O1238">
-        <v>151.9591562481937</v>
+        <v>151.9592139701561</v>
       </c>
       <c r="P1238">
-        <v>343.0304712561917</v>
+        <v>343.0305784917771</v>
       </c>
       <c r="Q1238">
         <v>202.8039105330801</v>
@@ -44348,10 +44348,10 @@
         <v>172.4975900247928</v>
       </c>
       <c r="AJ1238">
-        <v>122.2716094690969</v>
+        <v>122.2716559141906</v>
       </c>
       <c r="AK1238">
-        <v>347.6951115557005</v>
+        <v>347.6952202495106</v>
       </c>
       <c r="AL1238">
         <v>164.3253443086672</v>
@@ -44410,10 +44410,10 @@
         <v>207.1999969482422</v>
       </c>
       <c r="O1239">
-        <v>149.9566736560847</v>
+        <v>149.9566304025525</v>
       </c>
       <c r="P1239">
-        <v>328.1642707864782</v>
+        <v>328.1644939489026</v>
       </c>
       <c r="Q1239">
         <v>189.8210329708006</v>
@@ -44473,10 +44473,10 @@
         <v>169.683070140236</v>
       </c>
       <c r="AJ1239">
-        <v>122.804580833744</v>
+        <v>122.8045454119667</v>
       </c>
       <c r="AK1239">
-        <v>338.5378199244342</v>
+        <v>338.5380501412109</v>
       </c>
       <c r="AL1239">
         <v>156.5390059795236</v>
@@ -44535,10 +44535,10 @@
         <v>199.4799957275391</v>
       </c>
       <c r="O1240">
-        <v>143.5696599199605</v>
+        <v>143.5697031928598</v>
       </c>
       <c r="P1240">
-        <v>324.1496588735049</v>
+        <v>324.1497401164138</v>
       </c>
       <c r="Q1240">
         <v>189.450105577815</v>
@@ -44595,10 +44595,10 @@
         <v>161.9155809476778</v>
       </c>
       <c r="AJ1240">
-        <v>116.5338148700978</v>
+        <v>116.5338499942044</v>
       </c>
       <c r="AK1240">
-        <v>331.4377640283718</v>
+        <v>331.4378470979273</v>
       </c>
       <c r="AL1240">
         <v>154.8508574000485</v>
@@ -44654,10 +44654,10 @@
         <v>193.7299957275391</v>
       </c>
       <c r="O1241">
-        <v>144.4941449498919</v>
+        <v>144.4941449655399</v>
       </c>
       <c r="P1241">
-        <v>325.5204489633352</v>
+        <v>325.5203297716739</v>
       </c>
       <c r="Q1241">
         <v>189.4765221172622</v>
@@ -44717,10 +44717,10 @@
         <v>160.4522078246969</v>
       </c>
       <c r="AJ1241">
-        <v>119.6737990308861</v>
+        <v>119.6737990438462</v>
       </c>
       <c r="AK1241">
-        <v>339.6207632591629</v>
+        <v>339.6206389045699</v>
       </c>
       <c r="AL1241">
         <v>158.027876239923</v>
@@ -44779,10 +44779,10 @@
         <v>191.5299987792969</v>
       </c>
       <c r="O1242">
-        <v>152.6550954314752</v>
+        <v>152.6550666240942</v>
       </c>
       <c r="P1242">
-        <v>329.5364678779139</v>
+        <v>329.5364905658678</v>
       </c>
       <c r="Q1242">
         <v>184.5801859874422</v>
@@ -44842,10 +44842,10 @@
         <v>164.121678474119</v>
       </c>
       <c r="AJ1242">
-        <v>130.8098504125752</v>
+        <v>130.8098257275871</v>
       </c>
       <c r="AK1242">
-        <v>355.7130150692443</v>
+        <v>355.7130395594034</v>
       </c>
       <c r="AL1242">
         <v>159.2735623730542</v>
@@ -44904,10 +44904,10 @@
         <v>186.6499938964844</v>
       </c>
       <c r="O1243">
-        <v>154.0350928776774</v>
+        <v>154.035092894682</v>
       </c>
       <c r="P1243">
-        <v>325.8019984008217</v>
+        <v>325.8020400170386</v>
       </c>
       <c r="Q1243">
         <v>185.4616168453461</v>
@@ -44964,10 +44964,10 @@
         <v>159.8441328222012</v>
       </c>
       <c r="AJ1243">
-        <v>131.9132421663761</v>
+        <v>131.9132421809386</v>
       </c>
       <c r="AK1243">
-        <v>351.4710776616554</v>
+        <v>351.4711225567043</v>
       </c>
       <c r="AL1243">
         <v>159.9382102965347</v>
@@ -45023,10 +45023,10 @@
         <v>197.8699951171875</v>
       </c>
       <c r="O1244">
-        <v>158.6428952991677</v>
+        <v>158.6429385316145</v>
       </c>
       <c r="P1244">
-        <v>337.0350533390339</v>
+        <v>337.035118553178</v>
       </c>
       <c r="Q1244">
         <v>184.042143706033</v>
@@ -45086,10 +45086,10 @@
         <v>169.0329703717645</v>
       </c>
       <c r="AJ1244">
-        <v>135.5227193739686</v>
+        <v>135.5227563058384</v>
       </c>
       <c r="AK1244">
-        <v>362.6884133702213</v>
+        <v>362.6884835481277</v>
       </c>
       <c r="AL1244">
         <v>158.3208941670726</v>
@@ -45148,10 +45148,10 @@
         <v>208.7200012207031</v>
       </c>
       <c r="O1245">
-        <v>167.7738679112772</v>
+        <v>167.7738967330525</v>
       </c>
       <c r="P1245">
-        <v>342.2016949880651</v>
+        <v>342.201761825937</v>
       </c>
       <c r="Q1245">
         <v>188.7943317905655</v>
@@ -45211,10 +45211,10 @@
         <v>179.9931021220275</v>
       </c>
       <c r="AJ1245">
-        <v>144.6825352805081</v>
+        <v>144.6825601354368</v>
       </c>
       <c r="AK1245">
-        <v>371.7415274029541</v>
+        <v>371.7416000104629</v>
       </c>
       <c r="AL1245">
         <v>163.9495447681092</v>
@@ -45273,10 +45273,10 @@
         <v>214.1100006103516</v>
       </c>
       <c r="O1246">
-        <v>166.9589204102854</v>
+        <v>166.9589348266588</v>
       </c>
       <c r="P1246">
-        <v>339.154366878768</v>
+        <v>339.154432772775</v>
       </c>
       <c r="Q1246">
         <v>187.482232644551</v>
@@ -45333,10 +45333,10 @@
         <v>184.2281884446322</v>
       </c>
       <c r="AJ1246">
-        <v>143.657649638862</v>
+        <v>143.6576620432445</v>
       </c>
       <c r="AK1246">
-        <v>367.6069144357117</v>
+        <v>367.6069858577393</v>
       </c>
       <c r="AL1246">
         <v>162.4458856247315</v>
@@ -45392,10 +45392,10 @@
         <v>205.2799987792969</v>
       </c>
       <c r="O1247">
-        <v>152.8404761985904</v>
+        <v>152.8404906095124</v>
       </c>
       <c r="P1247">
-        <v>312.9474706790689</v>
+        <v>312.9474682072697</v>
       </c>
       <c r="Q1247">
         <v>182.1353426861399</v>
@@ -45455,10 +45455,10 @@
         <v>181.1507225373252</v>
       </c>
       <c r="AJ1247">
-        <v>134.8751113647992</v>
+        <v>134.8751240818146</v>
       </c>
       <c r="AK1247">
-        <v>347.8820409587215</v>
+        <v>347.8820382109933</v>
       </c>
       <c r="AL1247">
         <v>161.8516502690989</v>
@@ -45517,10 +45517,10 @@
         <v>218.2400054931641</v>
       </c>
       <c r="O1248">
-        <v>152.3972589391763</v>
+        <v>152.3972445653769</v>
       </c>
       <c r="P1248">
-        <v>317.4296185420654</v>
+        <v>317.4296977173832</v>
       </c>
       <c r="Q1248">
         <v>180.0411057805572</v>
@@ -45580,10 +45580,10 @@
         <v>192.7404446641032</v>
       </c>
       <c r="AJ1248">
-        <v>134.590884870773</v>
+        <v>134.5908721764346</v>
       </c>
       <c r="AK1248">
-        <v>353.1450061621829</v>
+        <v>353.1450942458602</v>
       </c>
       <c r="AL1248">
         <v>160.117807578399</v>
@@ -45642,10 +45642,10 @@
         <v>204.1799926757812</v>
       </c>
       <c r="O1249">
-        <v>138.7633283900836</v>
+        <v>138.763357179482</v>
       </c>
       <c r="P1249">
-        <v>285.5183529412616</v>
+        <v>285.5184622492972</v>
       </c>
       <c r="Q1249">
         <v>182.5292538929849</v>
@@ -45705,10 +45705,10 @@
         <v>178.2297422100046</v>
       </c>
       <c r="AJ1249">
-        <v>121.1272070444166</v>
+        <v>121.1272321748271</v>
       </c>
       <c r="AK1249">
-        <v>313.9555422486969</v>
+        <v>313.955662443645</v>
       </c>
       <c r="AL1249">
         <v>160.4460183923148</v>
@@ -45767,10 +45767,10 @@
         <v>205.5399932861328</v>
       </c>
       <c r="O1250">
-        <v>151.6650889378559</v>
+        <v>151.6650601903385</v>
       </c>
       <c r="P1250">
-        <v>316.7546527584383</v>
+        <v>316.7547116864056</v>
       </c>
       <c r="Q1250">
         <v>178.97981822032</v>
@@ -45830,10 +45830,10 @@
         <v>179.4482218317905</v>
       </c>
       <c r="AJ1250">
-        <v>132.4123353744158</v>
+        <v>132.4123102761817</v>
       </c>
       <c r="AK1250">
-        <v>348.3637472322375</v>
+        <v>348.3638120406541</v>
       </c>
       <c r="AL1250">
         <v>157.3534808345227</v>
@@ -45892,10 +45892,10 @@
         <v>201.3000030517578</v>
       </c>
       <c r="O1251">
-        <v>156.1637769579682</v>
+        <v>156.1637482179924</v>
       </c>
       <c r="P1251">
-        <v>326.2452187864172</v>
+        <v>326.2452806897212</v>
       </c>
       <c r="Q1251">
         <v>179.6040059473719</v>
@@ -45955,10 +45955,10 @@
         <v>176.9048273589576</v>
       </c>
       <c r="AJ1251">
-        <v>137.2385771666827</v>
+        <v>137.2385519096514</v>
       </c>
       <c r="AK1251">
-        <v>361.1662730514543</v>
+        <v>361.1663415808436</v>
       </c>
       <c r="AL1251">
         <v>158.9429949811087</v>
@@ -46017,10 +46017,10 @@
         <v>200.8899993896484</v>
       </c>
       <c r="O1252">
-        <v>161.9586540267106</v>
+        <v>161.9586971753657</v>
       </c>
       <c r="P1252">
-        <v>326.1745323223468</v>
+        <v>326.1745942122384</v>
       </c>
       <c r="Q1252">
         <v>185.6840688531981</v>
@@ -46077,10 +46077,10 @@
         <v>178.9187739487428</v>
       </c>
       <c r="AJ1252">
-        <v>144.2453277758377</v>
+        <v>144.2453662053489</v>
       </c>
       <c r="AK1252">
-        <v>365.944120383381</v>
+        <v>365.9441898193416</v>
       </c>
       <c r="AL1252">
         <v>166.5335387737536</v>
@@ -46136,10 +46136,10 @@
         <v>216.7100067138672</v>
       </c>
       <c r="O1253">
-        <v>171.1356703506426</v>
+        <v>171.1356703720487</v>
       </c>
       <c r="P1253">
-        <v>339.3796914495263</v>
+        <v>339.3798776832039</v>
       </c>
       <c r="Q1253">
         <v>190.6586316346036</v>
@@ -46199,10 +46199,10 @@
         <v>193.4738029764014</v>
       </c>
       <c r="AJ1253">
-        <v>152.7860640573544</v>
+        <v>152.7860640764652</v>
       </c>
       <c r="AK1253">
-        <v>381.6771692875352</v>
+        <v>381.6773787318381</v>
       </c>
       <c r="AL1253">
         <v>171.407233332779</v>
@@ -46261,10 +46261,10 @@
         <v>197.4199981689453</v>
       </c>
       <c r="O1254">
-        <v>157.0166887015853</v>
+        <v>157.0166887212253</v>
       </c>
       <c r="P1254">
-        <v>315.5002015063253</v>
+        <v>315.5004203171195</v>
       </c>
       <c r="Q1254">
         <v>190.5394699898319</v>
@@ -46324,10 +46324,10 @@
         <v>177.0741754138894</v>
       </c>
       <c r="AJ1254">
-        <v>140.8347732546285</v>
+        <v>140.8347732722445</v>
       </c>
       <c r="AK1254">
-        <v>356.4764587294986</v>
+        <v>356.4767059588085</v>
       </c>
       <c r="AL1254">
         <v>172.0990638440764</v>
@@ -46386,13 +46386,13 @@
         <v>213.1699981689453</v>
       </c>
       <c r="O1255">
-        <v>168.5223605772013</v>
+        <v>168.5223749636983</v>
       </c>
       <c r="P1255">
-        <v>335.1687978251734</v>
+        <v>335.1689426574337</v>
       </c>
       <c r="Q1255">
-        <v>192.7433508518135</v>
+        <v>192.7433291529856</v>
       </c>
       <c r="S1255">
         <v>1313.026563590077</v>
@@ -46446,13 +46446,13 @@
         <v>187.4186725592978</v>
       </c>
       <c r="AJ1255">
-        <v>148.1645512372088</v>
+        <v>148.1645638857907</v>
       </c>
       <c r="AK1255">
-        <v>371.2081366453059</v>
+        <v>371.2082970507906</v>
       </c>
       <c r="AL1255">
-        <v>170.6458188040938</v>
+        <v>170.6457995929809</v>
       </c>
       <c r="AN1255">
         <v>1316.873367622346</v>
@@ -46505,13 +46505,13 @@
         <v>205.4299926757812</v>
       </c>
       <c r="O1256">
-        <v>172.7961907371345</v>
+        <v>172.796190758588</v>
       </c>
       <c r="P1256">
-        <v>338.354616795009</v>
+        <v>338.3546825281124</v>
       </c>
       <c r="Q1256">
-        <v>197.070394379345</v>
+        <v>197.0704160646288</v>
       </c>
       <c r="R1256">
         <v>262.3831237231044</v>
@@ -46568,13 +46568,13 @@
         <v>184.5732189360119</v>
       </c>
       <c r="AJ1256">
-        <v>155.2526421717291</v>
+        <v>155.2526421910045</v>
       </c>
       <c r="AK1256">
-        <v>382.9517617041085</v>
+        <v>382.9518361012249</v>
       </c>
       <c r="AL1256">
-        <v>178.301785390836</v>
+        <v>178.3018050108546</v>
       </c>
       <c r="AM1256">
         <v>276.1260500724187</v>
@@ -46630,13 +46630,13 @@
         <v>203.4100036621094</v>
       </c>
       <c r="O1257">
-        <v>169.4706653024559</v>
+        <v>169.470679682068</v>
       </c>
       <c r="P1257">
-        <v>328.2095692156169</v>
+        <v>328.2095717341135</v>
       </c>
       <c r="Q1257">
-        <v>211.695947013684</v>
+        <v>211.6959253420313</v>
       </c>
       <c r="S1257">
         <v>1360.939442855076</v>
@@ -46690,13 +46690,13 @@
         <v>185.103288435808</v>
       </c>
       <c r="AJ1257">
-        <v>154.2184596436945</v>
+        <v>154.2184727291547</v>
       </c>
       <c r="AK1257">
-        <v>376.2358670860975</v>
+        <v>376.2358699731211</v>
       </c>
       <c r="AL1257">
-        <v>193.9920089569386</v>
+        <v>193.9919890976664</v>
       </c>
       <c r="AN1257">
         <v>1318.725040357898</v>
@@ -46749,13 +46749,13 @@
         <v>208.0200042724609</v>
       </c>
       <c r="O1258">
-        <v>170.6396656312031</v>
+        <v>170.639651297572</v>
       </c>
       <c r="P1258">
-        <v>335.435284343696</v>
+        <v>335.4352691294287</v>
       </c>
       <c r="Q1258">
-        <v>207.9724570425446</v>
+        <v>207.972522022961</v>
       </c>
       <c r="R1258">
         <v>271.157968609541</v>
@@ -46812,13 +46812,13 @@
         <v>190.7565376180293</v>
       </c>
       <c r="AJ1258">
-        <v>156.4783728851014</v>
+        <v>156.4783597410105</v>
       </c>
       <c r="AK1258">
-        <v>387.4808140190315</v>
+        <v>387.4807964441462</v>
       </c>
       <c r="AL1258">
-        <v>192.0479268609284</v>
+        <v>192.0479868657696</v>
       </c>
       <c r="AM1258">
         <v>291.2482660497019</v>
@@ -46874,13 +46874,13 @@
         <v>212.5800018310547</v>
       </c>
       <c r="O1259">
-        <v>178.4303165241717</v>
+        <v>178.4303165462866</v>
       </c>
       <c r="P1259">
-        <v>345.603375332976</v>
+        <v>345.60352339163</v>
       </c>
       <c r="Q1259">
-        <v>205.8428127720263</v>
+        <v>205.8427478365623</v>
       </c>
       <c r="R1259">
         <v>277.2471107349469</v>
@@ -46937,13 +46937,13 @@
         <v>190.5692530982113</v>
       </c>
       <c r="AJ1259">
-        <v>159.9554608015882</v>
+        <v>159.9554608214133</v>
       </c>
       <c r="AK1259">
-        <v>390.2793114360824</v>
+        <v>390.2794786341877</v>
       </c>
       <c r="AL1259">
-        <v>185.8213468950519</v>
+        <v>185.8212882755878</v>
       </c>
       <c r="AM1259">
         <v>291.1146765758892</v>
@@ -46999,13 +46999,13 @@
         <v>220.3000030517578</v>
       </c>
       <c r="O1260">
-        <v>185.6467889108061</v>
+        <v>185.6467745858966</v>
       </c>
       <c r="P1260">
-        <v>355.4993711542937</v>
+        <v>355.4994022716953</v>
       </c>
       <c r="Q1260">
-        <v>207.2098294327326</v>
+        <v>207.209829434017</v>
       </c>
       <c r="S1260">
         <v>1326.432662152196</v>
@@ -47059,13 +47059,13 @@
         <v>199.9274009000434</v>
       </c>
       <c r="AJ1260">
-        <v>168.4787992656376</v>
+        <v>168.4787862654475</v>
       </c>
       <c r="AK1260">
-        <v>406.4094362855646</v>
+        <v>406.4094718592019</v>
       </c>
       <c r="AL1260">
-        <v>189.3640967771683</v>
+        <v>189.3640967783421</v>
       </c>
       <c r="AN1260">
         <v>1288.797452244738</v>
@@ -47118,13 +47118,13 @@
         <v>226.5</v>
       </c>
       <c r="O1261">
-        <v>192.3980073686758</v>
+        <v>192.3980791148963</v>
       </c>
       <c r="P1261">
-        <v>364.3647531025836</v>
+        <v>364.3648670091669</v>
       </c>
       <c r="Q1261">
-        <v>190.1045209643867</v>
+        <v>190.104520965565</v>
       </c>
       <c r="R1261">
         <v>282.0416148297118</v>
@@ -47181,13 +47181,13 @@
         <v>201.7457913957424</v>
       </c>
       <c r="AJ1261">
-        <v>171.3708090929685</v>
+        <v>171.3708729980372</v>
       </c>
       <c r="AK1261">
-        <v>408.8271840058114</v>
+        <v>408.8273118121026</v>
       </c>
       <c r="AL1261">
-        <v>170.5132739032132</v>
+        <v>170.5132739042701</v>
       </c>
       <c r="AM1261">
         <v>294.2497595208077</v>
@@ -47243,13 +47243,13 @@
         <v>224.4299926757812</v>
       </c>
       <c r="O1262">
-        <v>198.6256210442495</v>
+        <v>198.6256210688128</v>
       </c>
       <c r="P1262">
-        <v>360.5522804023917</v>
+        <v>360.5523931171317</v>
       </c>
       <c r="Q1262">
-        <v>209.0797177214793</v>
+        <v>209.0797177227753</v>
       </c>
       <c r="R1262">
         <v>285.3784977152125</v>
@@ -47306,13 +47306,13 @@
         <v>202.5175894926739</v>
       </c>
       <c r="AJ1262">
-        <v>179.2326484788391</v>
+        <v>179.2326485010041</v>
       </c>
       <c r="AK1262">
-        <v>409.8427247995785</v>
+        <v>409.8428529233448</v>
       </c>
       <c r="AL1262">
-        <v>189.9867133599799</v>
+        <v>189.9867133611575</v>
       </c>
       <c r="AM1262">
         <v>301.6266761133055</v>
@@ -47368,13 +47368,13 @@
         <v>206.3399963378906</v>
       </c>
       <c r="O1263">
-        <v>186.5443880118519</v>
+        <v>186.5444023724617</v>
       </c>
       <c r="P1263">
-        <v>329.7097629187813</v>
+        <v>329.7098859832248</v>
       </c>
       <c r="Q1263">
-        <v>204.527162717266</v>
+        <v>204.5271843102726</v>
       </c>
       <c r="S1263">
         <v>1349.49521081301</v>
@@ -47428,13 +47428,13 @@
         <v>187.5647635104905</v>
       </c>
       <c r="AJ1263">
-        <v>169.5703917933387</v>
+        <v>169.5704048472518</v>
       </c>
       <c r="AK1263">
-        <v>377.5433036531123</v>
+        <v>377.5434445714646</v>
       </c>
       <c r="AL1263">
-        <v>187.2183009329032</v>
+        <v>187.2183206985224</v>
       </c>
       <c r="AN1263">
         <v>1309.063731801325</v>
@@ -47487,13 +47487,13 @@
         <v>182.8300018310547</v>
       </c>
       <c r="O1264">
-        <v>172.5386243554912</v>
+        <v>172.5386673779494</v>
       </c>
       <c r="P1264">
-        <v>272.5816931569654</v>
+        <v>272.5818583176386</v>
       </c>
       <c r="Q1264">
-        <v>206.9233279285809</v>
+        <v>206.9233495082778</v>
       </c>
       <c r="R1264">
         <v>261.2425745861053</v>
@@ -47550,13 +47550,13 @@
         <v>165.9676850318216</v>
       </c>
       <c r="AJ1264">
-        <v>156.6254759944547</v>
+        <v>156.6255150489737</v>
       </c>
       <c r="AK1264">
-        <v>311.7022139341224</v>
+        <v>311.7024027984108</v>
       </c>
       <c r="AL1264">
-        <v>189.1537683588244</v>
+        <v>189.1537880853628</v>
       </c>
       <c r="AM1264">
         <v>277.7708543302113</v>
@@ -47612,13 +47612,13 @@
         <v>187.3600006103516</v>
       </c>
       <c r="O1265">
-        <v>198.753710872533</v>
+        <v>198.7537538892429</v>
       </c>
       <c r="P1265">
-        <v>307.3446585894896</v>
+        <v>307.3446947315883</v>
       </c>
       <c r="Q1265">
-        <v>211.5241379057564</v>
+        <v>211.5241163430488</v>
       </c>
       <c r="R1265">
         <v>287.6177977578191</v>
@@ -47675,13 +47675,13 @@
         <v>171.3554057164364</v>
       </c>
       <c r="AJ1265">
-        <v>181.7758467830008</v>
+        <v>181.7758861251536</v>
       </c>
       <c r="AK1265">
-        <v>354.0900552635633</v>
+        <v>354.0900969026722</v>
       </c>
       <c r="AL1265">
-        <v>194.8095910655722</v>
+        <v>194.8095712067406</v>
       </c>
       <c r="AM1265">
         <v>308.1082545911228</v>
@@ -47737,13 +47737,13 @@
         <v>185.5800018310547</v>
       </c>
       <c r="O1266">
-        <v>211.8235650534092</v>
+        <v>211.82353642806</v>
       </c>
       <c r="P1266">
-        <v>323.2342990291148</v>
+        <v>323.2343401512755</v>
       </c>
       <c r="Q1266">
-        <v>204.8608964789529</v>
+        <v>204.8608749300696</v>
       </c>
       <c r="S1266">
         <v>1323.230105529819</v>
@@ -47797,13 +47797,13 @@
         <v>167.0838226623343</v>
       </c>
       <c r="AJ1266">
-        <v>190.7117719036726</v>
+        <v>190.7117461313226</v>
       </c>
       <c r="AK1266">
-        <v>366.5960623813594</v>
+        <v>366.596109020043</v>
       </c>
       <c r="AL1266">
-        <v>185.7341521151577</v>
+        <v>185.734132578176</v>
       </c>
       <c r="AN1266">
         <v>1295.953513467102</v>
@@ -47856,13 +47856,13 @@
         <v>178.5099945068359</v>
       </c>
       <c r="O1267">
-        <v>224.6964164340345</v>
+        <v>224.6964307872966</v>
       </c>
       <c r="P1267">
-        <v>329.8735583840992</v>
+        <v>329.8735816210079</v>
       </c>
       <c r="Q1267">
-        <v>200.8983551572495</v>
+        <v>200.8983336220463</v>
       </c>
       <c r="R1267">
         <v>294.2457424123927</v>
@@ -47919,13 +47919,13 @@
         <v>158.8591212128112</v>
       </c>
       <c r="AJ1267">
-        <v>199.961214233367</v>
+        <v>199.9612270065824</v>
       </c>
       <c r="AK1267">
-        <v>369.7977409419327</v>
+        <v>369.7977669911753</v>
       </c>
       <c r="AL1267">
-        <v>180.0343896443448</v>
+        <v>180.0343703456444</v>
       </c>
       <c r="AM1267">
         <v>306.7089529151227</v>
@@ -47981,13 +47981,13 @@
         <v>195.7799987792969</v>
       </c>
       <c r="O1268">
-        <v>241.567092975058</v>
+        <v>241.5670643672135</v>
       </c>
       <c r="P1268">
-        <v>347.2526865190362</v>
+        <v>347.2528749612072</v>
       </c>
       <c r="Q1268">
-        <v>207.9314068040126</v>
+        <v>207.9314283295388</v>
       </c>
       <c r="R1268">
         <v>308.2981012728593</v>
@@ -48044,13 +48044,13 @@
         <v>165.6064953301446</v>
       </c>
       <c r="AJ1268">
-        <v>204.3369082854491</v>
+        <v>204.3368840866296</v>
       </c>
       <c r="AK1268">
-        <v>370.0170945762392</v>
+        <v>370.0172953718768</v>
       </c>
       <c r="AL1268">
-        <v>177.1163311213337</v>
+        <v>177.1163494568141</v>
       </c>
       <c r="AM1268">
         <v>305.4545098992425</v>
@@ -48106,13 +48106,13 @@
         <v>218.0399932861328</v>
       </c>
       <c r="O1269">
-        <v>267.9455406052659</v>
+        <v>267.9455120073657</v>
       </c>
       <c r="P1269">
-        <v>367.4015536005826</v>
+        <v>367.4015087418573</v>
       </c>
       <c r="Q1269">
-        <v>206.4732408558872</v>
+        <v>206.4732623678663</v>
       </c>
       <c r="R1269">
         <v>324.6447134828299</v>
@@ -48169,13 +48169,13 @@
         <v>182.4602454277262</v>
       </c>
       <c r="AJ1269">
-        <v>224.2222097115196</v>
+        <v>224.2221857802223</v>
       </c>
       <c r="AK1269">
-        <v>387.2935038248149</v>
+        <v>387.2934565373369</v>
       </c>
       <c r="AL1269">
-        <v>173.9904213739568</v>
+        <v>173.9904395016245</v>
       </c>
       <c r="AM1269">
         <v>318.2050564876726</v>
@@ -48231,13 +48231,13 @@
         <v>212.9400024414062</v>
       </c>
       <c r="O1270">
-        <v>252.3950056075909</v>
+        <v>252.3949197613541</v>
       </c>
       <c r="P1270">
-        <v>354.8904171301654</v>
+        <v>354.8905680080237</v>
       </c>
       <c r="Q1270">
-        <v>200.1390159501526</v>
+        <v>200.1389944536116</v>
       </c>
       <c r="R1270">
         <v>315.0108649638439</v>
@@ -48294,13 +48294,13 @@
         <v>181.6429262487471</v>
       </c>
       <c r="AJ1270">
-        <v>215.2989896848852</v>
+        <v>215.2989164559874</v>
       </c>
       <c r="AK1270">
-        <v>381.349021972933</v>
+        <v>381.3491840993836</v>
       </c>
       <c r="AL1270">
-        <v>171.9184415779269</v>
+        <v>171.9184231125026</v>
       </c>
       <c r="AM1270">
         <v>314.7410685137403</v>
@@ -48356,13 +48356,13 @@
         <v>201.8999938964844</v>
       </c>
       <c r="O1271">
-        <v>244.6466778596714</v>
+        <v>244.6466492731588</v>
       </c>
       <c r="P1271">
-        <v>351.5917463015261</v>
+        <v>351.5919360528478</v>
       </c>
       <c r="Q1271">
-        <v>199.9976231151443</v>
+        <v>199.9976231155048</v>
       </c>
       <c r="S1271">
         <v>1365.72119836643</v>
@@ -48416,13 +48416,13 @@
         <v>173.3493551098861</v>
       </c>
       <c r="AJ1271">
-        <v>210.0512388251665</v>
+        <v>210.051214281067</v>
       </c>
       <c r="AK1271">
-        <v>380.2697027698399</v>
+        <v>380.2699079984309</v>
       </c>
       <c r="AL1271">
-        <v>172.918010197433</v>
+        <v>172.9180101977447</v>
       </c>
       <c r="AN1271">
         <v>1402.598610490221</v>
@@ -48475,13 +48475,13 @@
         <v>228.9100036621094</v>
       </c>
       <c r="O1272">
-        <v>272.0489631448376</v>
+        <v>272.0489917921846</v>
       </c>
       <c r="P1272">
-        <v>397.0617598762273</v>
+        <v>397.0618840190288</v>
       </c>
       <c r="Q1272">
-        <v>201.3284433912789</v>
+        <v>201.3284433916417</v>
       </c>
       <c r="R1272">
         <v>349.3075253482259</v>
@@ -48538,13 +48538,13 @@
         <v>191.5885534500413</v>
       </c>
       <c r="AJ1272">
-        <v>227.6941439109789</v>
+        <v>227.694167887667</v>
       </c>
       <c r="AK1272">
-        <v>418.6296442216969</v>
+        <v>418.6297751077758</v>
       </c>
       <c r="AL1272">
-        <v>169.6834135378455</v>
+        <v>169.6834135381513</v>
       </c>
       <c r="AM1272">
         <v>342.4359679372685</v>
@@ -48600,13 +48600,13 @@
         <v>231.8699951171875</v>
       </c>
       <c r="O1273">
-        <v>284.8017066083556</v>
+        <v>284.8016494340166</v>
       </c>
       <c r="P1273">
-        <v>412.7560380629389</v>
+        <v>412.7560474212173</v>
       </c>
       <c r="Q1273">
-        <v>207.623663841144</v>
+        <v>207.6236852982333</v>
       </c>
       <c r="R1273">
         <v>361.3765224581661</v>
@@ -48663,13 +48663,13 @@
         <v>189.5911652634403</v>
       </c>
       <c r="AJ1273">
-        <v>232.8713872513129</v>
+        <v>232.8713405020577</v>
       </c>
       <c r="AK1273">
-        <v>425.1420941519904</v>
+        <v>425.1421037910935</v>
       </c>
       <c r="AL1273">
-        <v>170.9542350678921</v>
+        <v>170.9542527353401</v>
       </c>
       <c r="AM1273">
         <v>346.0988242770908</v>
@@ -48725,13 +48725,13 @@
         <v>227.8699951171875</v>
       </c>
       <c r="O1274">
-        <v>285.9924510608905</v>
+        <v>285.9924510982854</v>
       </c>
       <c r="P1274">
-        <v>422.4866730971519</v>
+        <v>422.4868051895427</v>
       </c>
       <c r="Q1274">
-        <v>208.9120365274943</v>
+        <v>208.9120579712643</v>
       </c>
       <c r="S1274">
         <v>1363.196922150342</v>
@@ -48785,13 +48785,13 @@
         <v>187.7791471917491</v>
       </c>
       <c r="AJ1274">
-        <v>235.6756910266918</v>
+        <v>235.6756910575075</v>
       </c>
       <c r="AK1274">
-        <v>438.5714562014687</v>
+        <v>438.5715933228405</v>
       </c>
       <c r="AL1274">
-        <v>173.3616982144102</v>
+        <v>173.3617160091167</v>
       </c>
       <c r="AN1274">
         <v>1458.665314158067</v>
@@ -48844,13 +48844,13 @@
         <v>240.5099945068359</v>
       </c>
       <c r="O1275">
-        <v>285.5391127829219</v>
+        <v>285.5390556371553</v>
       </c>
       <c r="P1275">
-        <v>441.6131626491424</v>
+        <v>441.6132608411412</v>
       </c>
       <c r="Q1275">
-        <v>218.0609401960297</v>
+        <v>218.0609830573986</v>
       </c>
       <c r="S1275">
         <v>1336.44513060657</v>
@@ -48904,13 +48904,13 @@
         <v>198.8836471568973</v>
       </c>
       <c r="AJ1275">
-        <v>236.119335799985</v>
+        <v>236.119288544741</v>
       </c>
       <c r="AK1275">
-        <v>460.0182758530759</v>
+        <v>460.018378137423</v>
       </c>
       <c r="AL1275">
-        <v>181.5822101855634</v>
+        <v>181.5822458767885</v>
       </c>
       <c r="AN1275">
         <v>1425.090563149548</v>
@@ -48963,13 +48963,13 @@
         <v>255.4700012207031</v>
       </c>
       <c r="O1276">
-        <v>290.0033566712191</v>
+        <v>290.003356708892</v>
       </c>
       <c r="P1276">
-        <v>458.2719750820797</v>
+        <v>458.2720784908595</v>
       </c>
       <c r="Q1276">
-        <v>224.2872378443596</v>
+        <v>224.2872592621213</v>
       </c>
       <c r="R1276">
         <v>359.9875954092927</v>
@@ -49026,13 +49026,13 @@
         <v>217.5508824156546</v>
       </c>
       <c r="AJ1276">
-        <v>246.9584915875152</v>
+        <v>246.9584916195964</v>
       </c>
       <c r="AK1276">
-        <v>491.5994269018954</v>
+        <v>491.5995378309936</v>
       </c>
       <c r="AL1276">
-        <v>192.333516570953</v>
+        <v>192.3335349373722</v>
       </c>
       <c r="AM1276">
         <v>359.0666928764524</v>
@@ -49088,13 +49088,13 @@
         <v>274.9500122070312</v>
       </c>
       <c r="O1277">
-        <v>307.4574074541546</v>
+        <v>307.4574646488134</v>
       </c>
       <c r="P1277">
-        <v>477.8742378962093</v>
+        <v>477.8743873057985</v>
       </c>
       <c r="Q1277">
-        <v>229.1817572702768</v>
+        <v>229.1817786749484</v>
       </c>
       <c r="R1277">
         <v>376.6575179924189</v>
@@ -49151,13 +49151,13 @@
         <v>228.5536261072579</v>
       </c>
       <c r="AJ1277">
-        <v>255.5755672935616</v>
+        <v>255.5756148369189</v>
       </c>
       <c r="AK1277">
-        <v>500.3974875127638</v>
+        <v>500.397643964351</v>
       </c>
       <c r="AL1277">
-        <v>191.842086094072</v>
+        <v>191.8421040113657</v>
       </c>
       <c r="AM1277">
         <v>366.7310311552499</v>
@@ -49213,13 +49213,13 @@
         <v>289.4400024414062</v>
       </c>
       <c r="O1278">
-        <v>303.687304490109</v>
+        <v>303.6873616698276</v>
       </c>
       <c r="P1278">
-        <v>486.5489110650136</v>
+        <v>486.549142897794</v>
       </c>
       <c r="Q1278">
-        <v>235.6628649999464</v>
+        <v>235.6628650001283</v>
       </c>
       <c r="S1278">
         <v>1330.374461066489</v>
@@ -49273,13 +49273,13 @@
         <v>237.3626393647747</v>
       </c>
       <c r="AJ1278">
-        <v>249.0465019600697</v>
+        <v>249.046548851753</v>
       </c>
       <c r="AK1278">
-        <v>502.628885737738</v>
+        <v>502.6291252323693</v>
       </c>
       <c r="AL1278">
-        <v>194.6141586476513</v>
+        <v>194.6141586478015</v>
       </c>
       <c r="AN1278">
         <v>1430.46543528839</v>
@@ -49332,13 +49332,13 @@
         <v>277.9200134277344</v>
       </c>
       <c r="O1279">
-        <v>322.2548518586473</v>
+        <v>322.2547947737499</v>
       </c>
       <c r="P1279">
-        <v>486.2895631145066</v>
+        <v>486.2896753078415</v>
       </c>
       <c r="Q1279">
-        <v>232.4462432861547</v>
+        <v>232.4462005293369</v>
       </c>
       <c r="R1279">
         <v>385.0937740597657</v>
@@ -49395,13 +49395,13 @@
         <v>234.571246984921</v>
       </c>
       <c r="AJ1279">
-        <v>271.9909283074335</v>
+        <v>271.9908801263926</v>
       </c>
       <c r="AK1279">
-        <v>517.0315349893178</v>
+        <v>517.0316542752262</v>
       </c>
       <c r="AL1279">
-        <v>197.5636115708624</v>
+        <v>197.5635752304543</v>
       </c>
       <c r="AM1279">
         <v>380.7045772782305</v>
@@ -49457,13 +49457,13 @@
         <v>278.2900085449219</v>
       </c>
       <c r="O1280">
-        <v>331.7782086472013</v>
+        <v>331.7783514740763</v>
       </c>
       <c r="P1280">
-        <v>491.9706054050695</v>
+        <v>491.970759221527</v>
       </c>
       <c r="Q1280">
-        <v>234.0222965395692</v>
+        <v>234.0222751742359</v>
       </c>
       <c r="S1280">
         <v>1360.473376724198</v>
@@ -49517,13 +49517,13 @@
         <v>234.5667637769065</v>
       </c>
       <c r="AJ1280">
-        <v>279.6512210445055</v>
+        <v>279.6513414312848</v>
       </c>
       <c r="AK1280">
-        <v>522.3662943600523</v>
+        <v>522.3664576798362</v>
       </c>
       <c r="AL1280">
-        <v>198.6349061154301</v>
+        <v>198.634887980829</v>
       </c>
       <c r="AN1280">
         <v>1423.24105784014</v>
@@ -49576,13 +49576,13 @@
         <v>285.7699890136719</v>
       </c>
       <c r="O1281">
-        <v>345.691970182379</v>
+        <v>345.6919702281855</v>
       </c>
       <c r="P1281">
-        <v>502.5320384805732</v>
+        <v>502.5322354289638</v>
       </c>
       <c r="Q1281">
-        <v>227.6879025872142</v>
+        <v>227.6879025873003</v>
       </c>
       <c r="R1281">
         <v>396.3351192616528</v>
@@ -49639,13 +49639,13 @@
         <v>242.1779567912474</v>
       </c>
       <c r="AJ1281">
-        <v>292.959296764728</v>
+        <v>292.9592968035471</v>
       </c>
       <c r="AK1281">
-        <v>536.474244808456</v>
+        <v>536.4744550592083</v>
       </c>
       <c r="AL1281">
-        <v>194.3065405977327</v>
+        <v>194.3065405978063</v>
       </c>
       <c r="AM1281">
         <v>393.4116317114596</v>
@@ -49701,13 +49701,13 @@
         <v>272.9400024414062</v>
       </c>
       <c r="O1282">
-        <v>325.5982130305127</v>
+        <v>325.598184530773</v>
       </c>
       <c r="P1282">
-        <v>480.7824146344676</v>
+        <v>480.7824454881045</v>
       </c>
       <c r="Q1282">
-        <v>227.2360259657409</v>
+        <v>227.2359832898298</v>
       </c>
       <c r="R1282">
         <v>378.0276809997248</v>
@@ -49764,13 +49764,13 @@
         <v>235.760561839342</v>
       </c>
       <c r="AJ1282">
-        <v>281.2457571309603</v>
+        <v>281.2457325134085</v>
       </c>
       <c r="AK1282">
-        <v>523.1420987432314</v>
+        <v>523.1421323152504</v>
       </c>
       <c r="AL1282">
-        <v>197.6562824112473</v>
+        <v>197.6562452905404</v>
       </c>
       <c r="AM1282">
         <v>382.4672167916397</v>
@@ -49826,13 +49826,13 @@
         <v>287.010009765625</v>
       </c>
       <c r="O1283">
-        <v>351.5112535614204</v>
+        <v>351.511253606955</v>
       </c>
       <c r="P1283">
-        <v>506.2288390937455</v>
+        <v>506.2289973649152</v>
       </c>
       <c r="Q1283">
-        <v>236.5638300776905</v>
+        <v>236.5638514012748</v>
       </c>
       <c r="S1283">
         <v>1315.318658827733</v>
@@ -49886,13 +49886,13 @@
         <v>248.4504932181657</v>
       </c>
       <c r="AJ1283">
-        <v>304.2860574458279</v>
+        <v>304.286057485245</v>
       </c>
       <c r="AK1283">
-        <v>552.0225663143967</v>
+        <v>552.0227389028598</v>
       </c>
       <c r="AL1283">
-        <v>206.2151808243026</v>
+        <v>206.2151994122955</v>
       </c>
       <c r="AN1283">
         <v>1339.816863108414</v>
@@ -49945,13 +49945,13 @@
         <v>276.6900024414062</v>
       </c>
       <c r="O1284">
-        <v>358.4425778988916</v>
+        <v>358.4425494166209</v>
       </c>
       <c r="P1284">
-        <v>494.7902453567454</v>
+        <v>494.7904398558753</v>
       </c>
       <c r="Q1284">
-        <v>230.8009447210983</v>
+        <v>230.8009447192274</v>
       </c>
       <c r="R1284">
         <v>372.1988095874481</v>
@@ -50008,13 +50008,13 @@
         <v>245.1404292029824</v>
       </c>
       <c r="AJ1284">
-        <v>317.5711685114659</v>
+        <v>317.5711432768857</v>
       </c>
       <c r="AK1284">
-        <v>552.2169505412352</v>
+        <v>552.2171676144645</v>
       </c>
       <c r="AL1284">
-        <v>205.915257671787</v>
+        <v>205.9152576701178</v>
       </c>
       <c r="AM1284">
         <v>386.2452053886819</v>
@@ -50070,13 +50070,13 @@
         <v>299</v>
       </c>
       <c r="O1285">
-        <v>362.0208877745814</v>
+        <v>362.0208878215456</v>
       </c>
       <c r="P1285">
-        <v>502.5959926737171</v>
+        <v>502.5962294001971</v>
       </c>
       <c r="Q1285">
-        <v>209.6504229816247</v>
+        <v>209.6504229799252</v>
       </c>
       <c r="R1285">
         <v>385.2866852627119</v>
@@ -50133,13 +50133,13 @@
         <v>264.1809506980032</v>
       </c>
       <c r="AJ1285">
-        <v>319.8629508522543</v>
+        <v>319.8629508937494</v>
       </c>
       <c r="AK1285">
-        <v>559.3922706936573</v>
+        <v>559.3925341716101</v>
       </c>
       <c r="AL1285">
-        <v>186.5329350967451</v>
+        <v>186.532935095233</v>
       </c>
       <c r="AM1285">
         <v>398.7318777810474</v>
@@ -50195,13 +50195,13 @@
         <v>313.0199890136719</v>
       </c>
       <c r="O1286">
-        <v>330.6863074962919</v>
+        <v>330.6862505098861</v>
       </c>
       <c r="P1286">
-        <v>510.03100893267</v>
+        <v>510.0311683929054</v>
       </c>
       <c r="Q1286">
-        <v>232.3903873338738</v>
+        <v>232.3904086155515</v>
       </c>
       <c r="R1286">
         <v>362.7699600709832</v>
@@ -50258,13 +50258,13 @@
         <v>279.1830083960684</v>
       </c>
       <c r="AJ1286">
-        <v>294.9396249520977</v>
+        <v>294.9395741258349</v>
       </c>
       <c r="AK1286">
-        <v>573.0343042744242</v>
+        <v>573.0344834325214</v>
       </c>
       <c r="AL1286">
-        <v>208.7202283671164</v>
+        <v>208.7202474811455</v>
       </c>
       <c r="AM1286">
         <v>378.9787637729996</v>
@@ -50320,13 +50320,13 @@
         <v>321.4500122070312</v>
       </c>
       <c r="O1287">
-        <v>315.8021949730706</v>
+        <v>315.8022235202412</v>
       </c>
       <c r="P1287">
-        <v>501.6834310717157</v>
+        <v>501.6836277005029</v>
       </c>
       <c r="Q1287">
-        <v>239.4681168457934</v>
+        <v>239.4681806576195</v>
       </c>
       <c r="R1287">
         <v>354.1401119923882</v>
@@ -50383,13 +50383,13 @@
         <v>286.3952353947178</v>
       </c>
       <c r="AJ1287">
-        <v>281.3633241028783</v>
+        <v>281.363349536922</v>
       </c>
       <c r="AK1287">
-        <v>563.0529384542413</v>
+        <v>563.0531591360688</v>
       </c>
       <c r="AL1287">
-        <v>214.8471076832804</v>
+        <v>214.8471649342683</v>
       </c>
       <c r="AM1287">
         <v>369.5677866370698</v>
@@ -50445,13 +50445,13 @@
         <v>352.9100036621094</v>
       </c>
       <c r="O1288">
-        <v>330.0563855653037</v>
+        <v>330.0563856081162</v>
       </c>
       <c r="P1288">
-        <v>508.821794281916</v>
+        <v>508.8218340554221</v>
       </c>
       <c r="Q1288">
-        <v>256.2484743187177</v>
+        <v>256.2484955758454</v>
       </c>
       <c r="R1288">
         <v>355.8003886492518</v>
@@ -50508,13 +50508,13 @@
         <v>318.1375675309739</v>
       </c>
       <c r="AJ1288">
-        <v>297.5357302490793</v>
+        <v>297.5357302876735</v>
       </c>
       <c r="AK1288">
-        <v>577.8083604587844</v>
+        <v>577.8084056248222</v>
       </c>
       <c r="AL1288">
-        <v>232.6171582429899</v>
+        <v>232.6171775397785</v>
       </c>
       <c r="AM1288">
         <v>375.6851699883456</v>
@@ -50570,13 +50570,13 @@
         <v>322.8299865722656</v>
       </c>
       <c r="O1289">
-        <v>285.4528279272067</v>
+        <v>285.4528279642336</v>
       </c>
       <c r="P1289">
-        <v>473.7727203730336</v>
+        <v>473.7728684995507</v>
       </c>
       <c r="Q1289">
-        <v>283.2160804496343</v>
+        <v>283.2160804483621</v>
       </c>
       <c r="S1289">
         <v>1192.357817765299</v>
@@ -50630,13 +50630,13 @@
         <v>306.3775140668744</v>
       </c>
       <c r="AJ1289">
-        <v>270.9052177348455</v>
+        <v>270.9052177699854</v>
       </c>
       <c r="AK1289">
-        <v>566.3960290916867</v>
+        <v>566.3962061771699</v>
       </c>
       <c r="AL1289">
-        <v>270.6639394635871</v>
+        <v>270.6639394623713</v>
       </c>
       <c r="AN1289">
         <v>1107.849744725387</v>
@@ -50689,13 +50689,13 @@
         <v>315.9800109863281</v>
       </c>
       <c r="O1290">
-        <v>280.8524545733915</v>
+        <v>280.8525115785027</v>
       </c>
       <c r="P1290">
-        <v>478.9470137130259</v>
+        <v>478.9471634573019</v>
       </c>
       <c r="Q1290">
-        <v>280.2624153045618</v>
+        <v>280.2624153033029</v>
       </c>
       <c r="R1290">
         <v>348.3383483074601</v>
@@ -50752,13 +50752,13 @@
         <v>294.4553266110597</v>
       </c>
       <c r="AJ1290">
-        <v>261.7206733514039</v>
+        <v>261.7207264733042</v>
       </c>
       <c r="AK1290">
-        <v>562.2305033774101</v>
+        <v>562.2306791605287</v>
       </c>
       <c r="AL1290">
-        <v>262.9990235874511</v>
+        <v>262.9990235862697</v>
       </c>
       <c r="AM1290">
         <v>380.2136812371605</v>
@@ -50814,13 +50814,13 @@
         <v>273.0199890136719</v>
       </c>
       <c r="O1291">
-        <v>255.2734478076044</v>
+        <v>255.2734478396318</v>
       </c>
       <c r="P1291">
-        <v>433.6689782505393</v>
+        <v>433.6690740951125</v>
       </c>
       <c r="Q1291">
-        <v>289.844090562844</v>
+        <v>289.8441117823957</v>
       </c>
       <c r="R1291">
         <v>319.4745227172437</v>
@@ -50877,13 +50877,13 @@
         <v>260.7889855895232</v>
       </c>
       <c r="AJ1291">
-        <v>243.8374704437907</v>
+        <v>243.8374704743833</v>
       </c>
       <c r="AK1291">
-        <v>521.8194783668015</v>
+        <v>521.8195936933932</v>
       </c>
       <c r="AL1291">
-        <v>278.7974010858572</v>
+        <v>278.7974214966783</v>
       </c>
       <c r="AM1291">
         <v>357.435494247832</v>
@@ -50939,13 +50939,13 @@
         <v>300.6000061035156</v>
       </c>
       <c r="O1292">
-        <v>287.8031334820298</v>
+        <v>287.8031335181384</v>
       </c>
       <c r="P1292">
-        <v>468.4003972883152</v>
+        <v>468.4005834673747</v>
       </c>
       <c r="Q1292">
-        <v>279.2858243222254</v>
+        <v>279.2858243200657</v>
       </c>
       <c r="S1292">
         <v>1204.728839803716</v>
@@ -50999,13 +50999,13 @@
         <v>294.6481141967415</v>
       </c>
       <c r="AJ1292">
-        <v>282.1046201549008</v>
+        <v>282.1046201902944</v>
       </c>
       <c r="AK1292">
-        <v>578.3610865164582</v>
+        <v>578.361316402521</v>
       </c>
       <c r="AL1292">
-        <v>275.6722457287599</v>
+        <v>275.6722457266283</v>
       </c>
       <c r="AN1292">
         <v>1083.756972405282</v>
@@ -51058,13 +51058,13 @@
         <v>280.7999877929688</v>
       </c>
       <c r="O1293">
-        <v>272.9605843725265</v>
+        <v>272.9606128697357</v>
       </c>
       <c r="P1293">
-        <v>451.2209470243105</v>
+        <v>451.2211278233227</v>
       </c>
       <c r="Q1293">
-        <v>286.7102289355655</v>
+        <v>286.7102713219278</v>
       </c>
       <c r="R1293">
         <v>305.2719021010257</v>
@@ -51121,13 +51121,13 @@
         <v>278.9865750551106</v>
       </c>
       <c r="AJ1293">
-        <v>271.1977986810994</v>
+        <v>271.1978269942729</v>
       </c>
       <c r="AK1293">
-        <v>564.732267229532</v>
+        <v>564.7324935112167</v>
       </c>
       <c r="AL1293">
-        <v>286.8526582594282</v>
+        <v>286.8527006668467</v>
       </c>
       <c r="AM1293">
         <v>355.2545918806766</v>
@@ -51183,13 +51183,13 @@
         <v>267.0199890136719</v>
       </c>
       <c r="O1294">
-        <v>243.6964141849514</v>
+        <v>243.6964426705709</v>
       </c>
       <c r="P1294">
-        <v>405.3711886851493</v>
+        <v>405.3712757058874</v>
       </c>
       <c r="Q1294">
-        <v>303.0599995309317</v>
+        <v>303.0599783479792</v>
       </c>
       <c r="R1294">
         <v>271.0385350053505</v>
@@ -51246,13 +51246,13 @@
         <v>272.9428488333557</v>
       </c>
       <c r="AJ1294">
-        <v>249.1019259786889</v>
+        <v>249.1019550961576</v>
       </c>
       <c r="AK1294">
-        <v>521.9728982793443</v>
+        <v>521.9730103308866</v>
       </c>
       <c r="AL1294">
-        <v>311.950750820452</v>
+        <v>311.9507290160636</v>
       </c>
       <c r="AM1294">
         <v>324.5081693025604</v>
@@ -51308,13 +51308,13 @@
         <v>295.0899963378906</v>
       </c>
       <c r="O1295">
-        <v>253.8384974833481</v>
+        <v>253.8384406209541</v>
       </c>
       <c r="P1295">
-        <v>440.5261643702093</v>
+        <v>440.5262623897855</v>
       </c>
       <c r="Q1295">
-        <v>305.817273596518</v>
+        <v>305.8172735955453</v>
       </c>
       <c r="R1295">
         <v>285.5973608477568</v>
@@ -51371,13 +51371,13 @@
         <v>298.5230109639763</v>
       </c>
       <c r="AJ1295">
-        <v>256.7916008936248</v>
+        <v>256.7915433697057</v>
       </c>
       <c r="AK1295">
-        <v>561.3867569622181</v>
+        <v>561.3868818739633</v>
       </c>
       <c r="AL1295">
-        <v>311.5407127078337</v>
+        <v>311.5407127068428</v>
       </c>
       <c r="AM1295">
         <v>338.4107597091478</v>
@@ -51433,13 +51433,13 @@
         <v>318.6000061035156</v>
       </c>
       <c r="O1296">
-        <v>267.8481639645499</v>
+        <v>267.8481924394319</v>
       </c>
       <c r="P1296">
-        <v>474.9588946102945</v>
+        <v>474.9589637034881</v>
       </c>
       <c r="Q1296">
-        <v>278.5871542821391</v>
+        <v>278.587154281253</v>
       </c>
       <c r="R1296">
         <v>308.5774434890461</v>
@@ -51496,13 +51496,13 @@
         <v>308.6312177695589</v>
       </c>
       <c r="AJ1296">
-        <v>259.4673679788336</v>
+        <v>259.4673955627549</v>
       </c>
       <c r="AK1296">
-        <v>579.5851201594382</v>
+        <v>579.5852044728121</v>
       </c>
       <c r="AL1296">
-        <v>271.7594346237664</v>
+        <v>271.7594346229021</v>
       </c>
       <c r="AM1296">
         <v>350.126430314021</v>
@@ -51558,13 +51558,13 @@
         <v>308.8999938964844</v>
       </c>
       <c r="O1297">
-        <v>243.0562761418328</v>
+        <v>243.0562477379495</v>
       </c>
       <c r="P1297">
-        <v>439.3341637633508</v>
+        <v>439.3343408116678</v>
       </c>
       <c r="Q1297">
-        <v>259.4184523633737</v>
+        <v>259.4184523625486</v>
       </c>
       <c r="S1297">
         <v>1058.471978282285</v>
@@ -51618,13 +51618,13 @@
         <v>288.745554212455</v>
       </c>
       <c r="AJ1297">
-        <v>227.1978651540782</v>
+        <v>227.1978386034301</v>
       </c>
       <c r="AK1297">
-        <v>517.3202898604347</v>
+        <v>517.3204983365656</v>
       </c>
       <c r="AL1297">
-        <v>244.1899247802555</v>
+        <v>244.1899247794788</v>
       </c>
       <c r="AN1297">
         <v>998.4796939166866</v>
@@ -51677,13 +51677,13 @@
         <v>311.5199890136719</v>
       </c>
       <c r="O1298">
-        <v>269.5075708780593</v>
+        <v>269.5075709098025</v>
       </c>
       <c r="P1298">
-        <v>502.5106138944236</v>
+        <v>502.5108106874503</v>
       </c>
       <c r="Q1298">
-        <v>270.3690591811461</v>
+        <v>270.3690380531968</v>
       </c>
       <c r="R1298">
         <v>330.2482064693854</v>
@@ -51740,13 +51740,13 @@
         <v>286.9036553819045</v>
       </c>
       <c r="AJ1298">
-        <v>248.2110617775458</v>
+        <v>248.2110618067807</v>
       </c>
       <c r="AK1298">
-        <v>582.9919140935765</v>
+        <v>582.9921424046612</v>
       </c>
       <c r="AL1298">
-        <v>250.7475065347339</v>
+        <v>250.7474869401079</v>
       </c>
       <c r="AM1298">
         <v>356.2519720205538</v>
@@ -51802,13 +51802,13 @@
         <v>305.1799926757812</v>
       </c>
       <c r="O1299">
-        <v>268.4705708533056</v>
+        <v>268.4706277243154</v>
       </c>
       <c r="P1299">
-        <v>489.0890949333239</v>
+        <v>489.0892875212926</v>
       </c>
       <c r="Q1299">
-        <v>272.2155984060277</v>
+        <v>272.2155561767552</v>
       </c>
       <c r="R1299">
         <v>317.4388175841001</v>
@@ -51865,13 +51865,13 @@
         <v>287.851341893776</v>
       </c>
       <c r="AJ1299">
-        <v>253.2263448908749</v>
+        <v>253.2263985326498</v>
       </c>
       <c r="AK1299">
-        <v>581.1219891412075</v>
+        <v>581.1222179688477</v>
       </c>
       <c r="AL1299">
-        <v>258.5560343283058</v>
+        <v>258.555994218065</v>
       </c>
       <c r="AM1299">
         <v>350.7025143581853</v>
@@ -51927,13 +51927,13 @@
         <v>308.7699890136719</v>
       </c>
       <c r="O1300">
-        <v>293.4342399976576</v>
+        <v>293.4342400335999</v>
       </c>
       <c r="P1300">
-        <v>492.709891214927</v>
+        <v>492.7099659288083</v>
       </c>
       <c r="Q1300">
-        <v>252.0944741444558</v>
+        <v>252.0944741461842</v>
       </c>
       <c r="R1300">
         <v>332.0501732977746</v>
@@ -51990,13 +51990,13 @@
         <v>284.0047728234657</v>
       </c>
       <c r="AJ1300">
-        <v>269.8990434121207</v>
+        <v>269.8990434451802</v>
       </c>
       <c r="AK1300">
-        <v>570.8854396278914</v>
+        <v>570.8855261962103</v>
       </c>
       <c r="AL1300">
-        <v>233.498101051754</v>
+        <v>233.498101053355</v>
       </c>
       <c r="AM1300">
         <v>357.7345729327906</v>
@@ -52052,13 +52052,13 @@
         <v>328.5499877929688</v>
       </c>
       <c r="O1301">
-        <v>295.3077764177535</v>
+        <v>295.3078332660581</v>
       </c>
       <c r="P1301">
-        <v>498.8337789047229</v>
+        <v>498.8338555502089</v>
       </c>
       <c r="Q1301">
-        <v>254.4290725781252</v>
+        <v>254.4291147540638</v>
       </c>
       <c r="S1301">
         <v>1090.954679155342</v>
@@ -52112,13 +52112,13 @@
         <v>297.5996266240659</v>
       </c>
       <c r="AJ1301">
-        <v>267.4889279146317</v>
+        <v>267.4889794076613</v>
       </c>
       <c r="AK1301">
-        <v>569.1856080491661</v>
+        <v>569.1856955041649</v>
       </c>
       <c r="AL1301">
-        <v>232.074344280953</v>
+        <v>232.0743827512158</v>
       </c>
       <c r="AN1301">
         <v>1062.020894145769</v>
@@ -52171,13 +52171,13 @@
         <v>321.0799865722656</v>
       </c>
       <c r="O1302">
-        <v>318.5154592714611</v>
+        <v>318.5155161095177</v>
       </c>
       <c r="P1302">
-        <v>488.2294214681663</v>
+        <v>488.2296930600033</v>
       </c>
       <c r="Q1302">
-        <v>255.7070304265067</v>
+        <v>255.706988280056</v>
       </c>
       <c r="R1302">
         <v>326.6410506928952</v>
@@ -52234,13 +52234,13 @@
         <v>301.3703647196036</v>
       </c>
       <c r="AJ1302">
-        <v>298.9632619405492</v>
+        <v>298.9633152895793</v>
       </c>
       <c r="AK1302">
-        <v>577.2691967556309</v>
+        <v>577.2695178784365</v>
       </c>
       <c r="AL1302">
-        <v>241.6904257926527</v>
+        <v>241.6903859564637</v>
       </c>
       <c r="AM1302">
         <v>359.1077005996619</v>
@@ -52296,13 +52296,13 @@
         <v>341</v>
       </c>
       <c r="O1303">
-        <v>338.0507696050553</v>
+        <v>338.050741254886</v>
       </c>
       <c r="P1303">
-        <v>517.2929378788493</v>
+        <v>517.2930996129885</v>
       </c>
       <c r="Q1303">
-        <v>264.3547551197331</v>
+        <v>264.3547761816262</v>
       </c>
       <c r="R1303">
         <v>341.9229553845394</v>
@@ -52359,13 +52359,13 @@
         <v>312.2710622710622</v>
       </c>
       <c r="AJ1303">
-        <v>309.5703018361312</v>
+        <v>309.5702758744377</v>
       </c>
       <c r="AK1303">
-        <v>596.7343533388154</v>
+        <v>596.7345399106974</v>
       </c>
       <c r="AL1303">
-        <v>243.7776908475926</v>
+        <v>243.7777102700528</v>
       </c>
       <c r="AM1303">
         <v>366.7518108975695</v>
@@ -52421,13 +52421,13 @@
         <v>351.9599914550781</v>
       </c>
       <c r="O1304">
-        <v>351.4969180985944</v>
+        <v>351.496918142681</v>
       </c>
       <c r="P1304">
-        <v>540.919925747571</v>
+        <v>540.9200552368306</v>
       </c>
       <c r="Q1304">
-        <v>263.2328073996359</v>
+        <v>263.2327653036422</v>
       </c>
       <c r="R1304">
         <v>349.7835304809904</v>
@@ -52484,13 +52484,13 @@
         <v>319.3829323548803</v>
       </c>
       <c r="AJ1304">
-        <v>318.9627205976356</v>
+        <v>318.9627206376416</v>
       </c>
       <c r="AK1304">
-        <v>618.3274323631716</v>
+        <v>618.327580382791</v>
       </c>
       <c r="AL1304">
-        <v>240.5403240031155</v>
+        <v>240.5402855360868</v>
       </c>
       <c r="AM1304">
         <v>371.778618314068</v>
@@ -52546,13 +52546,13 @@
         <v>360.2000122070312</v>
       </c>
       <c r="O1305">
-        <v>346.196375261214</v>
+        <v>346.1964036835569</v>
       </c>
       <c r="P1305">
-        <v>526.8458155444646</v>
+        <v>526.8459802659459</v>
       </c>
       <c r="Q1305">
-        <v>263.9288296292773</v>
+        <v>263.9288506645737</v>
       </c>
       <c r="R1305">
         <v>340.3459097246335</v>
@@ -52609,13 +52609,13 @@
         <v>332.3184908266733</v>
       </c>
       <c r="AJ1305">
-        <v>319.3988147072737</v>
+        <v>319.3988409295662</v>
       </c>
       <c r="AK1305">
-        <v>612.2960363883772</v>
+        <v>612.2962278263788</v>
       </c>
       <c r="AL1305">
-        <v>245.2037378325327</v>
+        <v>245.2037573754274</v>
       </c>
       <c r="AM1305">
         <v>367.7883478958424</v>
@@ -52671,13 +52671,13 @@
         <v>350.2999877929688</v>
       </c>
       <c r="O1306">
-        <v>328.048474598762</v>
+        <v>328.0485030113582</v>
       </c>
       <c r="P1306">
-        <v>502.9385781818362</v>
+        <v>502.9387750435263</v>
       </c>
       <c r="Q1306">
-        <v>275.9952035611847</v>
+        <v>275.9952035620365</v>
       </c>
       <c r="S1306">
         <v>1059.632637965881</v>
@@ -52731,13 +52731,13 @@
         <v>330.9712658663726</v>
       </c>
       <c r="AJ1306">
-        <v>309.9475383586187</v>
+        <v>309.9475652034752</v>
       </c>
       <c r="AK1306">
-        <v>598.5938463110914</v>
+        <v>598.5940806144464</v>
       </c>
       <c r="AL1306">
-        <v>262.5918083769019</v>
+        <v>262.5918083777124</v>
       </c>
       <c r="AN1306">
         <v>988.9229055522302</v>
@@ -52790,13 +52790,13 @@
         <v>341.3299865722656</v>
       </c>
       <c r="O1307">
-        <v>321.6558170167658</v>
+        <v>321.6557319643836</v>
       </c>
       <c r="P1307">
-        <v>488.4121719849003</v>
+        <v>488.4123246900223</v>
       </c>
       <c r="Q1307">
-        <v>274.7721754914227</v>
+        <v>274.7721965016317</v>
       </c>
       <c r="R1307">
         <v>320.034603465611</v>
@@ -52853,13 +52853,13 @@
         <v>322.9844687474126</v>
       </c>
       <c r="AJ1307">
-        <v>304.3677299553045</v>
+        <v>304.3676494742464</v>
       </c>
       <c r="AK1307">
-        <v>582.1847209021375</v>
+        <v>582.1849029258337</v>
       </c>
       <c r="AL1307">
-        <v>261.8239787281063</v>
+        <v>261.8239987482429</v>
       </c>
       <c r="AM1307">
         <v>354.7078342618296</v>
@@ -52915,13 +52915,13 @@
         <v>360</v>
       </c>
       <c r="O1308">
-        <v>356.3747522972877</v>
+        <v>356.3747239821969</v>
       </c>
       <c r="P1308">
-        <v>529.8160027187209</v>
+        <v>529.8162079661349</v>
       </c>
       <c r="Q1308">
-        <v>260.2844286654828</v>
+        <v>260.2844286656497</v>
       </c>
       <c r="R1308">
         <v>353.8967288521023</v>
@@ -52978,13 +52978,13 @@
         <v>330.0330033003301</v>
       </c>
       <c r="AJ1308">
-        <v>326.7095272252362</v>
+        <v>326.7095012671406</v>
       </c>
       <c r="AK1308">
-        <v>611.8529690362788</v>
+        <v>611.8532060643016</v>
       </c>
       <c r="AL1308">
-        <v>240.2882468519813</v>
+        <v>240.2882468521353</v>
       </c>
       <c r="AM1308">
         <v>380.0126604617023</v>
@@ -53040,13 +53040,13 @@
         <v>356.6600036621094</v>
       </c>
       <c r="O1309">
-        <v>375.2486721617365</v>
+        <v>375.2486722062234</v>
       </c>
       <c r="P1309">
-        <v>547.3078353739552</v>
+        <v>547.3080460819835</v>
       </c>
       <c r="Q1309">
-        <v>245.5290398772029</v>
+        <v>245.5290398773602</v>
       </c>
       <c r="S1309">
         <v>1148.964227160722</v>
@@ -53100,13 +53100,13 @@
         <v>322.4190956988875</v>
       </c>
       <c r="AJ1309">
-        <v>339.2231713629873</v>
+        <v>339.2231714032033</v>
       </c>
       <c r="AK1309">
-        <v>623.2540952997391</v>
+        <v>623.254335246316</v>
       </c>
       <c r="AL1309">
-        <v>223.5108869610769</v>
+        <v>223.5108869612201</v>
       </c>
       <c r="AN1309">
         <v>1120.720819169212</v>
@@ -53159,13 +53159,13 @@
         <v>383.739990234375</v>
       </c>
       <c r="O1310">
-        <v>382.9458838356817</v>
+        <v>382.9459122249605</v>
       </c>
       <c r="P1310">
-        <v>571.0926743082583</v>
+        <v>571.0928132827004</v>
       </c>
       <c r="Q1310">
-        <v>258.6923907633254</v>
+        <v>258.6923907634911</v>
       </c>
       <c r="R1310">
         <v>363.280749022137</v>
@@ -53222,13 +53222,13 @@
         <v>353.514500446223</v>
       </c>
       <c r="AJ1310">
-        <v>352.782942271471</v>
+        <v>352.7829684246527</v>
       </c>
       <c r="AK1310">
-        <v>662.7410795265896</v>
+        <v>662.741240803517</v>
       </c>
       <c r="AL1310">
-        <v>239.9845578062355</v>
+        <v>239.9845578063893</v>
       </c>
       <c r="AM1310">
         <v>391.9938046789675</v>
@@ -53284,13 +53284,13 @@
         <v>409.3999938964844</v>
       </c>
       <c r="O1311">
-        <v>403.0825507390097</v>
+        <v>403.0825791239566</v>
       </c>
       <c r="P1311">
-        <v>596.5177368409625</v>
+        <v>596.5179629183007</v>
       </c>
       <c r="Q1311">
-        <v>267.9412566624106</v>
+        <v>267.9412566625823</v>
       </c>
       <c r="R1311">
         <v>373.018028869199</v>
@@ -53347,13 +53347,13 @@
         <v>378.8285314115706</v>
       </c>
       <c r="AJ1311">
-        <v>372.9828358832328</v>
+        <v>372.9828621485672</v>
       </c>
       <c r="AK1311">
-        <v>695.3209892648841</v>
+        <v>695.3212527881775</v>
       </c>
       <c r="AL1311">
-        <v>249.6685902276741</v>
+        <v>249.6685902278341</v>
       </c>
       <c r="AM1311">
         <v>404.2884348664884</v>
@@ -53409,13 +53409,13 @@
         <v>420.5199890136719</v>
       </c>
       <c r="O1312">
-        <v>407.5819260850924</v>
+        <v>407.5818694729415</v>
       </c>
       <c r="P1312">
-        <v>617.2365191796013</v>
+        <v>617.2367517264965</v>
       </c>
       <c r="Q1312">
-        <v>280.8034832477324</v>
+        <v>280.8035460780349</v>
       </c>
       <c r="S1312">
         <v>1136.671451539298</v>
@@ -53469,13 +53469,13 @@
         <v>389.6951061196107</v>
       </c>
       <c r="AJ1312">
-        <v>377.7054268233643</v>
+        <v>377.7053743609874</v>
       </c>
       <c r="AK1312">
-        <v>720.5382663428262</v>
+        <v>720.5385378091629</v>
       </c>
       <c r="AL1312">
-        <v>262.0416158191701</v>
+        <v>262.0416744514699</v>
       </c>
       <c r="AN1312">
         <v>1081.56823390778</v>
@@ -53528,13 +53528,13 @@
         <v>396.7300109863281</v>
       </c>
       <c r="O1313">
-        <v>390.1686037648738</v>
+        <v>390.1686604582453</v>
       </c>
       <c r="P1313">
-        <v>594.4922250804999</v>
+        <v>594.4924505073903</v>
       </c>
       <c r="Q1313">
-        <v>294.4915780454673</v>
+        <v>294.4915989765753</v>
       </c>
       <c r="R1313">
         <v>353.5411158997042</v>
@@ -53591,13 +53591,13 @@
         <v>371.3309724694198</v>
       </c>
       <c r="AJ1313">
-        <v>365.1896328761455</v>
+        <v>365.1896859399525</v>
       </c>
       <c r="AK1313">
-        <v>700.937716149294</v>
+        <v>700.9379819394981</v>
       </c>
       <c r="AL1313">
-        <v>277.5674083599641</v>
+        <v>277.5674280881799</v>
       </c>
       <c r="AM1313">
         <v>387.5901179482228</v>
@@ -53653,13 +53653,13 @@
         <v>414.3999938964844</v>
       </c>
       <c r="O1314">
-        <v>414.0735536727458</v>
+        <v>414.0735537241201</v>
       </c>
       <c r="P1314">
-        <v>622.5919256451303</v>
+        <v>622.5921203020582</v>
       </c>
       <c r="Q1314">
-        <v>291.4541220933207</v>
+        <v>291.4541011743735</v>
       </c>
       <c r="R1314">
         <v>370.391812004942</v>
@@ -53716,13 +53716,13 @@
         <v>382.0763358809555</v>
       </c>
       <c r="AJ1314">
-        <v>381.7753583558416</v>
+        <v>381.7753584032086</v>
       </c>
       <c r="AK1314">
-        <v>723.1044152085291</v>
+        <v>723.1046412912619</v>
       </c>
       <c r="AL1314">
-        <v>270.6014207523271</v>
+        <v>270.6014013300701</v>
       </c>
       <c r="AM1314">
         <v>399.9985564702212</v>
@@ -53778,13 +53778,13 @@
         <v>406.7999877929688</v>
       </c>
       <c r="O1315">
-        <v>440.06152455168</v>
+        <v>440.0615246062785</v>
       </c>
       <c r="P1315">
-        <v>624.1503726372385</v>
+        <v>624.1504887031583</v>
       </c>
       <c r="Q1315">
-        <v>295.401894661275</v>
+        <v>295.401894660431</v>
       </c>
       <c r="S1315">
         <v>1119.691106456322</v>
@@ -53838,13 +53838,13 @@
         <v>379.796459521024</v>
       </c>
       <c r="AJ1315">
-        <v>410.8500836072075</v>
+        <v>410.8500836581818</v>
       </c>
       <c r="AK1315">
-        <v>734.0511851471659</v>
+        <v>734.0513216500501</v>
       </c>
       <c r="AL1315">
-        <v>277.7235626215142</v>
+        <v>277.7235626207208</v>
       </c>
       <c r="AN1315">
         <v>1057.512541048357</v>
@@ -53897,13 +53897,13 @@
         <v>438.5</v>
       </c>
       <c r="O1316">
-        <v>433.2545186120585</v>
+        <v>433.2545186658126</v>
       </c>
       <c r="P1316">
-        <v>646.8067313093916</v>
+        <v>646.8068544754613</v>
       </c>
       <c r="Q1316">
-        <v>286.6247712950264</v>
+        <v>286.6247712942074</v>
       </c>
       <c r="R1316">
         <v>382.7354952818134</v>
@@ -53960,13 +53960,13 @@
         <v>405.1556869629492</v>
       </c>
       <c r="AJ1316">
-        <v>400.3090812270706</v>
+        <v>400.3090812767371</v>
       </c>
       <c r="AK1316">
-        <v>752.8249463461523</v>
+        <v>752.8250897003961</v>
       </c>
       <c r="AL1316">
-        <v>266.683123620153</v>
+        <v>266.683123619391</v>
       </c>
       <c r="AM1316">
         <v>414.2072814798261</v>
@@ -54022,13 +54022,13 @@
         <v>475.9200134277344</v>
       </c>
       <c r="O1317">
-        <v>437.9287614466542</v>
+        <v>437.9287615009881</v>
       </c>
       <c r="P1317">
-        <v>658.1998333192277</v>
+        <v>658.199920541915</v>
       </c>
       <c r="Q1317">
-        <v>277.6310014005198</v>
+        <v>277.6309805208355</v>
       </c>
       <c r="S1317">
         <v>1150.201945415135</v>
@@ -54082,13 +54082,13 @@
         <v>430.3074262456911</v>
       </c>
       <c r="AJ1317">
-        <v>395.9572888306096</v>
+        <v>395.957288879736</v>
       </c>
       <c r="AK1317">
-        <v>749.6693761593409</v>
+        <v>749.6694755033005</v>
       </c>
       <c r="AL1317">
-        <v>252.7797634813051</v>
+        <v>252.7797444705979</v>
       </c>
       <c r="AN1317">
         <v>1121.725268668347</v>
@@ -54141,13 +54141,13 @@
         <v>460.260009765625</v>
       </c>
       <c r="O1318">
-        <v>448.6693145423501</v>
+        <v>448.6693428863199</v>
       </c>
       <c r="P1318">
-        <v>667.5086717473428</v>
+        <v>667.5089594753788</v>
       </c>
       <c r="Q1318">
-        <v>278.2492624157484</v>
+        <v>278.2492624145008</v>
       </c>
       <c r="R1318">
         <v>393.4776211316912</v>
@@ -54204,13 +54204,13 @@
         <v>412.9744367569538</v>
       </c>
       <c r="AJ1318">
-        <v>402.5745307692688</v>
+        <v>402.574556201274</v>
       </c>
       <c r="AK1318">
-        <v>754.4734623599171</v>
+        <v>754.4737875739207</v>
       </c>
       <c r="AL1318">
-        <v>251.4105044887022</v>
+        <v>251.410504487575</v>
       </c>
       <c r="AM1318">
         <v>413.5296091466458</v>
@@ -54266,13 +54266,13 @@
         <v>450.9200134277344</v>
       </c>
       <c r="O1319">
-        <v>445.3028628312434</v>
+        <v>445.3028628862712</v>
       </c>
       <c r="P1319">
-        <v>657.0326954049591</v>
+        <v>657.0329798402404</v>
       </c>
       <c r="Q1319">
-        <v>268.5698625305068</v>
+        <v>268.5698833817268</v>
       </c>
       <c r="R1319">
         <v>378.5612539248499</v>
@@ -54329,13 +54329,13 @@
         <v>415.4030524437903</v>
       </c>
       <c r="AJ1319">
-        <v>410.2283397800493</v>
+        <v>410.2283398307428</v>
       </c>
       <c r="AK1319">
-        <v>762.4726728711443</v>
+        <v>762.4730029523269</v>
       </c>
       <c r="AL1319">
-        <v>249.1477213894246</v>
+        <v>249.1477407327488</v>
       </c>
       <c r="AM1319">
         <v>408.4820531489271</v>
@@ -54391,13 +54391,13 @@
         <v>483.0199890136719</v>
       </c>
       <c r="O1320">
-        <v>469.0189515731556</v>
+        <v>469.0189516311141</v>
       </c>
       <c r="P1320">
-        <v>689.5237119861789</v>
+        <v>689.5240065636725</v>
       </c>
       <c r="Q1320">
-        <v>271.1944230294066</v>
+        <v>271.194423028792</v>
       </c>
       <c r="S1320">
         <v>1180.626839995959</v>
@@ -54451,13 +54451,13 @@
         <v>457.9690803201592</v>
       </c>
       <c r="AJ1320">
-        <v>444.6941799309335</v>
+        <v>444.6941799858861</v>
       </c>
       <c r="AK1320">
-        <v>823.5451028624154</v>
+        <v>823.5454546963672</v>
       </c>
       <c r="AL1320">
-        <v>258.9293486210415</v>
+        <v>258.9293486204547</v>
       </c>
       <c r="AN1320">
         <v>1097.991243204517</v>
@@ -54510,13 +54510,13 @@
         <v>453.2799987792969</v>
       </c>
       <c r="O1321">
-        <v>470.2726740087832</v>
+        <v>470.2726740668967</v>
       </c>
       <c r="P1321">
-        <v>645.366308817247</v>
+        <v>645.3663921273649</v>
       </c>
       <c r="Q1321">
-        <v>260.5598622338076</v>
+        <v>260.5598622332171</v>
       </c>
       <c r="R1321">
         <v>364.9606779294065</v>
@@ -54573,13 +54573,13 @@
         <v>437.9093795568514</v>
       </c>
       <c r="AJ1321">
-        <v>454.3258371256721</v>
+        <v>454.325837181815</v>
       </c>
       <c r="AK1321">
-        <v>785.4003856797276</v>
+        <v>785.400487066797</v>
       </c>
       <c r="AL1321">
-        <v>253.4864083368217</v>
+        <v>253.4864083362473</v>
       </c>
       <c r="AM1321">
         <v>412.9813244393967</v>
@@ -54635,13 +54635,13 @@
         <v>468.6700134277344</v>
       </c>
       <c r="O1322">
-        <v>481.1037133800153</v>
+        <v>481.1037134394672</v>
       </c>
       <c r="P1322">
-        <v>692.5406554994468</v>
+        <v>692.5407930619305</v>
       </c>
       <c r="Q1322">
-        <v>271.9737996661865</v>
+        <v>271.9738412905728</v>
       </c>
       <c r="R1322">
         <v>376.6530068665128</v>
@@ -54698,13 +54698,13 @@
         <v>450.6442436805138</v>
       </c>
       <c r="AJ1322">
-        <v>462.5997244038609</v>
+        <v>462.5997244610261</v>
       </c>
       <c r="AK1322">
-        <v>838.8398689737048</v>
+        <v>838.8400355962633</v>
       </c>
       <c r="AL1322">
-        <v>263.3438617921632</v>
+        <v>263.3439020957757</v>
       </c>
       <c r="AM1322">
         <v>424.2039871309621</v>
@@ -54760,13 +54760,13 @@
         <v>513.8300170898438</v>
       </c>
       <c r="O1323">
-        <v>467.9769117820202</v>
+        <v>467.97691183985</v>
       </c>
       <c r="P1323">
-        <v>687.2475468972735</v>
+        <v>687.2476828221036</v>
       </c>
       <c r="Q1323">
-        <v>265.5362211272048</v>
+        <v>265.5362211249223</v>
       </c>
       <c r="R1323">
         <v>379.6963675085928</v>
@@ -54823,13 +54823,13 @@
         <v>493.9723294461101</v>
       </c>
       <c r="AJ1323">
-        <v>449.8912822361279</v>
+        <v>449.8912822917227</v>
       </c>
       <c r="AK1323">
-        <v>832.2685395371038</v>
+        <v>832.268704144399</v>
       </c>
       <c r="AL1323">
-        <v>257.061117741872</v>
+        <v>257.0611177396623</v>
       </c>
       <c r="AM1323">
         <v>427.5493392155478</v>
@@ -54885,13 +54885,13 @@
         <v>532.5800170898438</v>
       </c>
       <c r="O1324">
-        <v>431.7143496918636</v>
+        <v>431.7143779915725</v>
       </c>
       <c r="P1324">
-        <v>659.4108097435891</v>
+        <v>659.4110553717679</v>
       </c>
       <c r="Q1324">
-        <v>259.2093206462867</v>
+        <v>259.2093414307987</v>
       </c>
       <c r="R1324">
         <v>364.6827959873402</v>
@@ -54948,13 +54948,13 @@
         <v>493.3123537327193</v>
       </c>
       <c r="AJ1324">
-        <v>399.8836140161761</v>
+        <v>399.8836402293188</v>
       </c>
       <c r="AK1324">
-        <v>769.4144099981468</v>
+        <v>769.4146966022751</v>
       </c>
       <c r="AL1324">
-        <v>241.7782381352452</v>
+        <v>241.7782575220584</v>
       </c>
       <c r="AM1324">
         <v>395.6571757411293</v>
@@ -55010,13 +55010,13 @@
         <v>533.25</v>
       </c>
       <c r="O1325">
-        <v>438.2895348316021</v>
+        <v>438.2895348864728</v>
       </c>
       <c r="P1325">
-        <v>658.0480203589443</v>
+        <v>658.0482655524794</v>
       </c>
       <c r="Q1325">
-        <v>260.8775379659438</v>
+        <v>260.8775587375437</v>
       </c>
       <c r="R1325">
         <v>368.5560383968339</v>
@@ -55073,13 +55073,13 @@
         <v>469.8651863600317</v>
       </c>
       <c r="AJ1325">
-        <v>386.1922062134127</v>
+        <v>386.1922062617612</v>
       </c>
       <c r="AK1325">
-        <v>730.4106892643952</v>
+        <v>730.4109614207932</v>
       </c>
       <c r="AL1325">
-        <v>231.4773819118031</v>
+        <v>231.4774003425028</v>
       </c>
       <c r="AM1325">
         <v>380.3755398099944</v>
@@ -55135,13 +55135,13 @@
         <v>503.9599914550781</v>
       </c>
       <c r="O1326">
-        <v>478.4073908801054</v>
+        <v>478.4074474035096</v>
       </c>
       <c r="P1326">
-        <v>696.1594885905597</v>
+        <v>696.1597062462153</v>
       </c>
       <c r="Q1326">
-        <v>260.3014168913803</v>
+        <v>260.3013961288854</v>
       </c>
       <c r="S1326">
         <v>1175.39720064123</v>
@@ -55195,13 +55195,13 @@
         <v>443.9887519955756</v>
       </c>
       <c r="AJ1326">
-        <v>421.4769109131772</v>
+        <v>421.4769607102962</v>
       </c>
       <c r="AK1326">
-        <v>772.5948061230979</v>
+        <v>772.5950476764083</v>
       </c>
       <c r="AL1326">
-        <v>230.9308268715133</v>
+        <v>230.930808451713</v>
       </c>
       <c r="AN1326">
         <v>1176.429814775257</v>
@@ -55254,13 +55254,13 @@
         <v>485.7699890136719</v>
       </c>
       <c r="O1327">
-        <v>508.2672253263698</v>
+        <v>508.2672253896249</v>
       </c>
       <c r="P1327">
-        <v>725.3373348370942</v>
+        <v>725.3375616152618</v>
       </c>
       <c r="Q1327">
-        <v>265.4025275710853</v>
+        <v>265.4025275688164</v>
       </c>
       <c r="R1327">
         <v>381.8130774816128</v>
@@ -55317,13 +55317,13 @@
         <v>412.7187672163737</v>
       </c>
       <c r="AJ1327">
-        <v>431.8328167598724</v>
+        <v>431.832816813615</v>
       </c>
       <c r="AK1327">
-        <v>776.3019886952316</v>
+        <v>776.3022314076001</v>
       </c>
       <c r="AL1327">
-        <v>227.0691123739023</v>
+        <v>227.069112371961</v>
       </c>
       <c r="AM1327">
         <v>379.9627158024626</v>
@@ -55379,13 +55379,13 @@
         <v>471.8800048828125</v>
       </c>
       <c r="O1328">
-        <v>521.04358805148</v>
+        <v>521.0435881163252</v>
       </c>
       <c r="P1328">
-        <v>738.951672609755</v>
+        <v>738.9519036444723</v>
       </c>
       <c r="Q1328">
-        <v>265.7552501088951</v>
+        <v>265.7552501066231</v>
       </c>
       <c r="R1328">
         <v>384.1928735709186</v>
@@ -55442,13 +55442,13 @@
         <v>412.8072827248819</v>
       </c>
       <c r="AJ1328">
-        <v>455.8162785858455</v>
+        <v>455.816278642573</v>
       </c>
       <c r="AK1328">
-        <v>814.3271997082568</v>
+        <v>814.3274543092833</v>
       </c>
       <c r="AL1328">
-        <v>234.1138455600187</v>
+        <v>234.1138455580172</v>
       </c>
       <c r="AM1328">
         <v>393.6694620357501</v>
@@ -55504,13 +55504,13 @@
         <v>502.9800109863281</v>
       </c>
       <c r="O1329">
-        <v>525.8839026108295</v>
+        <v>525.8839590998185</v>
       </c>
       <c r="P1329">
-        <v>762.8793034386679</v>
+        <v>762.879541954407</v>
       </c>
       <c r="Q1329">
-        <v>269.1173479138141</v>
+        <v>269.1173479115133</v>
       </c>
       <c r="S1329">
         <v>1165.925303294691</v>
@@ -55564,13 +55564,13 @@
         <v>430.4000132201581</v>
       </c>
       <c r="AJ1329">
-        <v>449.998874094664</v>
+        <v>449.9989224322939</v>
       </c>
       <c r="AK1329">
-        <v>822.326928439599</v>
+        <v>822.3271855417566</v>
       </c>
       <c r="AL1329">
-        <v>231.8957102129235</v>
+        <v>231.895710210941</v>
       </c>
       <c r="AN1329">
         <v>1201.452086637341</v>
@@ -55623,13 +55623,13 @@
         <v>502.739990234375</v>
       </c>
       <c r="O1330">
-        <v>553.3834743165015</v>
+        <v>553.3834743859724</v>
       </c>
       <c r="P1330">
-        <v>780.2284476598605</v>
+        <v>780.2286915998443</v>
       </c>
       <c r="Q1330">
-        <v>283.0531618692831</v>
+        <v>283.0531618668631</v>
       </c>
       <c r="R1330">
         <v>398.8013443207491</v>
@@ -55686,13 +55686,13 @@
         <v>428.410728789412</v>
       </c>
       <c r="AJ1330">
-        <v>471.5666589829582</v>
+        <v>471.5666590421579</v>
       </c>
       <c r="AK1330">
-        <v>837.5404989494045</v>
+        <v>837.5407608081158</v>
       </c>
       <c r="AL1330">
-        <v>242.8926578631172</v>
+        <v>242.8926578610406</v>
       </c>
       <c r="AM1330">
         <v>398.0523262688901</v>
@@ -55748,13 +55748,13 @@
         <v>477.5400085449219</v>
       </c>
       <c r="O1331">
-        <v>580.3711788447117</v>
+        <v>580.3711789175705</v>
       </c>
       <c r="P1331">
-        <v>790.8343014868049</v>
+        <v>790.8345487427299</v>
       </c>
       <c r="Q1331">
-        <v>295.3885826260238</v>
+        <v>295.3885826234985</v>
       </c>
       <c r="R1331">
         <v>406.9313675586703</v>
@@ -55811,13 +55811,13 @@
         <v>413.7769764707754</v>
       </c>
       <c r="AJ1331">
-        <v>502.8777218999322</v>
+        <v>502.8777219630626</v>
       </c>
       <c r="AK1331">
-        <v>863.1955372870013</v>
+        <v>863.1958071668114</v>
       </c>
       <c r="AL1331">
-        <v>257.7387598166589</v>
+        <v>257.7387598144554</v>
       </c>
       <c r="AM1331">
         <v>412.9946003630535</v>
@@ -55873,13 +55873,13 @@
         <v>513.8099975585938</v>
       </c>
       <c r="O1332">
-        <v>571.1662834341857</v>
+        <v>571.1662835058889</v>
       </c>
       <c r="P1332">
-        <v>799.2524804909325</v>
+        <v>799.252730378818</v>
       </c>
       <c r="Q1332">
-        <v>300.82642973776</v>
+        <v>300.8264297351882</v>
       </c>
       <c r="S1332">
         <v>1184.427457379765</v>
@@ -55933,13 +55933,13 @@
         <v>443.0583667362994</v>
       </c>
       <c r="AJ1332">
-        <v>492.5166926989081</v>
+        <v>492.5166927607377</v>
       </c>
       <c r="AK1332">
-        <v>868.1794743708124</v>
+        <v>868.1797458088605</v>
       </c>
       <c r="AL1332">
-        <v>261.2184522194576</v>
+        <v>261.2184522172244</v>
       </c>
       <c r="AN1332">
         <v>1211.176269679496</v>
@@ -55992,13 +55992,13 @@
         <v>502.6499938964844</v>
       </c>
       <c r="O1333">
-        <v>566.4670640996503</v>
+        <v>566.4670641707636</v>
       </c>
       <c r="P1333">
-        <v>791.6899420702802</v>
+        <v>791.6901895937228</v>
       </c>
       <c r="Q1333">
-        <v>291.7936316059186</v>
+        <v>291.793631603424</v>
       </c>
       <c r="R1333">
         <v>408.8297277132017</v>
@@ -56055,13 +56055,13 @@
         <v>428.297540811592</v>
       </c>
       <c r="AJ1333">
-        <v>482.6747308279229</v>
+        <v>482.674730888517</v>
       </c>
       <c r="AK1333">
-        <v>849.7714894563156</v>
+        <v>849.7717551390701</v>
       </c>
       <c r="AL1333">
-        <v>250.3716658377301</v>
+        <v>250.3716658355896</v>
       </c>
       <c r="AM1333">
         <v>408.0271045206541</v>
@@ -56084,13 +56084,13 @@
         <v>499.7699890136719</v>
       </c>
       <c r="O1334">
-        <v>572.7428388438717</v>
+        <v>572.7428389157729</v>
       </c>
       <c r="P1334">
-        <v>832.8847433273176</v>
+        <v>832.8850037303972</v>
       </c>
       <c r="Q1334">
-        <v>306.1175564320411</v>
+        <v>306.117556429424</v>
       </c>
       <c r="S1334">
         <v>1177.871009212498</v>
@@ -56105,25 +56105,25 @@
         <v>251.5355129703346</v>
       </c>
       <c r="AH1334">
-        <v>12853.74421678884</v>
+        <v>12855.24455560447</v>
       </c>
       <c r="AI1334">
-        <v>428.4527867178421</v>
+        <v>428.5027973867753</v>
       </c>
       <c r="AJ1334">
-        <v>491.0124072468699</v>
+        <v>491.0697201786922</v>
       </c>
       <c r="AK1334">
-        <v>899.46617214855</v>
+        <v>899.571442577084</v>
       </c>
       <c r="AL1334">
-        <v>264.2716078611257</v>
+        <v>264.3024546646262</v>
       </c>
       <c r="AN1334">
-        <v>1211.496635952999</v>
+        <v>1211.355241876824</v>
       </c>
       <c r="AO1334">
-        <v>3341.412221960451</v>
+        <v>3341.802244538393</v>
       </c>
     </row>
   </sheetData>
